--- a/Ophir Post Excel Pos For Marketing.xlsx
+++ b/Ophir Post Excel Pos For Marketing.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15000" windowHeight="4665" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15000" windowHeight="4665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Old" sheetId="1" r:id="rId1"/>
     <sheet name="SST" sheetId="3" r:id="rId2"/>
-    <sheet name="sumon" sheetId="2" r:id="rId3"/>
+    <sheet name="Su Mon" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Old!$A$2:$M$691</definedName>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4712" uniqueCount="1224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5116" uniqueCount="1550">
   <si>
     <t>Date</t>
   </si>
@@ -3705,17 +3705,995 @@
     <t>Sales</t>
   </si>
   <si>
-    <t>2024 JAN</t>
-  </si>
-  <si>
     <t>SALES</t>
+  </si>
+  <si>
+    <t>27.12.23</t>
+  </si>
+  <si>
+    <t>Red-x</t>
+  </si>
+  <si>
+    <t>2023/Dec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဘာတာမှတ်တိုင်/innsein </t>
+  </si>
+  <si>
+    <t>ကိုရာဇာ</t>
+  </si>
+  <si>
+    <t>09-793666670</t>
+  </si>
+  <si>
+    <t>Kyi Li</t>
+  </si>
+  <si>
+    <t>ကိုအောင်ခိုင်</t>
+  </si>
+  <si>
+    <t>Four Season</t>
+  </si>
+  <si>
+    <t>09-30208888</t>
+  </si>
+  <si>
+    <t>ကနုတ်res</t>
+  </si>
+  <si>
+    <t>09-408604466</t>
+  </si>
+  <si>
+    <t>ပန်းလှစားသောက်ဆိုင်</t>
+  </si>
+  <si>
+    <t>ရန်ကုန်အောင်ခိုက်</t>
+  </si>
+  <si>
+    <t>မာမူကြီး</t>
+  </si>
+  <si>
+    <t>ထွန်းသူရ</t>
+  </si>
+  <si>
+    <t>လမ်း ၅၀</t>
+  </si>
+  <si>
+    <t>ဦးဟာရှင်နှင့်သားများ</t>
+  </si>
+  <si>
+    <t>no205 Botahtoung</t>
+  </si>
+  <si>
+    <t>Hj</t>
+  </si>
+  <si>
+    <t>ကောင်းကင်နန်းသာ</t>
+  </si>
+  <si>
+    <t>no179/181 Botahtoung</t>
+  </si>
+  <si>
+    <t>09-73047701</t>
+  </si>
+  <si>
+    <t>CuBa Res</t>
+  </si>
+  <si>
+    <t>No200,Maha Bandula Road</t>
+  </si>
+  <si>
+    <t>Htiko San</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>The MohhiMohi</t>
+  </si>
+  <si>
+    <t>ဗိုလ်မြတ်ထွန်းလမ်း ရန်ကုန်</t>
+  </si>
+  <si>
+    <t>‌ရွှေခရားကြီး</t>
+  </si>
+  <si>
+    <t>09-441211115</t>
+  </si>
+  <si>
+    <t>Suki Hptpot</t>
+  </si>
+  <si>
+    <t>09-966766765</t>
+  </si>
+  <si>
+    <t>Classic Mandalay</t>
+  </si>
+  <si>
+    <t>28.12.23</t>
+  </si>
+  <si>
+    <t>ငွေကျိုင်းတုံ</t>
+  </si>
+  <si>
+    <t>ကျောက်မြောင်း  ဓမစိန္တာလမ်း</t>
+  </si>
+  <si>
+    <t>09-458030143</t>
+  </si>
+  <si>
+    <t>Zoom BBQ</t>
+  </si>
+  <si>
+    <t>09-972200279</t>
+  </si>
+  <si>
+    <t>Red  Lemon</t>
+  </si>
+  <si>
+    <t>09-441200130</t>
+  </si>
+  <si>
+    <t>Weekend</t>
+  </si>
+  <si>
+    <t>Mananger</t>
+  </si>
+  <si>
+    <t>CoCo SeaFood</t>
+  </si>
+  <si>
+    <t>သတိပဌာန်လမ်း တာမွေ</t>
+  </si>
+  <si>
+    <t>09-454248033</t>
+  </si>
+  <si>
+    <t>09-788498831</t>
+  </si>
+  <si>
+    <t>Max Spicy</t>
+  </si>
+  <si>
+    <t>ကျားကွက်သစ်လမ်းကျောက်မြောင်း</t>
+  </si>
+  <si>
+    <t>09-407324986</t>
+  </si>
+  <si>
+    <t>White Connor</t>
+  </si>
+  <si>
+    <t>09-789757575</t>
+  </si>
+  <si>
+    <t>3.1.24</t>
+  </si>
+  <si>
+    <t>ကိုခန့်ကြီး</t>
+  </si>
+  <si>
+    <t>အမှတ်(၁၃၇)သံသုမာလမ်းမကြီး</t>
+  </si>
+  <si>
+    <t>09-973585848-426965419</t>
+  </si>
+  <si>
+    <t>‌ရွှေ‌ရောင်လမ်း</t>
+  </si>
+  <si>
+    <t>ကမာကြည်လမ်း</t>
+  </si>
+  <si>
+    <t>09-783767333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beer Talk </t>
+  </si>
+  <si>
+    <t>သံသုမာလမ်းမကြီး</t>
+  </si>
+  <si>
+    <t>09-43081146-780715194-09798442390</t>
+  </si>
+  <si>
+    <t>ပွင့်ဖြူ</t>
+  </si>
+  <si>
+    <t>Thuwana</t>
+  </si>
+  <si>
+    <t>09-5103148-976008116</t>
+  </si>
+  <si>
+    <t>ရှေ့မိသားစု</t>
+  </si>
+  <si>
+    <t>09-5072299=761547453</t>
+  </si>
+  <si>
+    <t>Time Zone</t>
+  </si>
+  <si>
+    <t>09-768937114-259840327</t>
+  </si>
+  <si>
+    <t>247Res</t>
+  </si>
+  <si>
+    <t>ကိုတူး</t>
+  </si>
+  <si>
+    <t>09-750811096</t>
+  </si>
+  <si>
+    <t>ဘာဘာ ကဖီး</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>09-979162191-</t>
+  </si>
+  <si>
+    <t>Z Cost Res</t>
+  </si>
+  <si>
+    <t>မြတ်သူ</t>
+  </si>
+  <si>
+    <t>09-953360033</t>
+  </si>
+  <si>
+    <t>In Box Bar</t>
+  </si>
+  <si>
+    <t>လမင်း</t>
+  </si>
+  <si>
+    <t>09-969044074</t>
+  </si>
+  <si>
+    <t>4.1.24</t>
+  </si>
+  <si>
+    <t>အမှတ်(၃၅၆) လသာ</t>
+  </si>
+  <si>
+    <t>ကိုသန့်ဇင်ထွန်း</t>
+  </si>
+  <si>
+    <t>09-955005377</t>
+  </si>
+  <si>
+    <t>ချဉ်ငံစပ်</t>
+  </si>
+  <si>
+    <t>မင်္ငလာတောင်ညွန့်</t>
+  </si>
+  <si>
+    <t>09-450065666</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>အမှတ်(၅၇၂) လမ်းမတော် ကမ်းနားလမ်း</t>
+  </si>
+  <si>
+    <t>09-420084133</t>
+  </si>
+  <si>
+    <t>Tin R</t>
+  </si>
+  <si>
+    <t>၄ လမ်း လမ်းမတော် မြို့</t>
+  </si>
+  <si>
+    <t>01-221854</t>
+  </si>
+  <si>
+    <t>8.1.24</t>
+  </si>
+  <si>
+    <t>Ru Dra Indian</t>
+  </si>
+  <si>
+    <t>အမှတ်(၂၇၅) အခန်း၄ ရန်ကင်းမြို့</t>
+  </si>
+  <si>
+    <t>09-43125858-254879065</t>
+  </si>
+  <si>
+    <t>9.1.24</t>
+  </si>
+  <si>
+    <t>B &amp; B</t>
+  </si>
+  <si>
+    <t>သုနန္ဒလမ်းမကြီး မြောက်ဥကလာ</t>
+  </si>
+  <si>
+    <t>09-445702600</t>
+  </si>
+  <si>
+    <t>မဟာနှင်းဆီ</t>
+  </si>
+  <si>
+    <t>အမှတ်(၂၀) သုနန္ဒလမ်းမကြီး မြောက်ဥကလာ</t>
+  </si>
+  <si>
+    <t>09-428025580</t>
+  </si>
+  <si>
+    <t>Rythem Bar</t>
+  </si>
+  <si>
+    <t>ခိုင်သဇင်အေး</t>
+  </si>
+  <si>
+    <t>09-252893932</t>
+  </si>
+  <si>
+    <t>ကောင်းကြိုက်</t>
+  </si>
+  <si>
+    <t>09-5012704-969689001</t>
+  </si>
+  <si>
+    <t>စံချိန်ဦးလက်ဖက်စို</t>
+  </si>
+  <si>
+    <t>မြောက်ဥကလာ</t>
+  </si>
+  <si>
+    <t>09-959519177</t>
+  </si>
+  <si>
+    <t>ပတ္တမြားရှမ်းခေါက်ဆွဲ</t>
+  </si>
+  <si>
+    <t>ဝေဘာဂီမှတ်တိုင် မြောက်ဥကလာ</t>
+  </si>
+  <si>
+    <t>09-799499454-254416988</t>
+  </si>
+  <si>
+    <t>အမှတ်(၁၆) သမိုင်းလမ်းဆုံ</t>
+  </si>
+  <si>
+    <t>မေချောမာလာမောက်ချိုက်</t>
+  </si>
+  <si>
+    <t>09-973095692</t>
+  </si>
+  <si>
+    <t>66 Ford Centre</t>
+  </si>
+  <si>
+    <t>09-5190610-253222341-01-9699160</t>
+  </si>
+  <si>
+    <t>ရွှေနဒီ</t>
+  </si>
+  <si>
+    <t>Ruby Palace Hotel</t>
+  </si>
+  <si>
+    <t>09-898874441-898874442-898874443</t>
+  </si>
+  <si>
+    <t>09-898874442-898874443</t>
+  </si>
+  <si>
+    <t>Royal 9 Res</t>
+  </si>
+  <si>
+    <t>09-422333052</t>
+  </si>
+  <si>
+    <t>ရွှေထူး</t>
+  </si>
+  <si>
+    <t>09-5071233</t>
+  </si>
+  <si>
+    <t>ဦးသိန်းစိုး</t>
+  </si>
+  <si>
+    <t>Favourite Bar</t>
+  </si>
+  <si>
+    <t>ဥြီးမျိုးမင်းထွေး</t>
+  </si>
+  <si>
+    <t>09-770004832</t>
+  </si>
+  <si>
+    <t>Aung</t>
+  </si>
+  <si>
+    <t>09-421603951</t>
+  </si>
+  <si>
+    <t>ချဉ်ငံစပ်စားသောက်ဆိုင်</t>
+  </si>
+  <si>
+    <t>ဆိုင်ရှင်</t>
+  </si>
+  <si>
+    <t>09-4500065666</t>
+  </si>
+  <si>
+    <t>Ya me Oo</t>
+  </si>
+  <si>
+    <t>09-757757911</t>
+  </si>
+  <si>
+    <t>Yoon Kitchen</t>
+  </si>
+  <si>
+    <t>09-780000166</t>
+  </si>
+  <si>
+    <t>ရွေးမျက်မှန်</t>
+  </si>
+  <si>
+    <t>09-451052358</t>
+  </si>
+  <si>
+    <t>sky</t>
+  </si>
+  <si>
+    <t>09-789407772</t>
+  </si>
+  <si>
+    <t>ဆုံမှတ်မူအထ</t>
+  </si>
+  <si>
+    <t>မြောက်ဒဂုံမြို့နယ်</t>
+  </si>
+  <si>
+    <t>09-965212435</t>
+  </si>
+  <si>
+    <t>အနော်မာ သာကေတ</t>
+  </si>
+  <si>
+    <t>09-5406918</t>
+  </si>
+  <si>
+    <t>Sarr Kaung</t>
+  </si>
+  <si>
+    <t>09-799158078</t>
+  </si>
+  <si>
+    <t>ကနုတ် Res</t>
+  </si>
+  <si>
+    <t>09-689107764</t>
+  </si>
+  <si>
+    <t>အောင်ကောင်းစံ</t>
+  </si>
+  <si>
+    <t>09-422604911</t>
+  </si>
+  <si>
+    <t>Dagdran bar</t>
+  </si>
+  <si>
+    <t>သိမ်ဖြူ</t>
+  </si>
+  <si>
+    <t>09-444311868</t>
+  </si>
+  <si>
+    <t>At way Café</t>
+  </si>
+  <si>
+    <t>09-770557632</t>
+  </si>
+  <si>
+    <t>ရန်ကုန် အကင်ဆိုင်</t>
+  </si>
+  <si>
+    <t>အမှတ်(၂) ၁၃ရပ်ကွက် လှိုင်</t>
+  </si>
+  <si>
+    <t>09-</t>
+  </si>
+  <si>
+    <t>09-799465044</t>
+  </si>
+  <si>
+    <t>P O'clock</t>
+  </si>
+  <si>
+    <t>ဦးဝိုင်းစိန်</t>
+  </si>
+  <si>
+    <t>ပီတာ</t>
+  </si>
+  <si>
+    <t>09-978800860</t>
+  </si>
+  <si>
+    <t>ကနုတ် Food Res</t>
+  </si>
+  <si>
+    <t>အင်းစိန်လမ်း လှိုင် ဘာတာမှတ်တိုင်</t>
+  </si>
+  <si>
+    <t>ကိုလှမိုး</t>
+  </si>
+  <si>
+    <t>Café love</t>
+  </si>
+  <si>
+    <t>အမှတ်(၂၉) ကမာရွတ် ခိုင်ရွေဝါ</t>
+  </si>
+  <si>
+    <t>ဒေါ်ခိုင်မို့မို့အေး</t>
+  </si>
+  <si>
+    <t>09-43062085</t>
+  </si>
+  <si>
+    <t>အလင်းသစ်ကွေ့သယို</t>
+  </si>
+  <si>
+    <t>ရှိုင်းထွဌ်အောင်</t>
+  </si>
+  <si>
+    <t>09-751340375</t>
+  </si>
+  <si>
+    <t>ထင်းရူးရိပ် ရှမ်းစာ</t>
+  </si>
+  <si>
+    <t>ဒေါ်အေးအေးအောင်</t>
+  </si>
+  <si>
+    <t>မြေနီကုန်း မဟာဘောဂလမ်း အမှတ် ၂၃၆/၂၃၈</t>
+  </si>
+  <si>
+    <t>မြေနီကုန်း မဟာဘောဂလမ်း အမှတ် ၂၆</t>
+  </si>
+  <si>
+    <t>09-953053019</t>
+  </si>
+  <si>
+    <t>ကြက်လျှာစွန်း ဒံပေါက်</t>
+  </si>
+  <si>
+    <t>မြေနီကုန်း မဟာဘောဂလမ်း အမှတ် ၁၈</t>
+  </si>
+  <si>
+    <t>ဦးအောင်ခိုင်</t>
+  </si>
+  <si>
+    <t>09-5018265-785018265</t>
+  </si>
+  <si>
+    <t>မြန်မာရိုးရာ ထမင်းဆိုင်</t>
+  </si>
+  <si>
+    <t>မြေနီကုန်း မဟာဘောဂလမ်း အမှတ် ၂၇</t>
+  </si>
+  <si>
+    <t>ကိုထူးမြတ်</t>
+  </si>
+  <si>
+    <t>09-420543034-01-7501165</t>
+  </si>
+  <si>
+    <t>ဓနုဖြူဒေါ်စောရီ</t>
+  </si>
+  <si>
+    <t>မြေနီကုန်း မဟာဘောဂလမ်း အမှတ် ၁၅</t>
+  </si>
+  <si>
+    <t>ဦးရန်နိုင်</t>
+  </si>
+  <si>
+    <t>01-537893</t>
+  </si>
+  <si>
+    <t>အီတီစားဖွယ်စုံ</t>
+  </si>
+  <si>
+    <t>အမှတ် ၂၄၀ ‌မြေနီကုန်း ဗားကရားလမ်း စမ်းချောင်း</t>
+  </si>
+  <si>
+    <t>ဒေါ်အေးအေးလှိုင်</t>
+  </si>
+  <si>
+    <t>August Drinks and Fried chicken</t>
+  </si>
+  <si>
+    <t>အမှတ် ၂၇၀ ပြည်လမ်း စမ်းချောင်း</t>
+  </si>
+  <si>
+    <t>မဆွေဆွေလင်း</t>
+  </si>
+  <si>
+    <t>Fu Fu hot pot</t>
+  </si>
+  <si>
+    <t>မြေနီကုန်း ဒဂုံစင်တာ</t>
+  </si>
+  <si>
+    <t>Yan Yan</t>
+  </si>
+  <si>
+    <t>09-966128777</t>
+  </si>
+  <si>
+    <t>09-797788668-260184933</t>
+  </si>
+  <si>
+    <t>Honey Tea</t>
+  </si>
+  <si>
+    <t>စိုးသန္တာဝင်း</t>
+  </si>
+  <si>
+    <t>09-254004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Che tra Mue </t>
+  </si>
+  <si>
+    <t>Dagon center 1</t>
+  </si>
+  <si>
+    <t>Shine Ko Ko</t>
+  </si>
+  <si>
+    <t>09-973304239</t>
+  </si>
+  <si>
+    <t>Marry Brown</t>
+  </si>
+  <si>
+    <t>09-26388223358</t>
+  </si>
+  <si>
+    <t>Smile Rice and Noodle</t>
+  </si>
+  <si>
+    <t>အောင်တော်မူလမ်း  မြေနီကုန်း</t>
+  </si>
+  <si>
+    <t>09-445000998</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>အမှတ်(၂) မြေနီကုန်း မှတ်တိုင်</t>
+  </si>
+  <si>
+    <t>09-763461684</t>
+  </si>
+  <si>
+    <t>ဦးတင်ရွှေ</t>
+  </si>
+  <si>
+    <t>နှင်းပွင့်မွန်</t>
+  </si>
+  <si>
+    <t>King ပေါက်ဆီ</t>
+  </si>
+  <si>
+    <t>စမ်းချောင်း မြေနီကုန်း</t>
+  </si>
+  <si>
+    <t>ဇင်မာထွန်း</t>
+  </si>
+  <si>
+    <t>09-773345258</t>
+  </si>
+  <si>
+    <t>k S S နတ်သုဒ္ဓါ</t>
+  </si>
+  <si>
+    <t>မြေနီကုန်း ဗားကရားလမ်း စမ်းချောင်း</t>
+  </si>
+  <si>
+    <t>ဦးထွန်းမြင့်</t>
+  </si>
+  <si>
+    <t>Win Hot Pot</t>
+  </si>
+  <si>
+    <t>မလဲ့လဲ့</t>
+  </si>
+  <si>
+    <t>09-777626765</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">မြေနီကုန်း ဂုံးအောက် </t>
+  </si>
+  <si>
+    <t>အောင်ကျော်ကျော်</t>
+  </si>
+  <si>
+    <t>09-444483435</t>
+  </si>
+  <si>
+    <t>Hot Hot hot pot</t>
+  </si>
+  <si>
+    <t>မြင်သော်တာလမ်း ၃ဂိတ်မှတ်တိုင် သာကေတ</t>
+  </si>
+  <si>
+    <t>09-777730755</t>
+  </si>
+  <si>
+    <t>ရွှေနေ့သစ်</t>
+  </si>
+  <si>
+    <t>သာကေတရှုခင်းသာလမ်း ‌ရွှေကြားမှတ်တိုင်</t>
+  </si>
+  <si>
+    <t>ကိုကျော်ဌေး</t>
+  </si>
+  <si>
+    <t>09-440273784</t>
+  </si>
+  <si>
+    <t>ဗာရာဏသီ နှင့် Beerlogy</t>
+  </si>
+  <si>
+    <t>09-260818178</t>
+  </si>
+  <si>
+    <t>1.1.24</t>
+  </si>
+  <si>
+    <t>2.1.24</t>
+  </si>
+  <si>
+    <t>သင်းရနံ (၂)</t>
+  </si>
+  <si>
+    <t>သမိုင်းလမ်းစုံကားဂိတ်အနီး မရမ်းကုန်းမြို့</t>
+  </si>
+  <si>
+    <t>09-252864943</t>
+  </si>
+  <si>
+    <t>အမှတ် ၁၆ သမိုင်းလမ်းဆုံ</t>
+  </si>
+  <si>
+    <t>09-5012704-969689010</t>
+  </si>
+  <si>
+    <t>ဦးမြင့်ဇော်ထွန်း</t>
+  </si>
+  <si>
+    <t>Shinng Star Beer</t>
+  </si>
+  <si>
+    <t>ကျိုက်ဝိုင်းဘုရား သမိုင်းမီးပွိုင့်အနီး</t>
+  </si>
+  <si>
+    <t>09-779998107</t>
+  </si>
+  <si>
+    <t>Sein 3</t>
+  </si>
+  <si>
+    <t>မင်းနိုင်ဦး</t>
+  </si>
+  <si>
+    <t>သမိုင်းဘူတာရုံလမ်း ၂ ရပ်ကွက် မရမ်းကုန်း</t>
+  </si>
+  <si>
+    <t>ပြည့်ဖြိုးဦး</t>
+  </si>
+  <si>
+    <t>09-43023239</t>
+  </si>
+  <si>
+    <t>ရွှေစံအိမ်</t>
+  </si>
+  <si>
+    <t>အလယ်ဘဟိုလမ်း ၂ ရပ်ကွက်</t>
+  </si>
+  <si>
+    <t>ဇင်မာဝင်း</t>
+  </si>
+  <si>
+    <t>09-455676773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ရွှေဒေး Tea House </t>
+  </si>
+  <si>
+    <t>ထက်ဝင်းနိုင်</t>
+  </si>
+  <si>
+    <t>09-783128629</t>
+  </si>
+  <si>
+    <t>ရွှေကောသီ လက်ဖက်ရည်</t>
+  </si>
+  <si>
+    <t>ဗဟိုလမ်း မရမ်းကုန်း</t>
+  </si>
+  <si>
+    <t xml:space="preserve">မ‌နွေးနွေးကျော် </t>
+  </si>
+  <si>
+    <t>Kin Ne Ko</t>
+  </si>
+  <si>
+    <t>သန့်ဇင်အောင်</t>
+  </si>
+  <si>
+    <t>09-941124128</t>
+  </si>
+  <si>
+    <t>Joy Stick</t>
+  </si>
+  <si>
+    <t>အမှတ် ၁၁၁ အလယ်ဗဟိုလမ်း သမိုင်း ၂ရပ်ကွက်</t>
+  </si>
+  <si>
+    <t>မအေးသန္တာ</t>
+  </si>
+  <si>
+    <t>09-256805490</t>
+  </si>
+  <si>
+    <t>ရှမ်းရှမ်း ဟော့ပေါ့</t>
+  </si>
+  <si>
+    <t>အလယ်ဗဟိုလမ်း မရမ်းကုန်း</t>
+  </si>
+  <si>
+    <t>ရှင်းရှင်း</t>
+  </si>
+  <si>
+    <t>09-773747641</t>
+  </si>
+  <si>
+    <t>အေးသုံ</t>
+  </si>
+  <si>
+    <t>ဇွဲဘုန်းပြည့်</t>
+  </si>
+  <si>
+    <t>09-776258330</t>
+  </si>
+  <si>
+    <t>Marry Kitchen</t>
+  </si>
+  <si>
+    <t>ရဲကိုကိုမာန်</t>
+  </si>
+  <si>
+    <t>09-452030338</t>
+  </si>
+  <si>
+    <t>Just Vibe</t>
+  </si>
+  <si>
+    <t>သမိုင်းလမ်းဆုံ အမှတ် ၂ ရပ်ကွက် မရမ်းကုန်း</t>
+  </si>
+  <si>
+    <t>သက်ထက်အောင်</t>
+  </si>
+  <si>
+    <t>Shwe Food Centre</t>
+  </si>
+  <si>
+    <t>5.1.24</t>
+  </si>
+  <si>
+    <t>ပန်းပဲတန်း</t>
+  </si>
+  <si>
+    <t>09-767367581</t>
+  </si>
+  <si>
+    <t>Land of Spicy Res</t>
+  </si>
+  <si>
+    <t>09-775814446</t>
+  </si>
+  <si>
+    <t>House of Bo Bo</t>
+  </si>
+  <si>
+    <t>09-679900079</t>
+  </si>
+  <si>
+    <t>ကြက်ဆီထမင်း</t>
+  </si>
+  <si>
+    <t>09-445285359</t>
+  </si>
+  <si>
+    <t>Thailamd Frenches Coffee shop</t>
+  </si>
+  <si>
+    <t>09-44630534</t>
+  </si>
+  <si>
+    <t>6.1.24</t>
+  </si>
+  <si>
+    <t>Asia DJ Bar</t>
+  </si>
+  <si>
+    <t>မြောက်ဥကလာအဝိုင်း</t>
+  </si>
+  <si>
+    <t>ကိုစိုင်း</t>
+  </si>
+  <si>
+    <t>09-444498712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Step </t>
+  </si>
+  <si>
+    <t>ကိုဖြိုး</t>
+  </si>
+  <si>
+    <t>09-777705400</t>
+  </si>
+  <si>
+    <t>Mr chef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">သူရဇော်ဇော် </t>
+  </si>
+  <si>
+    <t>09-5177311</t>
+  </si>
+  <si>
+    <t>Black and Red</t>
+  </si>
+  <si>
+    <t>အေးသန္တာ</t>
+  </si>
+  <si>
+    <t>09-973330786</t>
+  </si>
+  <si>
+    <t>ဂေဟာမင်း</t>
+  </si>
+  <si>
+    <t>ဦးရဲဝင်းထွေး</t>
+  </si>
+  <si>
+    <t>09-420777790</t>
+  </si>
+  <si>
+    <t>Beer Bank</t>
+  </si>
+  <si>
+    <t>နွေးနွေး</t>
+  </si>
+  <si>
+    <t>09-977403345</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3735,6 +4713,13 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3952,7 +4937,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -4070,11 +5055,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4281,6 +5316,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4747,10 +5801,10 @@
   <dimension ref="A1:M691"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="K674" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="K686" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C699" sqref="C699"/>
+      <selection pane="bottomRight" activeCell="L699" sqref="L699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4793,7 +5847,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="72" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G2" s="72" t="s">
         <v>4</v>
@@ -25435,10 +26489,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L354"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25448,7 +26502,8 @@
     <col min="3" max="3" width="30.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="9" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="29.5703125" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" customWidth="1"/>
@@ -26981,44 +28036,4708 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>1223</v>
+      </c>
       <c r="B66" s="53">
         <v>64</v>
       </c>
+      <c r="C66" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
       <c r="B67" s="53">
         <v>65</v>
       </c>
+      <c r="C67" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
       <c r="B68" s="53">
         <v>66</v>
       </c>
+      <c r="C68" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
       <c r="B69" s="53">
         <v>67</v>
       </c>
+      <c r="C69" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>1257</v>
+      </c>
       <c r="B70" s="53">
         <v>68</v>
       </c>
+      <c r="C70" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
       <c r="B71" s="53">
         <v>69</v>
       </c>
+      <c r="C71" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
       <c r="B72" s="53">
         <v>70</v>
       </c>
+      <c r="C72" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="53">
+        <v>71</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="53">
+        <v>72</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="53">
+        <v>73</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L76">
+      <c r="A76" s="2"/>
+      <c r="B76" s="53">
+        <v>74</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2">
         <v>2024</v>
       </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="53">
+        <v>75</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="53">
+        <v>76</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="53">
+        <v>77</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="53">
+        <v>78</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="53">
+        <v>79</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="53">
+        <v>80</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="53">
+        <v>81</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="53">
+        <v>82</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="53">
+        <v>83</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="B86" s="53">
+        <v>84</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="53">
+        <v>85</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="53">
+        <v>86</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="53">
+        <v>87</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B90" s="53">
+        <v>88</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="B91" s="53">
+        <v>89</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="53">
+        <v>90</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B93" s="53">
+        <v>91</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="53">
+        <v>92</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+      <c r="B95" s="53">
+        <v>93</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="B96" s="53">
+        <v>94</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="53">
+        <v>95</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="53">
+        <v>96</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="53">
+        <v>97</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="53">
+        <v>98</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+      <c r="B101" s="53">
+        <v>99</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D101" s="3"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+      <c r="B102" s="53">
+        <v>100</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+      <c r="B103" s="53">
+        <v>101</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+      <c r="B104" s="53">
+        <v>102</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D104" s="3"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+      <c r="B105" s="53">
+        <v>103</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D105" s="3"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B106" s="53">
+        <v>104</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D106" s="3"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+      <c r="B107" s="53">
+        <v>105</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D107" s="3"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+      <c r="B108" s="53">
+        <v>106</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D108" s="3"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
+      <c r="B109" s="53">
+        <v>107</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+      <c r="B110" s="53">
+        <v>108</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D110" s="3"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B111" s="53">
+        <v>109</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>1533</v>
+      </c>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+      <c r="B112" s="53">
+        <v>110</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D112" s="3"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+      <c r="B113" s="53">
+        <v>111</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D113" s="3"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+      <c r="B114" s="53">
+        <v>112</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D114" s="3"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="53">
+        <v>113</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D115" s="3"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+      <c r="B116" s="53">
+        <v>114</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D116" s="3"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+      <c r="B117" s="53">
+        <v>115</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+      <c r="B118" s="53">
+        <v>116</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+      <c r="B119" s="53">
+        <v>117</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+      <c r="B120" s="53">
+        <v>118</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+      <c r="B121" s="53">
+        <v>119</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+      <c r="B122" s="53">
+        <v>120</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+      <c r="B123" s="53">
+        <v>121</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+      <c r="B124" s="53">
+        <v>122</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+      <c r="B125" s="53">
+        <v>123</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+      <c r="B126" s="53">
+        <v>124</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+      <c r="B127" s="53">
+        <v>125</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+      <c r="B128" s="53">
+        <v>126</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+      <c r="B129" s="53">
+        <v>127</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+      <c r="B130" s="53">
+        <v>128</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+      <c r="B131" s="53">
+        <v>129</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="2"/>
+      <c r="B132" s="53">
+        <v>130</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+      <c r="B133" s="53">
+        <v>131</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+      <c r="B134" s="53">
+        <v>132</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="2"/>
+      <c r="B135" s="53">
+        <v>133</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+      <c r="B136" s="53">
+        <v>134</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="2"/>
+      <c r="B137" s="53">
+        <v>135</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="2"/>
+      <c r="B138" s="53">
+        <v>136</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="2"/>
+      <c r="B139" s="53">
+        <v>137</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="2"/>
+      <c r="B140" s="53">
+        <v>138</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="2"/>
+      <c r="B141" s="53">
+        <v>139</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="2"/>
+      <c r="B142" s="53">
+        <v>140</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="2"/>
+      <c r="B143" s="53">
+        <v>141</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+      <c r="B144" s="53">
+        <v>142</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+      <c r="B145" s="53">
+        <v>143</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="2"/>
+      <c r="B146" s="53">
+        <v>144</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="2"/>
+      <c r="B147" s="53">
+        <v>145</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="2"/>
+      <c r="B148" s="53">
+        <v>146</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+      <c r="B149" s="53">
+        <v>147</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="2"/>
+      <c r="B150" s="53">
+        <v>148</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="2"/>
+      <c r="B151" s="53">
+        <v>149</v>
+      </c>
+      <c r="C151" s="2"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="2"/>
+      <c r="B152" s="53">
+        <v>150</v>
+      </c>
+      <c r="C152" s="2"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="2"/>
+      <c r="B153" s="53">
+        <v>151</v>
+      </c>
+      <c r="C153" s="2"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
+      <c r="L153" s="2"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="2"/>
+      <c r="B154" s="53">
+        <v>152</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+      <c r="L154" s="2"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="2"/>
+      <c r="B155" s="53">
+        <v>153</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="2"/>
+      <c r="B156" s="53">
+        <v>154</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
+      <c r="L156" s="2"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="2"/>
+      <c r="B157" s="53">
+        <v>155</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+      <c r="L157" s="2"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="2"/>
+      <c r="B158" s="53">
+        <v>156</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+      <c r="L158" s="2"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="2"/>
+      <c r="B159" s="53">
+        <v>157</v>
+      </c>
+      <c r="C159" s="2"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="2"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="2"/>
+      <c r="B160" s="53">
+        <v>158</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2"/>
+      <c r="K160" s="2"/>
+      <c r="L160" s="2"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="2"/>
+      <c r="B161" s="53">
+        <v>159</v>
+      </c>
+      <c r="C161" s="2"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2"/>
+      <c r="L161" s="2"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="2"/>
+      <c r="B162" s="53">
+        <v>160</v>
+      </c>
+      <c r="C162" s="2"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+      <c r="B163" s="53">
+        <v>161</v>
+      </c>
+      <c r="C163" s="2"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="2"/>
+      <c r="B164" s="53">
+        <v>162</v>
+      </c>
+      <c r="C164" s="2"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="2"/>
+      <c r="B165" s="53">
+        <v>163</v>
+      </c>
+      <c r="C165" s="2"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="2"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="2"/>
+      <c r="B166" s="53">
+        <v>164</v>
+      </c>
+      <c r="C166" s="2"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+      <c r="L166" s="2"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="2"/>
+      <c r="B167" s="53">
+        <v>165</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+      <c r="L167" s="2"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="2"/>
+      <c r="B168" s="53">
+        <v>166</v>
+      </c>
+      <c r="C168" s="2"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+      <c r="L168" s="2"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="2"/>
+      <c r="B169" s="53">
+        <v>167</v>
+      </c>
+      <c r="C169" s="2"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="2"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="2"/>
+      <c r="B170" s="53">
+        <v>168</v>
+      </c>
+      <c r="C170" s="2"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2"/>
+      <c r="K170" s="2"/>
+      <c r="L170" s="2"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="2"/>
+      <c r="B171" s="53">
+        <v>169</v>
+      </c>
+      <c r="C171" s="2"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="2"/>
+      <c r="L171" s="2"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="2"/>
+      <c r="B172" s="53">
+        <v>170</v>
+      </c>
+      <c r="C172" s="2"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
+      <c r="J172" s="2"/>
+      <c r="K172" s="2"/>
+      <c r="L172" s="2"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="2"/>
+      <c r="B173" s="53">
+        <v>171</v>
+      </c>
+      <c r="C173" s="2"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2"/>
+      <c r="K173" s="2"/>
+      <c r="L173" s="2"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="2"/>
+      <c r="B174" s="53">
+        <v>172</v>
+      </c>
+      <c r="C174" s="2"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+      <c r="L174" s="2"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="2"/>
+      <c r="B175" s="53">
+        <v>173</v>
+      </c>
+      <c r="C175" s="2"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+      <c r="L175" s="2"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="2"/>
+      <c r="B176" s="53">
+        <v>174</v>
+      </c>
+      <c r="C176" s="2"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="2"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" s="2"/>
+      <c r="B177" s="53">
+        <v>175</v>
+      </c>
+      <c r="C177" s="2"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2"/>
+      <c r="K177" s="2"/>
+      <c r="L177" s="2"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" s="2"/>
+      <c r="B178" s="53">
+        <v>176</v>
+      </c>
+      <c r="C178" s="2"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
+      <c r="K178" s="2"/>
+      <c r="L178" s="2"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" s="2"/>
+      <c r="B179" s="53">
+        <v>177</v>
+      </c>
+      <c r="C179" s="2"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2"/>
+      <c r="K179" s="2"/>
+      <c r="L179" s="2"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" s="2"/>
+      <c r="B180" s="53">
+        <v>178</v>
+      </c>
+      <c r="C180" s="2"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+      <c r="J180" s="2"/>
+      <c r="K180" s="2"/>
+      <c r="L180" s="2"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" s="2"/>
+      <c r="B181" s="53">
+        <v>179</v>
+      </c>
+      <c r="C181" s="2"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2"/>
+      <c r="K181" s="2"/>
+      <c r="L181" s="2"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" s="2"/>
+      <c r="B182" s="53">
+        <v>180</v>
+      </c>
+      <c r="C182" s="2"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2"/>
+      <c r="K182" s="2"/>
+      <c r="L182" s="2"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" s="2"/>
+      <c r="B183" s="53">
+        <v>181</v>
+      </c>
+      <c r="C183" s="2"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2"/>
+      <c r="K183" s="2"/>
+      <c r="L183" s="2"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" s="2"/>
+      <c r="B184" s="53">
+        <v>182</v>
+      </c>
+      <c r="C184" s="2"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2"/>
+      <c r="K184" s="2"/>
+      <c r="L184" s="2"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" s="2"/>
+      <c r="B185" s="53">
+        <v>183</v>
+      </c>
+      <c r="C185" s="2"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+      <c r="K185" s="2"/>
+      <c r="L185" s="2"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" s="2"/>
+      <c r="B186" s="53">
+        <v>184</v>
+      </c>
+      <c r="C186" s="2"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2"/>
+      <c r="K186" s="2"/>
+      <c r="L186" s="2"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" s="2"/>
+      <c r="B187" s="53">
+        <v>185</v>
+      </c>
+      <c r="C187" s="2"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2"/>
+      <c r="K187" s="2"/>
+      <c r="L187" s="2"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" s="2"/>
+      <c r="B188" s="53">
+        <v>186</v>
+      </c>
+      <c r="C188" s="2"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
+      <c r="J188" s="2"/>
+      <c r="K188" s="2"/>
+      <c r="L188" s="2"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" s="2"/>
+      <c r="B189" s="53">
+        <v>187</v>
+      </c>
+      <c r="C189" s="2"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
+      <c r="J189" s="2"/>
+      <c r="K189" s="2"/>
+      <c r="L189" s="2"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" s="2"/>
+      <c r="B190" s="53">
+        <v>188</v>
+      </c>
+      <c r="C190" s="2"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="2"/>
+      <c r="J190" s="2"/>
+      <c r="K190" s="2"/>
+      <c r="L190" s="2"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" s="2"/>
+      <c r="B191" s="53">
+        <v>189</v>
+      </c>
+      <c r="C191" s="2"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2"/>
+      <c r="K191" s="2"/>
+      <c r="L191" s="2"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" s="2"/>
+      <c r="B192" s="53">
+        <v>190</v>
+      </c>
+      <c r="C192" s="2"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2"/>
+      <c r="K192" s="2"/>
+      <c r="L192" s="2"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" s="2"/>
+      <c r="B193" s="53">
+        <v>191</v>
+      </c>
+      <c r="C193" s="2"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="2"/>
+      <c r="L193" s="2"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" s="2"/>
+      <c r="B194" s="53">
+        <v>192</v>
+      </c>
+      <c r="C194" s="2"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2"/>
+      <c r="K194" s="2"/>
+      <c r="L194" s="2"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" s="2"/>
+      <c r="B195" s="53">
+        <v>193</v>
+      </c>
+      <c r="C195" s="2"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2"/>
+      <c r="K195" s="2"/>
+      <c r="L195" s="2"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" s="2"/>
+      <c r="B196" s="53">
+        <v>194</v>
+      </c>
+      <c r="C196" s="2"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2"/>
+      <c r="K196" s="2"/>
+      <c r="L196" s="2"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A197" s="2"/>
+      <c r="B197" s="53">
+        <v>195</v>
+      </c>
+      <c r="C197" s="2"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2"/>
+      <c r="K197" s="2"/>
+      <c r="L197" s="2"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198" s="2"/>
+      <c r="B198" s="53">
+        <v>196</v>
+      </c>
+      <c r="C198" s="2"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="2"/>
+      <c r="J198" s="2"/>
+      <c r="K198" s="2"/>
+      <c r="L198" s="2"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" s="2"/>
+      <c r="B199" s="53">
+        <v>197</v>
+      </c>
+      <c r="C199" s="2"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2"/>
+      <c r="K199" s="2"/>
+      <c r="L199" s="2"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A200" s="2"/>
+      <c r="B200" s="53">
+        <v>198</v>
+      </c>
+      <c r="C200" s="2"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2"/>
+      <c r="K200" s="2"/>
+      <c r="L200" s="2"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A201" s="2"/>
+      <c r="B201" s="53">
+        <v>199</v>
+      </c>
+      <c r="C201" s="2"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+      <c r="J201" s="2"/>
+      <c r="K201" s="2"/>
+      <c r="L201" s="2"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A202" s="2"/>
+      <c r="B202" s="53">
+        <v>200</v>
+      </c>
+      <c r="C202" s="2"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
+      <c r="J202" s="2"/>
+      <c r="K202" s="2"/>
+      <c r="L202" s="2"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A203" s="2"/>
+      <c r="B203" s="53">
+        <v>201</v>
+      </c>
+      <c r="C203" s="2"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+      <c r="J203" s="2"/>
+      <c r="K203" s="2"/>
+      <c r="L203" s="2"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A204" s="2"/>
+      <c r="B204" s="53">
+        <v>202</v>
+      </c>
+      <c r="C204" s="2"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
+      <c r="J204" s="2"/>
+      <c r="K204" s="2"/>
+      <c r="L204" s="2"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" s="2"/>
+      <c r="B205" s="53">
+        <v>203</v>
+      </c>
+      <c r="C205" s="2"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
+      <c r="J205" s="2"/>
+      <c r="K205" s="2"/>
+      <c r="L205" s="2"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206" s="2"/>
+      <c r="B206" s="53">
+        <v>204</v>
+      </c>
+      <c r="C206" s="2"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+      <c r="I206" s="2"/>
+      <c r="J206" s="2"/>
+      <c r="K206" s="2"/>
+      <c r="L206" s="2"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A207" s="2"/>
+      <c r="B207" s="53">
+        <v>205</v>
+      </c>
+      <c r="C207" s="2"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="2"/>
+      <c r="J207" s="2"/>
+      <c r="K207" s="2"/>
+      <c r="L207" s="2"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208" s="2"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
+      <c r="J208" s="2"/>
+      <c r="K208" s="2"/>
+      <c r="L208" s="2"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A209" s="2"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2"/>
+      <c r="K209" s="2"/>
+      <c r="L209" s="2"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210" s="2"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+      <c r="J210" s="2"/>
+      <c r="K210" s="2"/>
+      <c r="L210" s="2"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A211" s="2"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+      <c r="J211" s="2"/>
+      <c r="K211" s="2"/>
+      <c r="L211" s="2"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A212" s="2"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+      <c r="J212" s="2"/>
+      <c r="K212" s="2"/>
+      <c r="L212" s="2"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A213" s="2"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+      <c r="J213" s="2"/>
+      <c r="K213" s="2"/>
+      <c r="L213" s="2"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" s="2"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
+      <c r="J214" s="2"/>
+      <c r="K214" s="2"/>
+      <c r="L214" s="2"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" s="2"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+      <c r="H215" s="2"/>
+      <c r="I215" s="2"/>
+      <c r="J215" s="2"/>
+      <c r="K215" s="2"/>
+      <c r="L215" s="2"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216" s="2"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2"/>
+      <c r="I216" s="2"/>
+      <c r="J216" s="2"/>
+      <c r="K216" s="2"/>
+      <c r="L216" s="2"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A217" s="2"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+      <c r="H217" s="2"/>
+      <c r="I217" s="2"/>
+      <c r="J217" s="2"/>
+      <c r="K217" s="2"/>
+      <c r="L217" s="2"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A218" s="2"/>
+      <c r="B218" s="4"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="3"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
+      <c r="J218" s="2"/>
+      <c r="K218" s="2"/>
+      <c r="L218" s="2"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A219" s="2"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="3"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+      <c r="I219" s="2"/>
+      <c r="J219" s="2"/>
+      <c r="K219" s="2"/>
+      <c r="L219" s="2"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A220" s="2"/>
+      <c r="B220" s="4"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="3"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
+      <c r="H220" s="2"/>
+      <c r="I220" s="2"/>
+      <c r="J220" s="2"/>
+      <c r="K220" s="2"/>
+      <c r="L220" s="2"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A221" s="2"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="2"/>
+      <c r="I221" s="2"/>
+      <c r="J221" s="2"/>
+      <c r="K221" s="2"/>
+      <c r="L221" s="2"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A222" s="2"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
+      <c r="H222" s="2"/>
+      <c r="I222" s="2"/>
+      <c r="J222" s="2"/>
+      <c r="K222" s="2"/>
+      <c r="L222" s="2"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A223" s="2"/>
+      <c r="B223" s="4"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="3"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+      <c r="H223" s="2"/>
+      <c r="I223" s="2"/>
+      <c r="J223" s="2"/>
+      <c r="K223" s="2"/>
+      <c r="L223" s="2"/>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A224" s="2"/>
+      <c r="B224" s="4"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="3"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
+      <c r="H224" s="2"/>
+      <c r="I224" s="2"/>
+      <c r="J224" s="2"/>
+      <c r="K224" s="2"/>
+      <c r="L224" s="2"/>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A225" s="2"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="3"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+      <c r="H225" s="2"/>
+      <c r="I225" s="2"/>
+      <c r="J225" s="2"/>
+      <c r="K225" s="2"/>
+      <c r="L225" s="2"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A226" s="2"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="3"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
+      <c r="H226" s="2"/>
+      <c r="I226" s="2"/>
+      <c r="J226" s="2"/>
+      <c r="K226" s="2"/>
+      <c r="L226" s="2"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A227" s="2"/>
+      <c r="B227" s="4"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="3"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="2"/>
+      <c r="I227" s="2"/>
+      <c r="J227" s="2"/>
+      <c r="K227" s="2"/>
+      <c r="L227" s="2"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A228" s="2"/>
+      <c r="B228" s="4"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="3"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+      <c r="I228" s="2"/>
+      <c r="J228" s="2"/>
+      <c r="K228" s="2"/>
+      <c r="L228" s="2"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A229" s="2"/>
+      <c r="B229" s="4"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="3"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+      <c r="H229" s="2"/>
+      <c r="I229" s="2"/>
+      <c r="J229" s="2"/>
+      <c r="K229" s="2"/>
+      <c r="L229" s="2"/>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A230" s="2"/>
+      <c r="B230" s="4"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="3"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="2"/>
+      <c r="J230" s="2"/>
+      <c r="K230" s="2"/>
+      <c r="L230" s="2"/>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A231" s="2"/>
+      <c r="B231" s="4"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="3"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+      <c r="I231" s="2"/>
+      <c r="J231" s="2"/>
+      <c r="K231" s="2"/>
+      <c r="L231" s="2"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A232" s="2"/>
+      <c r="B232" s="4"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="3"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="2"/>
+      <c r="J232" s="2"/>
+      <c r="K232" s="2"/>
+      <c r="L232" s="2"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A233" s="2"/>
+      <c r="B233" s="4"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="3"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+      <c r="J233" s="2"/>
+      <c r="K233" s="2"/>
+      <c r="L233" s="2"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A234" s="2"/>
+      <c r="B234" s="4"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="K234" s="2"/>
+      <c r="L234" s="2"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A235" s="2"/>
+      <c r="B235" s="4"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="2"/>
+      <c r="I235" s="2"/>
+      <c r="J235" s="2"/>
+      <c r="K235" s="2"/>
+      <c r="L235" s="2"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A236" s="2"/>
+      <c r="B236" s="4"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="3"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="2"/>
+      <c r="I236" s="2"/>
+      <c r="J236" s="2"/>
+      <c r="K236" s="2"/>
+      <c r="L236" s="2"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A237" s="2"/>
+      <c r="B237" s="4"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="3"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="2"/>
+      <c r="I237" s="2"/>
+      <c r="J237" s="2"/>
+      <c r="K237" s="2"/>
+      <c r="L237" s="2"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A238" s="2"/>
+      <c r="B238" s="4"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="3"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
+      <c r="H238" s="2"/>
+      <c r="I238" s="2"/>
+      <c r="J238" s="2"/>
+      <c r="K238" s="2"/>
+      <c r="L238" s="2"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A239" s="2"/>
+      <c r="B239" s="4"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="3"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+      <c r="G239" s="2"/>
+      <c r="H239" s="2"/>
+      <c r="I239" s="2"/>
+      <c r="J239" s="2"/>
+      <c r="K239" s="2"/>
+      <c r="L239" s="2"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A240" s="2"/>
+      <c r="B240" s="4"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="3"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
+      <c r="H240" s="2"/>
+      <c r="I240" s="2"/>
+      <c r="J240" s="2"/>
+      <c r="K240" s="2"/>
+      <c r="L240" s="2"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A241" s="2"/>
+      <c r="B241" s="4"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="3"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+      <c r="H241" s="2"/>
+      <c r="I241" s="2"/>
+      <c r="J241" s="2"/>
+      <c r="K241" s="2"/>
+      <c r="L241" s="2"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A242" s="2"/>
+      <c r="B242" s="4"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="3"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="2"/>
+      <c r="I242" s="2"/>
+      <c r="J242" s="2"/>
+      <c r="K242" s="2"/>
+      <c r="L242" s="2"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A243" s="2"/>
+      <c r="B243" s="4"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="3"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
+      <c r="H243" s="2"/>
+      <c r="I243" s="2"/>
+      <c r="J243" s="2"/>
+      <c r="K243" s="2"/>
+      <c r="L243" s="2"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A244" s="2"/>
+      <c r="B244" s="4"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="3"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
+      <c r="G244" s="2"/>
+      <c r="H244" s="2"/>
+      <c r="I244" s="2"/>
+      <c r="J244" s="2"/>
+      <c r="K244" s="2"/>
+      <c r="L244" s="2"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A245" s="2"/>
+      <c r="B245" s="4"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="3"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+      <c r="H245" s="2"/>
+      <c r="I245" s="2"/>
+      <c r="J245" s="2"/>
+      <c r="K245" s="2"/>
+      <c r="L245" s="2"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A246" s="2"/>
+      <c r="B246" s="4"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="3"/>
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2"/>
+      <c r="H246" s="2"/>
+      <c r="I246" s="2"/>
+      <c r="J246" s="2"/>
+      <c r="K246" s="2"/>
+      <c r="L246" s="2"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A247" s="2"/>
+      <c r="B247" s="4"/>
+      <c r="C247" s="2"/>
+      <c r="D247" s="3"/>
+      <c r="E247" s="2"/>
+      <c r="F247" s="2"/>
+      <c r="G247" s="2"/>
+      <c r="H247" s="2"/>
+      <c r="I247" s="2"/>
+      <c r="J247" s="2"/>
+      <c r="K247" s="2"/>
+      <c r="L247" s="2"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A248" s="2"/>
+      <c r="B248" s="4"/>
+      <c r="C248" s="2"/>
+      <c r="D248" s="3"/>
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
+      <c r="G248" s="2"/>
+      <c r="H248" s="2"/>
+      <c r="I248" s="2"/>
+      <c r="J248" s="2"/>
+      <c r="K248" s="2"/>
+      <c r="L248" s="2"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A249" s="2"/>
+      <c r="B249" s="4"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="3"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2"/>
+      <c r="H249" s="2"/>
+      <c r="I249" s="2"/>
+      <c r="J249" s="2"/>
+      <c r="K249" s="2"/>
+      <c r="L249" s="2"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A250" s="2"/>
+      <c r="B250" s="4"/>
+      <c r="C250" s="2"/>
+      <c r="D250" s="3"/>
+      <c r="E250" s="2"/>
+      <c r="F250" s="2"/>
+      <c r="G250" s="2"/>
+      <c r="H250" s="2"/>
+      <c r="I250" s="2"/>
+      <c r="J250" s="2"/>
+      <c r="K250" s="2"/>
+      <c r="L250" s="2"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A251" s="2"/>
+      <c r="B251" s="4"/>
+      <c r="C251" s="2"/>
+      <c r="D251" s="3"/>
+      <c r="E251" s="2"/>
+      <c r="F251" s="2"/>
+      <c r="G251" s="2"/>
+      <c r="H251" s="2"/>
+      <c r="I251" s="2"/>
+      <c r="J251" s="2"/>
+      <c r="K251" s="2"/>
+      <c r="L251" s="2"/>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A252" s="2"/>
+      <c r="B252" s="4"/>
+      <c r="C252" s="2"/>
+      <c r="D252" s="3"/>
+      <c r="E252" s="2"/>
+      <c r="F252" s="2"/>
+      <c r="G252" s="2"/>
+      <c r="H252" s="2"/>
+      <c r="I252" s="2"/>
+      <c r="J252" s="2"/>
+      <c r="K252" s="2"/>
+      <c r="L252" s="2"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A253" s="2"/>
+      <c r="B253" s="4"/>
+      <c r="C253" s="2"/>
+      <c r="D253" s="3"/>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
+      <c r="G253" s="2"/>
+      <c r="H253" s="2"/>
+      <c r="I253" s="2"/>
+      <c r="J253" s="2"/>
+      <c r="K253" s="2"/>
+      <c r="L253" s="2"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A254" s="2"/>
+      <c r="B254" s="4"/>
+      <c r="C254" s="2"/>
+      <c r="D254" s="3"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+      <c r="G254" s="2"/>
+      <c r="H254" s="2"/>
+      <c r="I254" s="2"/>
+      <c r="J254" s="2"/>
+      <c r="K254" s="2"/>
+      <c r="L254" s="2"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A255" s="2"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="2"/>
+      <c r="D255" s="3"/>
+      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
+      <c r="G255" s="2"/>
+      <c r="H255" s="2"/>
+      <c r="I255" s="2"/>
+      <c r="J255" s="2"/>
+      <c r="K255" s="2"/>
+      <c r="L255" s="2"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A256" s="2"/>
+      <c r="B256" s="4"/>
+      <c r="C256" s="2"/>
+      <c r="D256" s="3"/>
+      <c r="E256" s="2"/>
+      <c r="F256" s="2"/>
+      <c r="G256" s="2"/>
+      <c r="H256" s="2"/>
+      <c r="I256" s="2"/>
+      <c r="J256" s="2"/>
+      <c r="K256" s="2"/>
+      <c r="L256" s="2"/>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A257" s="2"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="2"/>
+      <c r="D257" s="3"/>
+      <c r="E257" s="2"/>
+      <c r="F257" s="2"/>
+      <c r="G257" s="2"/>
+      <c r="H257" s="2"/>
+      <c r="I257" s="2"/>
+      <c r="J257" s="2"/>
+      <c r="K257" s="2"/>
+      <c r="L257" s="2"/>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A258" s="2"/>
+      <c r="B258" s="4"/>
+      <c r="C258" s="2"/>
+      <c r="D258" s="3"/>
+      <c r="E258" s="2"/>
+      <c r="F258" s="2"/>
+      <c r="G258" s="2"/>
+      <c r="H258" s="2"/>
+      <c r="I258" s="2"/>
+      <c r="J258" s="2"/>
+      <c r="K258" s="2"/>
+      <c r="L258" s="2"/>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A259" s="2"/>
+      <c r="B259" s="4"/>
+      <c r="C259" s="2"/>
+      <c r="D259" s="3"/>
+      <c r="E259" s="2"/>
+      <c r="F259" s="2"/>
+      <c r="G259" s="2"/>
+      <c r="H259" s="2"/>
+      <c r="I259" s="2"/>
+      <c r="J259" s="2"/>
+      <c r="K259" s="2"/>
+      <c r="L259" s="2"/>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A260" s="2"/>
+      <c r="B260" s="4"/>
+      <c r="C260" s="2"/>
+      <c r="D260" s="3"/>
+      <c r="E260" s="2"/>
+      <c r="F260" s="2"/>
+      <c r="G260" s="2"/>
+      <c r="H260" s="2"/>
+      <c r="I260" s="2"/>
+      <c r="J260" s="2"/>
+      <c r="K260" s="2"/>
+      <c r="L260" s="2"/>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A261" s="2"/>
+      <c r="B261" s="4"/>
+      <c r="C261" s="2"/>
+      <c r="D261" s="3"/>
+      <c r="E261" s="2"/>
+      <c r="F261" s="2"/>
+      <c r="G261" s="2"/>
+      <c r="H261" s="2"/>
+      <c r="I261" s="2"/>
+      <c r="J261" s="2"/>
+      <c r="K261" s="2"/>
+      <c r="L261" s="2"/>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A262" s="2"/>
+      <c r="B262" s="4"/>
+      <c r="C262" s="2"/>
+      <c r="D262" s="3"/>
+      <c r="E262" s="2"/>
+      <c r="F262" s="2"/>
+      <c r="G262" s="2"/>
+      <c r="H262" s="2"/>
+      <c r="I262" s="2"/>
+      <c r="J262" s="2"/>
+      <c r="K262" s="2"/>
+      <c r="L262" s="2"/>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A263" s="2"/>
+      <c r="B263" s="4"/>
+      <c r="C263" s="2"/>
+      <c r="D263" s="3"/>
+      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
+      <c r="G263" s="2"/>
+      <c r="H263" s="2"/>
+      <c r="I263" s="2"/>
+      <c r="J263" s="2"/>
+      <c r="K263" s="2"/>
+      <c r="L263" s="2"/>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A264" s="2"/>
+      <c r="B264" s="4"/>
+      <c r="C264" s="2"/>
+      <c r="D264" s="3"/>
+      <c r="E264" s="2"/>
+      <c r="F264" s="2"/>
+      <c r="G264" s="2"/>
+      <c r="H264" s="2"/>
+      <c r="I264" s="2"/>
+      <c r="J264" s="2"/>
+      <c r="K264" s="2"/>
+      <c r="L264" s="2"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A265" s="2"/>
+      <c r="B265" s="4"/>
+      <c r="C265" s="2"/>
+      <c r="D265" s="3"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+      <c r="G265" s="2"/>
+      <c r="H265" s="2"/>
+      <c r="I265" s="2"/>
+      <c r="J265" s="2"/>
+      <c r="K265" s="2"/>
+      <c r="L265" s="2"/>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A266" s="2"/>
+      <c r="B266" s="4"/>
+      <c r="C266" s="2"/>
+      <c r="D266" s="3"/>
+      <c r="E266" s="2"/>
+      <c r="F266" s="2"/>
+      <c r="G266" s="2"/>
+      <c r="H266" s="2"/>
+      <c r="I266" s="2"/>
+      <c r="J266" s="2"/>
+      <c r="K266" s="2"/>
+      <c r="L266" s="2"/>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A267" s="2"/>
+      <c r="B267" s="4"/>
+      <c r="C267" s="2"/>
+      <c r="D267" s="3"/>
+      <c r="E267" s="2"/>
+      <c r="F267" s="2"/>
+      <c r="G267" s="2"/>
+      <c r="H267" s="2"/>
+      <c r="I267" s="2"/>
+      <c r="J267" s="2"/>
+      <c r="K267" s="2"/>
+      <c r="L267" s="2"/>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A268" s="2"/>
+      <c r="B268" s="4"/>
+      <c r="C268" s="2"/>
+      <c r="D268" s="3"/>
+      <c r="E268" s="2"/>
+      <c r="F268" s="2"/>
+      <c r="G268" s="2"/>
+      <c r="H268" s="2"/>
+      <c r="I268" s="2"/>
+      <c r="J268" s="2"/>
+      <c r="K268" s="2"/>
+      <c r="L268" s="2"/>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A269" s="2"/>
+      <c r="B269" s="4"/>
+      <c r="C269" s="2"/>
+      <c r="D269" s="3"/>
+      <c r="E269" s="2"/>
+      <c r="F269" s="2"/>
+      <c r="G269" s="2"/>
+      <c r="H269" s="2"/>
+      <c r="I269" s="2"/>
+      <c r="J269" s="2"/>
+      <c r="K269" s="2"/>
+      <c r="L269" s="2"/>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A270" s="2"/>
+      <c r="B270" s="4"/>
+      <c r="C270" s="2"/>
+      <c r="D270" s="3"/>
+      <c r="E270" s="2"/>
+      <c r="F270" s="2"/>
+      <c r="G270" s="2"/>
+      <c r="H270" s="2"/>
+      <c r="I270" s="2"/>
+      <c r="J270" s="2"/>
+      <c r="K270" s="2"/>
+      <c r="L270" s="2"/>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A271" s="2"/>
+      <c r="B271" s="4"/>
+      <c r="C271" s="2"/>
+      <c r="D271" s="3"/>
+      <c r="E271" s="2"/>
+      <c r="F271" s="2"/>
+      <c r="G271" s="2"/>
+      <c r="H271" s="2"/>
+      <c r="I271" s="2"/>
+      <c r="J271" s="2"/>
+      <c r="K271" s="2"/>
+      <c r="L271" s="2"/>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A272" s="2"/>
+      <c r="B272" s="4"/>
+      <c r="C272" s="2"/>
+      <c r="D272" s="3"/>
+      <c r="E272" s="2"/>
+      <c r="F272" s="2"/>
+      <c r="G272" s="2"/>
+      <c r="H272" s="2"/>
+      <c r="I272" s="2"/>
+      <c r="J272" s="2"/>
+      <c r="K272" s="2"/>
+      <c r="L272" s="2"/>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A273" s="2"/>
+      <c r="B273" s="4"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="3"/>
+      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
+      <c r="G273" s="2"/>
+      <c r="H273" s="2"/>
+      <c r="I273" s="2"/>
+      <c r="J273" s="2"/>
+      <c r="K273" s="2"/>
+      <c r="L273" s="2"/>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A274" s="2"/>
+      <c r="B274" s="4"/>
+      <c r="C274" s="2"/>
+      <c r="D274" s="3"/>
+      <c r="E274" s="2"/>
+      <c r="F274" s="2"/>
+      <c r="G274" s="2"/>
+      <c r="H274" s="2"/>
+      <c r="I274" s="2"/>
+      <c r="J274" s="2"/>
+      <c r="K274" s="2"/>
+      <c r="L274" s="2"/>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A275" s="2"/>
+      <c r="B275" s="4"/>
+      <c r="C275" s="2"/>
+      <c r="D275" s="3"/>
+      <c r="E275" s="2"/>
+      <c r="F275" s="2"/>
+      <c r="G275" s="2"/>
+      <c r="H275" s="2"/>
+      <c r="I275" s="2"/>
+      <c r="J275" s="2"/>
+      <c r="K275" s="2"/>
+      <c r="L275" s="2"/>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A276" s="2"/>
+      <c r="B276" s="4"/>
+      <c r="C276" s="2"/>
+      <c r="D276" s="3"/>
+      <c r="E276" s="2"/>
+      <c r="F276" s="2"/>
+      <c r="G276" s="2"/>
+      <c r="H276" s="2"/>
+      <c r="I276" s="2"/>
+      <c r="J276" s="2"/>
+      <c r="K276" s="2"/>
+      <c r="L276" s="2"/>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A277" s="2"/>
+      <c r="B277" s="4"/>
+      <c r="C277" s="2"/>
+      <c r="D277" s="3"/>
+      <c r="E277" s="2"/>
+      <c r="F277" s="2"/>
+      <c r="G277" s="2"/>
+      <c r="H277" s="2"/>
+      <c r="I277" s="2"/>
+      <c r="J277" s="2"/>
+      <c r="K277" s="2"/>
+      <c r="L277" s="2"/>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A278" s="2"/>
+      <c r="B278" s="4"/>
+      <c r="C278" s="2"/>
+      <c r="D278" s="3"/>
+      <c r="E278" s="2"/>
+      <c r="F278" s="2"/>
+      <c r="G278" s="2"/>
+      <c r="H278" s="2"/>
+      <c r="I278" s="2"/>
+      <c r="J278" s="2"/>
+      <c r="K278" s="2"/>
+      <c r="L278" s="2"/>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A279" s="2"/>
+      <c r="B279" s="4"/>
+      <c r="C279" s="2"/>
+      <c r="D279" s="3"/>
+      <c r="E279" s="2"/>
+      <c r="F279" s="2"/>
+      <c r="G279" s="2"/>
+      <c r="H279" s="2"/>
+      <c r="I279" s="2"/>
+      <c r="J279" s="2"/>
+      <c r="K279" s="2"/>
+      <c r="L279" s="2"/>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A280" s="2"/>
+      <c r="B280" s="4"/>
+      <c r="C280" s="2"/>
+      <c r="D280" s="3"/>
+      <c r="E280" s="2"/>
+      <c r="F280" s="2"/>
+      <c r="G280" s="2"/>
+      <c r="H280" s="2"/>
+      <c r="I280" s="2"/>
+      <c r="J280" s="2"/>
+      <c r="K280" s="2"/>
+      <c r="L280" s="2"/>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A281" s="2"/>
+      <c r="B281" s="4"/>
+      <c r="C281" s="2"/>
+      <c r="D281" s="3"/>
+      <c r="E281" s="2"/>
+      <c r="F281" s="2"/>
+      <c r="G281" s="2"/>
+      <c r="H281" s="2"/>
+      <c r="I281" s="2"/>
+      <c r="J281" s="2"/>
+      <c r="K281" s="2"/>
+      <c r="L281" s="2"/>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A282" s="2"/>
+      <c r="B282" s="4"/>
+      <c r="C282" s="2"/>
+      <c r="D282" s="3"/>
+      <c r="E282" s="2"/>
+      <c r="F282" s="2"/>
+      <c r="G282" s="2"/>
+      <c r="H282" s="2"/>
+      <c r="I282" s="2"/>
+      <c r="J282" s="2"/>
+      <c r="K282" s="2"/>
+      <c r="L282" s="2"/>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A283" s="2"/>
+      <c r="B283" s="4"/>
+      <c r="C283" s="2"/>
+      <c r="D283" s="3"/>
+      <c r="E283" s="2"/>
+      <c r="F283" s="2"/>
+      <c r="G283" s="2"/>
+      <c r="H283" s="2"/>
+      <c r="I283" s="2"/>
+      <c r="J283" s="2"/>
+      <c r="K283" s="2"/>
+      <c r="L283" s="2"/>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A284" s="2"/>
+      <c r="B284" s="4"/>
+      <c r="C284" s="2"/>
+      <c r="D284" s="3"/>
+      <c r="E284" s="2"/>
+      <c r="F284" s="2"/>
+      <c r="G284" s="2"/>
+      <c r="H284" s="2"/>
+      <c r="I284" s="2"/>
+      <c r="J284" s="2"/>
+      <c r="K284" s="2"/>
+      <c r="L284" s="2"/>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A285" s="2"/>
+      <c r="B285" s="4"/>
+      <c r="C285" s="2"/>
+      <c r="D285" s="3"/>
+      <c r="E285" s="2"/>
+      <c r="F285" s="2"/>
+      <c r="G285" s="2"/>
+      <c r="H285" s="2"/>
+      <c r="I285" s="2"/>
+      <c r="J285" s="2"/>
+      <c r="K285" s="2"/>
+      <c r="L285" s="2"/>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A286" s="2"/>
+      <c r="B286" s="4"/>
+      <c r="C286" s="2"/>
+      <c r="D286" s="3"/>
+      <c r="E286" s="2"/>
+      <c r="F286" s="2"/>
+      <c r="G286" s="2"/>
+      <c r="H286" s="2"/>
+      <c r="I286" s="2"/>
+      <c r="J286" s="2"/>
+      <c r="K286" s="2"/>
+      <c r="L286" s="2"/>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A287" s="2"/>
+      <c r="B287" s="4"/>
+      <c r="C287" s="2"/>
+      <c r="D287" s="3"/>
+      <c r="E287" s="2"/>
+      <c r="F287" s="2"/>
+      <c r="G287" s="2"/>
+      <c r="H287" s="2"/>
+      <c r="I287" s="2"/>
+      <c r="J287" s="2"/>
+      <c r="K287" s="2"/>
+      <c r="L287" s="2"/>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A288" s="2"/>
+      <c r="B288" s="4"/>
+      <c r="C288" s="2"/>
+      <c r="D288" s="3"/>
+      <c r="E288" s="2"/>
+      <c r="F288" s="2"/>
+      <c r="G288" s="2"/>
+      <c r="H288" s="2"/>
+      <c r="I288" s="2"/>
+      <c r="J288" s="2"/>
+      <c r="K288" s="2"/>
+      <c r="L288" s="2"/>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A289" s="2"/>
+      <c r="B289" s="4"/>
+      <c r="C289" s="2"/>
+      <c r="D289" s="3"/>
+      <c r="E289" s="2"/>
+      <c r="F289" s="2"/>
+      <c r="G289" s="2"/>
+      <c r="H289" s="2"/>
+      <c r="I289" s="2"/>
+      <c r="J289" s="2"/>
+      <c r="K289" s="2"/>
+      <c r="L289" s="2"/>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A290" s="2"/>
+      <c r="B290" s="4"/>
+      <c r="C290" s="2"/>
+      <c r="D290" s="3"/>
+      <c r="E290" s="2"/>
+      <c r="F290" s="2"/>
+      <c r="G290" s="2"/>
+      <c r="H290" s="2"/>
+      <c r="I290" s="2"/>
+      <c r="J290" s="2"/>
+      <c r="K290" s="2"/>
+      <c r="L290" s="2"/>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A291" s="2"/>
+      <c r="B291" s="4"/>
+      <c r="C291" s="2"/>
+      <c r="D291" s="3"/>
+      <c r="E291" s="2"/>
+      <c r="F291" s="2"/>
+      <c r="G291" s="2"/>
+      <c r="H291" s="2"/>
+      <c r="I291" s="2"/>
+      <c r="J291" s="2"/>
+      <c r="K291" s="2"/>
+      <c r="L291" s="2"/>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A292" s="2"/>
+      <c r="B292" s="4"/>
+      <c r="C292" s="2"/>
+      <c r="D292" s="3"/>
+      <c r="E292" s="2"/>
+      <c r="F292" s="2"/>
+      <c r="G292" s="2"/>
+      <c r="H292" s="2"/>
+      <c r="I292" s="2"/>
+      <c r="J292" s="2"/>
+      <c r="K292" s="2"/>
+      <c r="L292" s="2"/>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A293" s="2"/>
+      <c r="B293" s="4"/>
+      <c r="C293" s="2"/>
+      <c r="D293" s="3"/>
+      <c r="E293" s="2"/>
+      <c r="F293" s="2"/>
+      <c r="G293" s="2"/>
+      <c r="H293" s="2"/>
+      <c r="I293" s="2"/>
+      <c r="J293" s="2"/>
+      <c r="K293" s="2"/>
+      <c r="L293" s="2"/>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A294" s="2"/>
+      <c r="B294" s="4"/>
+      <c r="C294" s="2"/>
+      <c r="D294" s="3"/>
+      <c r="E294" s="2"/>
+      <c r="F294" s="2"/>
+      <c r="G294" s="2"/>
+      <c r="H294" s="2"/>
+      <c r="I294" s="2"/>
+      <c r="J294" s="2"/>
+      <c r="K294" s="2"/>
+      <c r="L294" s="2"/>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A295" s="2"/>
+      <c r="B295" s="4"/>
+      <c r="C295" s="2"/>
+      <c r="D295" s="3"/>
+      <c r="E295" s="2"/>
+      <c r="F295" s="2"/>
+      <c r="G295" s="2"/>
+      <c r="H295" s="2"/>
+      <c r="I295" s="2"/>
+      <c r="J295" s="2"/>
+      <c r="K295" s="2"/>
+      <c r="L295" s="2"/>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A296" s="2"/>
+      <c r="B296" s="4"/>
+      <c r="C296" s="2"/>
+      <c r="D296" s="3"/>
+      <c r="E296" s="2"/>
+      <c r="F296" s="2"/>
+      <c r="G296" s="2"/>
+      <c r="H296" s="2"/>
+      <c r="I296" s="2"/>
+      <c r="J296" s="2"/>
+      <c r="K296" s="2"/>
+      <c r="L296" s="2"/>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A297" s="2"/>
+      <c r="B297" s="4"/>
+      <c r="C297" s="2"/>
+      <c r="D297" s="3"/>
+      <c r="E297" s="2"/>
+      <c r="F297" s="2"/>
+      <c r="G297" s="2"/>
+      <c r="H297" s="2"/>
+      <c r="I297" s="2"/>
+      <c r="J297" s="2"/>
+      <c r="K297" s="2"/>
+      <c r="L297" s="2"/>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A298" s="2"/>
+      <c r="B298" s="4"/>
+      <c r="C298" s="2"/>
+      <c r="D298" s="3"/>
+      <c r="E298" s="2"/>
+      <c r="F298" s="2"/>
+      <c r="G298" s="2"/>
+      <c r="H298" s="2"/>
+      <c r="I298" s="2"/>
+      <c r="J298" s="2"/>
+      <c r="K298" s="2"/>
+      <c r="L298" s="2"/>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A299" s="2"/>
+      <c r="B299" s="4"/>
+      <c r="C299" s="2"/>
+      <c r="D299" s="3"/>
+      <c r="E299" s="2"/>
+      <c r="F299" s="2"/>
+      <c r="G299" s="2"/>
+      <c r="H299" s="2"/>
+      <c r="I299" s="2"/>
+      <c r="J299" s="2"/>
+      <c r="K299" s="2"/>
+      <c r="L299" s="2"/>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A300" s="2"/>
+      <c r="B300" s="4"/>
+      <c r="C300" s="2"/>
+      <c r="D300" s="3"/>
+      <c r="E300" s="2"/>
+      <c r="F300" s="2"/>
+      <c r="G300" s="2"/>
+      <c r="H300" s="2"/>
+      <c r="I300" s="2"/>
+      <c r="J300" s="2"/>
+      <c r="K300" s="2"/>
+      <c r="L300" s="2"/>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A301" s="2"/>
+      <c r="B301" s="4"/>
+      <c r="C301" s="2"/>
+      <c r="D301" s="3"/>
+      <c r="E301" s="2"/>
+      <c r="F301" s="2"/>
+      <c r="G301" s="2"/>
+      <c r="H301" s="2"/>
+      <c r="I301" s="2"/>
+      <c r="J301" s="2"/>
+      <c r="K301" s="2"/>
+      <c r="L301" s="2"/>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A302" s="2"/>
+      <c r="B302" s="4"/>
+      <c r="C302" s="2"/>
+      <c r="D302" s="3"/>
+      <c r="E302" s="2"/>
+      <c r="F302" s="2"/>
+      <c r="G302" s="2"/>
+      <c r="H302" s="2"/>
+      <c r="I302" s="2"/>
+      <c r="J302" s="2"/>
+      <c r="K302" s="2"/>
+      <c r="L302" s="2"/>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A303" s="2"/>
+      <c r="B303" s="4"/>
+      <c r="C303" s="2"/>
+      <c r="D303" s="3"/>
+      <c r="E303" s="2"/>
+      <c r="F303" s="2"/>
+      <c r="G303" s="2"/>
+      <c r="H303" s="2"/>
+      <c r="I303" s="2"/>
+      <c r="J303" s="2"/>
+      <c r="K303" s="2"/>
+      <c r="L303" s="2"/>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A304" s="2"/>
+      <c r="B304" s="4"/>
+      <c r="C304" s="2"/>
+      <c r="D304" s="3"/>
+      <c r="E304" s="2"/>
+      <c r="F304" s="2"/>
+      <c r="G304" s="2"/>
+      <c r="H304" s="2"/>
+      <c r="I304" s="2"/>
+      <c r="J304" s="2"/>
+      <c r="K304" s="2"/>
+      <c r="L304" s="2"/>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A305" s="2"/>
+      <c r="B305" s="4"/>
+      <c r="C305" s="2"/>
+      <c r="D305" s="3"/>
+      <c r="E305" s="2"/>
+      <c r="F305" s="2"/>
+      <c r="G305" s="2"/>
+      <c r="H305" s="2"/>
+      <c r="I305" s="2"/>
+      <c r="J305" s="2"/>
+      <c r="K305" s="2"/>
+      <c r="L305" s="2"/>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A306" s="2"/>
+      <c r="B306" s="4"/>
+      <c r="C306" s="2"/>
+      <c r="D306" s="3"/>
+      <c r="E306" s="2"/>
+      <c r="F306" s="2"/>
+      <c r="G306" s="2"/>
+      <c r="H306" s="2"/>
+      <c r="I306" s="2"/>
+      <c r="J306" s="2"/>
+      <c r="K306" s="2"/>
+      <c r="L306" s="2"/>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A307" s="2"/>
+      <c r="B307" s="4"/>
+      <c r="C307" s="2"/>
+      <c r="D307" s="3"/>
+      <c r="E307" s="2"/>
+      <c r="F307" s="2"/>
+      <c r="G307" s="2"/>
+      <c r="H307" s="2"/>
+      <c r="I307" s="2"/>
+      <c r="J307" s="2"/>
+      <c r="K307" s="2"/>
+      <c r="L307" s="2"/>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A308" s="2"/>
+      <c r="B308" s="4"/>
+      <c r="C308" s="2"/>
+      <c r="D308" s="3"/>
+      <c r="E308" s="2"/>
+      <c r="F308" s="2"/>
+      <c r="G308" s="2"/>
+      <c r="H308" s="2"/>
+      <c r="I308" s="2"/>
+      <c r="J308" s="2"/>
+      <c r="K308" s="2"/>
+      <c r="L308" s="2"/>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A309" s="2"/>
+      <c r="B309" s="4"/>
+      <c r="C309" s="2"/>
+      <c r="D309" s="3"/>
+      <c r="E309" s="2"/>
+      <c r="F309" s="2"/>
+      <c r="G309" s="2"/>
+      <c r="H309" s="2"/>
+      <c r="I309" s="2"/>
+      <c r="J309" s="2"/>
+      <c r="K309" s="2"/>
+      <c r="L309" s="2"/>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A310" s="2"/>
+      <c r="B310" s="4"/>
+      <c r="C310" s="2"/>
+      <c r="D310" s="3"/>
+      <c r="E310" s="2"/>
+      <c r="F310" s="2"/>
+      <c r="G310" s="2"/>
+      <c r="H310" s="2"/>
+      <c r="I310" s="2"/>
+      <c r="J310" s="2"/>
+      <c r="K310" s="2"/>
+      <c r="L310" s="2"/>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A311" s="2"/>
+      <c r="B311" s="4"/>
+      <c r="C311" s="2"/>
+      <c r="D311" s="3"/>
+      <c r="E311" s="2"/>
+      <c r="F311" s="2"/>
+      <c r="G311" s="2"/>
+      <c r="H311" s="2"/>
+      <c r="I311" s="2"/>
+      <c r="J311" s="2"/>
+      <c r="K311" s="2"/>
+      <c r="L311" s="2"/>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A312" s="2"/>
+      <c r="B312" s="4"/>
+      <c r="C312" s="2"/>
+      <c r="D312" s="3"/>
+      <c r="E312" s="2"/>
+      <c r="F312" s="2"/>
+      <c r="G312" s="2"/>
+      <c r="H312" s="2"/>
+      <c r="I312" s="2"/>
+      <c r="J312" s="2"/>
+      <c r="K312" s="2"/>
+      <c r="L312" s="2"/>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A313" s="2"/>
+      <c r="B313" s="4"/>
+      <c r="C313" s="2"/>
+      <c r="D313" s="3"/>
+      <c r="E313" s="2"/>
+      <c r="F313" s="2"/>
+      <c r="G313" s="2"/>
+      <c r="H313" s="2"/>
+      <c r="I313" s="2"/>
+      <c r="J313" s="2"/>
+      <c r="K313" s="2"/>
+      <c r="L313" s="2"/>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A314" s="2"/>
+      <c r="B314" s="4"/>
+      <c r="C314" s="2"/>
+      <c r="D314" s="3"/>
+      <c r="E314" s="2"/>
+      <c r="F314" s="2"/>
+      <c r="G314" s="2"/>
+      <c r="H314" s="2"/>
+      <c r="I314" s="2"/>
+      <c r="J314" s="2"/>
+      <c r="K314" s="2"/>
+      <c r="L314" s="2"/>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A315" s="2"/>
+      <c r="B315" s="4"/>
+      <c r="C315" s="2"/>
+      <c r="D315" s="3"/>
+      <c r="E315" s="2"/>
+      <c r="F315" s="2"/>
+      <c r="G315" s="2"/>
+      <c r="H315" s="2"/>
+      <c r="I315" s="2"/>
+      <c r="J315" s="2"/>
+      <c r="K315" s="2"/>
+      <c r="L315" s="2"/>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A316" s="2"/>
+      <c r="B316" s="4"/>
+      <c r="C316" s="2"/>
+      <c r="D316" s="3"/>
+      <c r="E316" s="2"/>
+      <c r="F316" s="2"/>
+      <c r="G316" s="2"/>
+      <c r="H316" s="2"/>
+      <c r="I316" s="2"/>
+      <c r="J316" s="2"/>
+      <c r="K316" s="2"/>
+      <c r="L316" s="2"/>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A317" s="2"/>
+      <c r="B317" s="4"/>
+      <c r="C317" s="2"/>
+      <c r="D317" s="3"/>
+      <c r="E317" s="2"/>
+      <c r="F317" s="2"/>
+      <c r="G317" s="2"/>
+      <c r="H317" s="2"/>
+      <c r="I317" s="2"/>
+      <c r="J317" s="2"/>
+      <c r="K317" s="2"/>
+      <c r="L317" s="2"/>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A318" s="2"/>
+      <c r="B318" s="4"/>
+      <c r="C318" s="2"/>
+      <c r="D318" s="3"/>
+      <c r="E318" s="2"/>
+      <c r="F318" s="2"/>
+      <c r="G318" s="2"/>
+      <c r="H318" s="2"/>
+      <c r="I318" s="2"/>
+      <c r="J318" s="2"/>
+      <c r="K318" s="2"/>
+      <c r="L318" s="2"/>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A319" s="2"/>
+      <c r="B319" s="4"/>
+      <c r="C319" s="2"/>
+      <c r="D319" s="3"/>
+      <c r="E319" s="2"/>
+      <c r="F319" s="2"/>
+      <c r="G319" s="2"/>
+      <c r="H319" s="2"/>
+      <c r="I319" s="2"/>
+      <c r="J319" s="2"/>
+      <c r="K319" s="2"/>
+      <c r="L319" s="2"/>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A320" s="2"/>
+      <c r="B320" s="4"/>
+      <c r="C320" s="2"/>
+      <c r="D320" s="3"/>
+      <c r="E320" s="2"/>
+      <c r="F320" s="2"/>
+      <c r="G320" s="2"/>
+      <c r="H320" s="2"/>
+      <c r="I320" s="2"/>
+      <c r="J320" s="2"/>
+      <c r="K320" s="2"/>
+      <c r="L320" s="2"/>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A321" s="2"/>
+      <c r="B321" s="4"/>
+      <c r="C321" s="2"/>
+      <c r="D321" s="3"/>
+      <c r="E321" s="2"/>
+      <c r="F321" s="2"/>
+      <c r="G321" s="2"/>
+      <c r="H321" s="2"/>
+      <c r="I321" s="2"/>
+      <c r="J321" s="2"/>
+      <c r="K321" s="2"/>
+      <c r="L321" s="2"/>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A322" s="2"/>
+      <c r="B322" s="4"/>
+      <c r="C322" s="2"/>
+      <c r="D322" s="3"/>
+      <c r="E322" s="2"/>
+      <c r="F322" s="2"/>
+      <c r="G322" s="2"/>
+      <c r="H322" s="2"/>
+      <c r="I322" s="2"/>
+      <c r="J322" s="2"/>
+      <c r="K322" s="2"/>
+      <c r="L322" s="2"/>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A323" s="2"/>
+      <c r="B323" s="4"/>
+      <c r="C323" s="2"/>
+      <c r="D323" s="3"/>
+      <c r="E323" s="2"/>
+      <c r="F323" s="2"/>
+      <c r="G323" s="2"/>
+      <c r="H323" s="2"/>
+      <c r="I323" s="2"/>
+      <c r="J323" s="2"/>
+      <c r="K323" s="2"/>
+      <c r="L323" s="2"/>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A324" s="2"/>
+      <c r="B324" s="4"/>
+      <c r="C324" s="2"/>
+      <c r="D324" s="3"/>
+      <c r="E324" s="2"/>
+      <c r="F324" s="2"/>
+      <c r="G324" s="2"/>
+      <c r="H324" s="2"/>
+      <c r="I324" s="2"/>
+      <c r="J324" s="2"/>
+      <c r="K324" s="2"/>
+      <c r="L324" s="2"/>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A325" s="2"/>
+      <c r="B325" s="4"/>
+      <c r="C325" s="2"/>
+      <c r="D325" s="3"/>
+      <c r="E325" s="2"/>
+      <c r="F325" s="2"/>
+      <c r="G325" s="2"/>
+      <c r="H325" s="2"/>
+      <c r="I325" s="2"/>
+      <c r="J325" s="2"/>
+      <c r="K325" s="2"/>
+      <c r="L325" s="2"/>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A326" s="2"/>
+      <c r="B326" s="4"/>
+      <c r="C326" s="2"/>
+      <c r="D326" s="3"/>
+      <c r="E326" s="2"/>
+      <c r="F326" s="2"/>
+      <c r="G326" s="2"/>
+      <c r="H326" s="2"/>
+      <c r="I326" s="2"/>
+      <c r="J326" s="2"/>
+      <c r="K326" s="2"/>
+      <c r="L326" s="2"/>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A327" s="2"/>
+      <c r="B327" s="4"/>
+      <c r="C327" s="2"/>
+      <c r="D327" s="3"/>
+      <c r="E327" s="2"/>
+      <c r="F327" s="2"/>
+      <c r="G327" s="2"/>
+      <c r="H327" s="2"/>
+      <c r="I327" s="2"/>
+      <c r="J327" s="2"/>
+      <c r="K327" s="2"/>
+      <c r="L327" s="2"/>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A328" s="2"/>
+      <c r="B328" s="4"/>
+      <c r="C328" s="2"/>
+      <c r="D328" s="3"/>
+      <c r="E328" s="2"/>
+      <c r="F328" s="2"/>
+      <c r="G328" s="2"/>
+      <c r="H328" s="2"/>
+      <c r="I328" s="2"/>
+      <c r="J328" s="2"/>
+      <c r="K328" s="2"/>
+      <c r="L328" s="2"/>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A329" s="2"/>
+      <c r="B329" s="4"/>
+      <c r="C329" s="2"/>
+      <c r="D329" s="3"/>
+      <c r="E329" s="2"/>
+      <c r="F329" s="2"/>
+      <c r="G329" s="2"/>
+      <c r="H329" s="2"/>
+      <c r="I329" s="2"/>
+      <c r="J329" s="2"/>
+      <c r="K329" s="2"/>
+      <c r="L329" s="2"/>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A330" s="2"/>
+      <c r="B330" s="4"/>
+      <c r="C330" s="2"/>
+      <c r="D330" s="3"/>
+      <c r="E330" s="2"/>
+      <c r="F330" s="2"/>
+      <c r="G330" s="2"/>
+      <c r="H330" s="2"/>
+      <c r="I330" s="2"/>
+      <c r="J330" s="2"/>
+      <c r="K330" s="2"/>
+      <c r="L330" s="2"/>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A331" s="2"/>
+      <c r="B331" s="4"/>
+      <c r="C331" s="2"/>
+      <c r="D331" s="3"/>
+      <c r="E331" s="2"/>
+      <c r="F331" s="2"/>
+      <c r="G331" s="2"/>
+      <c r="H331" s="2"/>
+      <c r="I331" s="2"/>
+      <c r="J331" s="2"/>
+      <c r="K331" s="2"/>
+      <c r="L331" s="2"/>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A332" s="2"/>
+      <c r="B332" s="4"/>
+      <c r="C332" s="2"/>
+      <c r="D332" s="3"/>
+      <c r="E332" s="2"/>
+      <c r="F332" s="2"/>
+      <c r="G332" s="2"/>
+      <c r="H332" s="2"/>
+      <c r="I332" s="2"/>
+      <c r="J332" s="2"/>
+      <c r="K332" s="2"/>
+      <c r="L332" s="2"/>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A333" s="2"/>
+      <c r="B333" s="4"/>
+      <c r="C333" s="2"/>
+      <c r="D333" s="3"/>
+      <c r="E333" s="2"/>
+      <c r="F333" s="2"/>
+      <c r="G333" s="2"/>
+      <c r="H333" s="2"/>
+      <c r="I333" s="2"/>
+      <c r="J333" s="2"/>
+      <c r="K333" s="2"/>
+      <c r="L333" s="2"/>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A334" s="2"/>
+      <c r="B334" s="4"/>
+      <c r="C334" s="2"/>
+      <c r="D334" s="3"/>
+      <c r="E334" s="2"/>
+      <c r="F334" s="2"/>
+      <c r="G334" s="2"/>
+      <c r="H334" s="2"/>
+      <c r="I334" s="2"/>
+      <c r="J334" s="2"/>
+      <c r="K334" s="2"/>
+      <c r="L334" s="2"/>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A335" s="2"/>
+      <c r="B335" s="4"/>
+      <c r="C335" s="2"/>
+      <c r="D335" s="3"/>
+      <c r="E335" s="2"/>
+      <c r="F335" s="2"/>
+      <c r="G335" s="2"/>
+      <c r="H335" s="2"/>
+      <c r="I335" s="2"/>
+      <c r="J335" s="2"/>
+      <c r="K335" s="2"/>
+      <c r="L335" s="2"/>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A336" s="2"/>
+      <c r="B336" s="4"/>
+      <c r="C336" s="2"/>
+      <c r="D336" s="3"/>
+      <c r="E336" s="2"/>
+      <c r="F336" s="2"/>
+      <c r="G336" s="2"/>
+      <c r="H336" s="2"/>
+      <c r="I336" s="2"/>
+      <c r="J336" s="2"/>
+      <c r="K336" s="2"/>
+      <c r="L336" s="2"/>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A337" s="2"/>
+      <c r="B337" s="4"/>
+      <c r="C337" s="2"/>
+      <c r="D337" s="3"/>
+      <c r="E337" s="2"/>
+      <c r="F337" s="2"/>
+      <c r="G337" s="2"/>
+      <c r="H337" s="2"/>
+      <c r="I337" s="2"/>
+      <c r="J337" s="2"/>
+      <c r="K337" s="2"/>
+      <c r="L337" s="2"/>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A338" s="2"/>
+      <c r="B338" s="4"/>
+      <c r="C338" s="2"/>
+      <c r="D338" s="3"/>
+      <c r="E338" s="2"/>
+      <c r="F338" s="2"/>
+      <c r="G338" s="2"/>
+      <c r="H338" s="2"/>
+      <c r="I338" s="2"/>
+      <c r="J338" s="2"/>
+      <c r="K338" s="2"/>
+      <c r="L338" s="2"/>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A339" s="2"/>
+      <c r="B339" s="4"/>
+      <c r="C339" s="2"/>
+      <c r="D339" s="3"/>
+      <c r="E339" s="2"/>
+      <c r="F339" s="2"/>
+      <c r="G339" s="2"/>
+      <c r="H339" s="2"/>
+      <c r="I339" s="2"/>
+      <c r="J339" s="2"/>
+      <c r="K339" s="2"/>
+      <c r="L339" s="2"/>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A340" s="2"/>
+      <c r="B340" s="4"/>
+      <c r="C340" s="2"/>
+      <c r="D340" s="3"/>
+      <c r="E340" s="2"/>
+      <c r="F340" s="2"/>
+      <c r="G340" s="2"/>
+      <c r="H340" s="2"/>
+      <c r="I340" s="2"/>
+      <c r="J340" s="2"/>
+      <c r="K340" s="2"/>
+      <c r="L340" s="2"/>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A341" s="2"/>
+      <c r="B341" s="4"/>
+      <c r="C341" s="2"/>
+      <c r="D341" s="3"/>
+      <c r="E341" s="2"/>
+      <c r="F341" s="2"/>
+      <c r="G341" s="2"/>
+      <c r="H341" s="2"/>
+      <c r="I341" s="2"/>
+      <c r="J341" s="2"/>
+      <c r="K341" s="2"/>
+      <c r="L341" s="2"/>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A342" s="2"/>
+      <c r="B342" s="4"/>
+      <c r="C342" s="2"/>
+      <c r="D342" s="3"/>
+      <c r="E342" s="2"/>
+      <c r="F342" s="2"/>
+      <c r="G342" s="2"/>
+      <c r="H342" s="2"/>
+      <c r="I342" s="2"/>
+      <c r="J342" s="2"/>
+      <c r="K342" s="2"/>
+      <c r="L342" s="2"/>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A343" s="2"/>
+      <c r="B343" s="4"/>
+      <c r="C343" s="2"/>
+      <c r="D343" s="3"/>
+      <c r="E343" s="2"/>
+      <c r="F343" s="2"/>
+      <c r="G343" s="2"/>
+      <c r="H343" s="2"/>
+      <c r="I343" s="2"/>
+      <c r="J343" s="2"/>
+      <c r="K343" s="2"/>
+      <c r="L343" s="2"/>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A344" s="2"/>
+      <c r="B344" s="4"/>
+      <c r="C344" s="2"/>
+      <c r="D344" s="3"/>
+      <c r="E344" s="2"/>
+      <c r="F344" s="2"/>
+      <c r="G344" s="2"/>
+      <c r="H344" s="2"/>
+      <c r="I344" s="2"/>
+      <c r="J344" s="2"/>
+      <c r="K344" s="2"/>
+      <c r="L344" s="2"/>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A345" s="2"/>
+      <c r="B345" s="4"/>
+      <c r="C345" s="2"/>
+      <c r="D345" s="3"/>
+      <c r="E345" s="2"/>
+      <c r="F345" s="2"/>
+      <c r="G345" s="2"/>
+      <c r="H345" s="2"/>
+      <c r="I345" s="2"/>
+      <c r="J345" s="2"/>
+      <c r="K345" s="2"/>
+      <c r="L345" s="2"/>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A346" s="2"/>
+      <c r="B346" s="4"/>
+      <c r="C346" s="2"/>
+      <c r="D346" s="3"/>
+      <c r="E346" s="2"/>
+      <c r="F346" s="2"/>
+      <c r="G346" s="2"/>
+      <c r="H346" s="2"/>
+      <c r="I346" s="2"/>
+      <c r="J346" s="2"/>
+      <c r="K346" s="2"/>
+      <c r="L346" s="2"/>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A347" s="2"/>
+      <c r="B347" s="4"/>
+      <c r="C347" s="2"/>
+      <c r="D347" s="3"/>
+      <c r="E347" s="2"/>
+      <c r="F347" s="2"/>
+      <c r="G347" s="2"/>
+      <c r="H347" s="2"/>
+      <c r="I347" s="2"/>
+      <c r="J347" s="2"/>
+      <c r="K347" s="2"/>
+      <c r="L347" s="2"/>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A348" s="2"/>
+      <c r="B348" s="4"/>
+      <c r="C348" s="2"/>
+      <c r="D348" s="3"/>
+      <c r="E348" s="2"/>
+      <c r="F348" s="2"/>
+      <c r="G348" s="2"/>
+      <c r="H348" s="2"/>
+      <c r="I348" s="2"/>
+      <c r="J348" s="2"/>
+      <c r="K348" s="2"/>
+      <c r="L348" s="2"/>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A349" s="2"/>
+      <c r="B349" s="4"/>
+      <c r="C349" s="2"/>
+      <c r="D349" s="3"/>
+      <c r="E349" s="2"/>
+      <c r="F349" s="2"/>
+      <c r="G349" s="2"/>
+      <c r="H349" s="2"/>
+      <c r="I349" s="2"/>
+      <c r="J349" s="2"/>
+      <c r="K349" s="2"/>
+      <c r="L349" s="2"/>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A350" s="2"/>
+      <c r="B350" s="4"/>
+      <c r="C350" s="2"/>
+      <c r="D350" s="3"/>
+      <c r="E350" s="2"/>
+      <c r="F350" s="2"/>
+      <c r="G350" s="2"/>
+      <c r="H350" s="2"/>
+      <c r="I350" s="2"/>
+      <c r="J350" s="2"/>
+      <c r="K350" s="2"/>
+      <c r="L350" s="2"/>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A351" s="2"/>
+      <c r="B351" s="4"/>
+      <c r="C351" s="2"/>
+      <c r="D351" s="3"/>
+      <c r="E351" s="2"/>
+      <c r="F351" s="2"/>
+      <c r="G351" s="2"/>
+      <c r="H351" s="2"/>
+      <c r="I351" s="2"/>
+      <c r="J351" s="2"/>
+      <c r="K351" s="2"/>
+      <c r="L351" s="2"/>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A352" s="2"/>
+      <c r="B352" s="4"/>
+      <c r="C352" s="2"/>
+      <c r="D352" s="3"/>
+      <c r="E352" s="2"/>
+      <c r="F352" s="2"/>
+      <c r="G352" s="2"/>
+      <c r="H352" s="2"/>
+      <c r="I352" s="2"/>
+      <c r="J352" s="2"/>
+      <c r="K352" s="2"/>
+      <c r="L352" s="2"/>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A353" s="2"/>
+      <c r="B353" s="4"/>
+      <c r="C353" s="2"/>
+      <c r="D353" s="3"/>
+      <c r="E353" s="2"/>
+      <c r="F353" s="2"/>
+      <c r="G353" s="2"/>
+      <c r="H353" s="2"/>
+      <c r="I353" s="2"/>
+      <c r="J353" s="2"/>
+      <c r="K353" s="2"/>
+      <c r="L353" s="2"/>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A354" s="2"/>
+      <c r="B354" s="4"/>
+      <c r="C354" s="2"/>
+      <c r="D354" s="3"/>
+      <c r="E354" s="2"/>
+      <c r="F354" s="2"/>
+      <c r="G354" s="2"/>
+      <c r="H354" s="2"/>
+      <c r="I354" s="2"/>
+      <c r="J354" s="2"/>
+      <c r="K354" s="2"/>
+      <c r="L354" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:F65 G3 G5:G8 G10:G23 G25:G29 G31:G58 G60:G65">
@@ -27059,10 +32778,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27070,549 +32789,2083 @@
     <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="39.7109375" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="77" t="s">
         <v>536</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="79" t="s">
         <v>1221</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="80" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="9">
+      <c r="A2" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
-        <v>1222</v>
+      <c r="C2" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="9">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3">
         <v>2</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="9">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3">
         <v>3</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3">
         <v>4</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3">
         <v>5</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3">
         <v>6</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="9">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="9">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3">
         <v>8</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2">
+        <v>9421135468</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="9">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3">
         <v>9</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="9">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3">
         <v>10</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="9">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3">
         <v>11</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="9">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3">
         <v>12</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="9">
-        <v>13</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="9">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3">
         <v>14</v>
       </c>
+      <c r="C15" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="9">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="9">
+      <c r="C16" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B17" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="9">
+      <c r="C17" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="9">
+      <c r="C18" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="9">
+      <c r="C19" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="9">
+      <c r="C20" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="9">
+      <c r="C21" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="9">
+      <c r="C22" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="9">
+      <c r="C23" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="81"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="81"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+    </row>
+    <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="81"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B27" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="9">
+      <c r="C27" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="9">
+      <c r="C28" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="9">
+      <c r="C29" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="9">
+      <c r="C30" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="9">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="9">
+      <c r="C31" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="9">
+      <c r="C33" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="9">
+      <c r="C34" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="9">
+      <c r="C35" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="9">
+      <c r="C36" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B37" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="9">
+      <c r="C37" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="9">
+      <c r="C38" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="9">
+      <c r="C39" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="9">
+      <c r="C40" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B41" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="9">
+      <c r="C41" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B42" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="9">
+      <c r="C42" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="9">
+      <c r="C43" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="9">
+      <c r="C44" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="9">
+      <c r="C45" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="9">
+      <c r="C46" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="9">
+      <c r="C47" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="9">
+      <c r="C48" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="9">
+      <c r="C49" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="9">
+      <c r="C50" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="9">
+      <c r="C51" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="9">
+      <c r="C52" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="9">
+      <c r="C53" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="9">
+      <c r="C54" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="9">
+      <c r="C55" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="9">
+      <c r="C56" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="9">
+      <c r="C57" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="9">
+      <c r="C58" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="9">
+      <c r="C59" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="9">
+      <c r="C60" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="3">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="9">
+      <c r="C61" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="3">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="9">
+      <c r="C62" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="3">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="9">
+      <c r="C63" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="9">
+      <c r="C64" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="3">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="9">
+      <c r="C65" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="3">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="9">
+      <c r="C66" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="9">
+      <c r="C67" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="3">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="9">
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="3">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="9">
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="3">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="9">
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="3">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="9">
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="3">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="9">
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="9">
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="9">
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="3">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="9">
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="9">
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="3">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="9">
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="3">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="9">
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="9">
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="3">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="9">
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="3">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="9">
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="3">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="9">
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="9">
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="9">
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="9">
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="B86" s="3">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="9">
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="3">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="9">
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="3">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="9">
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="3">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="9">
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="B90" s="3">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="9">
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="B91" s="3">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="9">
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="3">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="9">
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="3">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="9">
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="9">
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+      <c r="B95" s="3">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="9">
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="B96" s="3">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="9">
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="3">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="9">
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="3">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="9">
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="9">
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="9">
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B101" s="9">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="9">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B102" s="9">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="9">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B103" s="9">
         <v>99</v>
       </c>
     </row>
@@ -27634,5 +34887,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ophir Post Excel Pos For Marketing.xlsx
+++ b/Ophir Post Excel Pos For Marketing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15000" windowHeight="4665" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15000" windowHeight="4665" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Old" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5281" uniqueCount="1676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5355" uniqueCount="1721">
   <si>
     <t>Date</t>
   </si>
@@ -5065,6 +5065,141 @@
   </si>
   <si>
     <t>09-942912303</t>
+  </si>
+  <si>
+    <t>10.1.24</t>
+  </si>
+  <si>
+    <t>ထာဝရထမင်းဆိုင်</t>
+  </si>
+  <si>
+    <t>အမှတ်၈၉၇ မြေညီထပ် လေးထောင့်ကန်လမ်းမကြီး သင်္ယန်းကျွန်း</t>
+  </si>
+  <si>
+    <t>09-766526526-425715994</t>
+  </si>
+  <si>
+    <t>ငွေကြယ်ဖြူ Res</t>
+  </si>
+  <si>
+    <t xml:space="preserve">မေခအိမ်ယာ လေးထောင့်ကန်လမ်း </t>
+  </si>
+  <si>
+    <t>ကုံးထက်ကြက်ဆီထမင်း</t>
+  </si>
+  <si>
+    <t>မေခအိမ်ရာ ဘီအိုစီမှတ်တိုင်</t>
+  </si>
+  <si>
+    <t>ဇဝနထမင်းဆိုင်</t>
+  </si>
+  <si>
+    <t>ဇဝနမှတ်တိုင်</t>
+  </si>
+  <si>
+    <t>09-890050045-951333111</t>
+  </si>
+  <si>
+    <t>The Radio Bar</t>
+  </si>
+  <si>
+    <t>လေးထောင့်ကန်လမ်း သင်္ဃန်းကျွန်း</t>
+  </si>
+  <si>
+    <t>09-799799401</t>
+  </si>
+  <si>
+    <t>09-251030993-782143745</t>
+  </si>
+  <si>
+    <t>သန်းကြွယ်လက်ဘက်ရည်ဆိုင်</t>
+  </si>
+  <si>
+    <t>အမှတ်၁ သုမင်္ဂလာအိမ်ရာ (ဈ)ရပ်ကွက် လေးထောင့်ကန်လမ်း</t>
+  </si>
+  <si>
+    <t>မန်နေဂျာ</t>
+  </si>
+  <si>
+    <t>09-442718726</t>
+  </si>
+  <si>
+    <t>နေလ Res</t>
+  </si>
+  <si>
+    <t>အမှတ် ၈၀၆ သင်္ဃန်းကျွန်း</t>
+  </si>
+  <si>
+    <t>09-254134128</t>
+  </si>
+  <si>
+    <t>Tap Room 254</t>
+  </si>
+  <si>
+    <t>သုမင်္ဂလာအိမ်ရာ သင်္ဃန်းကျွန်း</t>
+  </si>
+  <si>
+    <t>09-942251059</t>
+  </si>
+  <si>
+    <t>သုံးပန်လှ</t>
+  </si>
+  <si>
+    <t>သင်္ဃန်းကျွန်း ဘဝမြင့်မှတ်တိုင်</t>
+  </si>
+  <si>
+    <t>09-773773234</t>
+  </si>
+  <si>
+    <t>Zo Zo Bubble</t>
+  </si>
+  <si>
+    <t>09-941650861</t>
+  </si>
+  <si>
+    <t>Zu Zu Fain</t>
+  </si>
+  <si>
+    <t>09-403305000</t>
+  </si>
+  <si>
+    <t>အောင်ချမ်းသာ</t>
+  </si>
+  <si>
+    <t>09-250151045</t>
+  </si>
+  <si>
+    <t>09-797897718</t>
+  </si>
+  <si>
+    <t>ရွှေခရား Tea</t>
+  </si>
+  <si>
+    <t>09-778507263</t>
+  </si>
+  <si>
+    <t>ရွှေစည်ဘီယာနှင့်အကင်ဆိုင်</t>
+  </si>
+  <si>
+    <t>09-980888098</t>
+  </si>
+  <si>
+    <t>Golden Place Res</t>
+  </si>
+  <si>
+    <t>09-758556572</t>
+  </si>
+  <si>
+    <t>ဝင်းသစ္စာ</t>
+  </si>
+  <si>
+    <t>09-976799446</t>
+  </si>
+  <si>
+    <t>လင်းရောင်ခြည်</t>
+  </si>
+  <si>
+    <t>09-253282871</t>
   </si>
 </sst>
 </file>
@@ -26900,9 +27035,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L356"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C136" sqref="C136"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30159,7 +30294,9 @@
       <c r="L139" s="2"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="89"/>
+      <c r="A140" s="83" t="s">
+        <v>1676</v>
+      </c>
       <c r="B140" s="53">
         <v>136</v>
       </c>
@@ -30183,7 +30320,7 @@
       <c r="L140" s="2"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="89"/>
+      <c r="A141" s="83"/>
       <c r="B141" s="53">
         <v>137</v>
       </c>
@@ -30207,7 +30344,7 @@
       <c r="L141" s="2"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="89"/>
+      <c r="A142" s="83"/>
       <c r="B142" s="53">
         <v>138</v>
       </c>
@@ -30231,7 +30368,7 @@
       <c r="L142" s="2"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="89"/>
+      <c r="A143" s="83"/>
       <c r="B143" s="53">
         <v>139</v>
       </c>
@@ -30255,7 +30392,7 @@
       <c r="L143" s="2"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="89"/>
+      <c r="A144" s="83"/>
       <c r="B144" s="53">
         <v>140</v>
       </c>
@@ -30275,7 +30412,7 @@
       <c r="L144" s="2"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="89"/>
+      <c r="A145" s="83"/>
       <c r="B145" s="53">
         <v>141</v>
       </c>
@@ -30299,7 +30436,7 @@
       <c r="L145" s="2"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="89"/>
+      <c r="A146" s="83"/>
       <c r="B146" s="53">
         <v>142</v>
       </c>
@@ -30323,7 +30460,7 @@
       <c r="L146" s="2"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="89"/>
+      <c r="A147" s="83"/>
       <c r="B147" s="53">
         <v>143</v>
       </c>
@@ -30343,7 +30480,7 @@
       <c r="L147" s="2"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="89"/>
+      <c r="A148" s="83"/>
       <c r="B148" s="53">
         <v>144</v>
       </c>
@@ -30367,7 +30504,7 @@
       <c r="L148" s="2"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="89"/>
+      <c r="A149" s="83"/>
       <c r="B149" s="53">
         <v>145</v>
       </c>
@@ -33449,9 +33586,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D103" activeCellId="1" sqref="F103 D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33460,7 +33597,7 @@
     <col min="4" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" customWidth="1"/>
+    <col min="7" max="7" width="51.42578125" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
     <col min="10" max="10" width="39.7109375" customWidth="1"/>
@@ -35333,290 +35470,436 @@
       <c r="L81" s="2"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
+      <c r="A82" s="83" t="s">
+        <v>1645</v>
+      </c>
       <c r="B82" s="3">
         <v>78</v>
       </c>
-      <c r="C82" s="2"/>
+      <c r="C82" s="2" t="s">
+        <v>1677</v>
+      </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
+      <c r="G82" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
+      <c r="J82" s="2" t="s">
+        <v>1679</v>
+      </c>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
+      <c r="A83" s="83"/>
       <c r="B83" s="3">
         <v>79</v>
       </c>
-      <c r="C83" s="2"/>
+      <c r="C83" s="2" t="s">
+        <v>1680</v>
+      </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
+      <c r="G83" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
+      <c r="J83" s="2" t="s">
+        <v>1388</v>
+      </c>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
+      <c r="A84" s="83"/>
       <c r="B84" s="3">
         <v>80</v>
       </c>
-      <c r="C84" s="2"/>
+      <c r="C84" s="2" t="s">
+        <v>1682</v>
+      </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
+      <c r="G84" s="2" t="s">
+        <v>1683</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
+      <c r="J84" s="2" t="s">
+        <v>1686</v>
+      </c>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
+      <c r="A85" s="83"/>
       <c r="B85" s="3">
         <v>81</v>
       </c>
-      <c r="C85" s="2"/>
+      <c r="C85" s="2" t="s">
+        <v>1684</v>
+      </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
+      <c r="G85" s="2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
+      <c r="J85" s="2" t="s">
+        <v>1690</v>
+      </c>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
+      <c r="A86" s="83"/>
       <c r="B86" s="3">
         <v>82</v>
       </c>
-      <c r="C86" s="2"/>
+      <c r="C86" s="2" t="s">
+        <v>1687</v>
+      </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
+      <c r="G86" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
+      <c r="J86" s="2" t="s">
+        <v>1689</v>
+      </c>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
+      <c r="A87" s="83"/>
       <c r="B87" s="3">
         <v>83</v>
       </c>
-      <c r="C87" s="2"/>
+      <c r="C87" s="2" t="s">
+        <v>1691</v>
+      </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
+      <c r="G87" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>1693</v>
+      </c>
       <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
+      <c r="J87" s="2" t="s">
+        <v>1694</v>
+      </c>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
+      <c r="A88" s="83"/>
       <c r="B88" s="3">
         <v>84</v>
       </c>
-      <c r="C88" s="2"/>
+      <c r="C88" s="2" t="s">
+        <v>1695</v>
+      </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
+      <c r="G88" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
+      <c r="J88" s="2" t="s">
+        <v>1697</v>
+      </c>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
+      <c r="A89" s="83"/>
       <c r="B89" s="3">
         <v>85</v>
       </c>
-      <c r="C89" s="2"/>
+      <c r="C89" s="2" t="s">
+        <v>1698</v>
+      </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
+      <c r="G89" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
+      <c r="J89" s="2" t="s">
+        <v>1700</v>
+      </c>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
+      <c r="A90" s="83"/>
       <c r="B90" s="3">
         <v>86</v>
       </c>
-      <c r="C90" s="2"/>
+      <c r="C90" s="2" t="s">
+        <v>1701</v>
+      </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
+      <c r="G90" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
+      <c r="J90" s="2" t="s">
+        <v>1703</v>
+      </c>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
+      <c r="A91" s="83"/>
       <c r="B91" s="3">
         <v>87</v>
       </c>
-      <c r="C91" s="2"/>
+      <c r="C91" s="2" t="s">
+        <v>1704</v>
+      </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
+      <c r="G91" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
+      <c r="J91" s="2" t="s">
+        <v>1705</v>
+      </c>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
+      <c r="A92" s="83"/>
       <c r="B92" s="3">
         <v>88</v>
       </c>
-      <c r="C92" s="2"/>
+      <c r="C92" s="2" t="s">
+        <v>1706</v>
+      </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
+      <c r="G92" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
+      <c r="J92" s="2" t="s">
+        <v>1707</v>
+      </c>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
+      <c r="A93" s="83"/>
       <c r="B93" s="3">
         <v>89</v>
       </c>
-      <c r="C93" s="2"/>
+      <c r="C93" s="2" t="s">
+        <v>1708</v>
+      </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
+      <c r="G93" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
+      <c r="J93" s="2" t="s">
+        <v>1709</v>
+      </c>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
+      <c r="A94" s="83"/>
       <c r="B94" s="3">
         <v>90</v>
       </c>
-      <c r="C94" s="2"/>
+      <c r="C94" s="2" t="s">
+        <v>1682</v>
+      </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
+      <c r="G94" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
+      <c r="J94" s="2" t="s">
+        <v>1710</v>
+      </c>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
+      <c r="A95" s="83"/>
       <c r="B95" s="3">
         <v>91</v>
       </c>
-      <c r="C95" s="2"/>
+      <c r="C95" s="2" t="s">
+        <v>1711</v>
+      </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
+      <c r="G95" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
+      <c r="J95" s="2" t="s">
+        <v>1712</v>
+      </c>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
+      <c r="A96" s="83"/>
       <c r="B96" s="3">
         <v>92</v>
       </c>
-      <c r="C96" s="2"/>
+      <c r="C96" s="2" t="s">
+        <v>1713</v>
+      </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
+      <c r="G96" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
+      <c r="J96" s="2" t="s">
+        <v>1714</v>
+      </c>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
+      <c r="A97" s="83"/>
       <c r="B97" s="3">
         <v>93</v>
       </c>
-      <c r="C97" s="2"/>
+      <c r="C97" s="2" t="s">
+        <v>1715</v>
+      </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
+      <c r="G97" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
+      <c r="J97" s="2" t="s">
+        <v>1716</v>
+      </c>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
+      <c r="A98" s="83"/>
       <c r="B98" s="3">
         <v>94</v>
       </c>
-      <c r="C98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>1717</v>
+      </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
+      <c r="G98" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
+      <c r="J98" s="2" t="s">
+        <v>1718</v>
+      </c>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
+      <c r="A99" s="83"/>
       <c r="B99" s="3">
         <v>95</v>
       </c>
-      <c r="C99" s="2"/>
+      <c r="C99" s="2" t="s">
+        <v>1719</v>
+      </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
+      <c r="G99" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
+      <c r="J99" s="2" t="s">
+        <v>1720</v>
+      </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>

--- a/Ophir Post Excel Pos For Marketing.xlsx
+++ b/Ophir Post Excel Pos For Marketing.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15000" windowHeight="4665" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15000" windowHeight="4665" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Old" sheetId="1" r:id="rId1"/>
     <sheet name="SST" sheetId="3" r:id="rId2"/>
     <sheet name="Su Mon" sheetId="2" r:id="rId3"/>
+    <sheet name="Follow up" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Old!$A$2:$M$691</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5355" uniqueCount="1721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5407" uniqueCount="1750">
   <si>
     <t>Date</t>
   </si>
@@ -5201,12 +5202,99 @@
   <si>
     <t>09-253282871</t>
   </si>
+  <si>
+    <t>Rock Star Res</t>
+  </si>
+  <si>
+    <t>09-49244455</t>
+  </si>
+  <si>
+    <t>18.1.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The Queen</t>
+  </si>
+  <si>
+    <t>ဇမ္ဈူအေး</t>
+  </si>
+  <si>
+    <t>ကျောက်မြောင်း</t>
+  </si>
+  <si>
+    <t>09-254136973</t>
+  </si>
+  <si>
+    <t>Sky View</t>
+  </si>
+  <si>
+    <t>ကလော</t>
+  </si>
+  <si>
+    <t>ဘာဘာကြီး</t>
+  </si>
+  <si>
+    <t>သုဝဏ</t>
+  </si>
+  <si>
+    <t>09-09979162191</t>
+  </si>
+  <si>
+    <t>Sai Shan Food</t>
+  </si>
+  <si>
+    <t>သမိုင်းလမ်းဆုံ</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>ပါရမီလမ်းမ</t>
+  </si>
+  <si>
+    <t>ရမ်သမ် Bar</t>
+  </si>
+  <si>
+    <t>မဥ</t>
+  </si>
+  <si>
+    <t>တော်ဝင်နှင်းဆီ</t>
+  </si>
+  <si>
+    <t>ဘန်တာပင် ရွှေဂုံတိုင်</t>
+  </si>
+  <si>
+    <t>ကုံးထက်</t>
+  </si>
+  <si>
+    <t>သင်္ဃန်းကျွန်း</t>
+  </si>
+  <si>
+    <t>Lucky 7</t>
+  </si>
+  <si>
+    <t>ဦးချစ်မောင်</t>
+  </si>
+  <si>
+    <t>09-0943098515</t>
+  </si>
+  <si>
+    <t>ချမ်း‌မြေ့ Res</t>
+  </si>
+  <si>
+    <t>09-260047055</t>
+  </si>
+  <si>
+    <t>Red X</t>
+  </si>
+  <si>
+    <t>ဘာဒါ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5237,8 +5325,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5473,6 +5569,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -5646,7 +5748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -5888,11 +5990,56 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -27006,23 +27153,23 @@
   </sheetData>
   <autoFilter ref="A2:M691"/>
   <conditionalFormatting sqref="D14:F14">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",D14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1048576 G259:G287 G289:G291 G293:G317 G319:G327 G329:G335 G337:G340 G342:G344 G346 G348:G360 G362 G364:G389 G391 G393:G394 G396:G397 G399 G401:G429 G431:G438 G440:G452 G454:G470 G493:G513 G515:G526 G528:G536 G538:G539 G546:G557 G559:G572 G574:G576 G578:G593 G595:G599 G601:G602 G605:G624 G626:G629 G631:G634 G636:G649 G651:G655 G657:G684 G686:G691">
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33547,34 +33694,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:F64 G2 G4:G7 G9:G22 G24:G28 G30:G57 G59:G64">
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D64">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33584,11 +33731,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:L140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D103" activeCellId="1" sqref="F103 D103"/>
+    <sheetView topLeftCell="H1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35904,18 +36051,26 @@
       <c r="L99" s="2"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
+      <c r="A100" s="95"/>
       <c r="B100" s="3">
         <v>96</v>
       </c>
-      <c r="C100" s="2"/>
+      <c r="C100" s="2" t="s">
+        <v>1721</v>
+      </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
+      <c r="G100" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
+      <c r="J100" s="2" t="s">
+        <v>1722</v>
+      </c>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
@@ -35933,6 +36088,1831 @@
       <c r="B103" s="9">
         <v>99</v>
       </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B104" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B105" s="9">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B106" s="9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B107" s="9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B108" s="9">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B109" s="9">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B110" s="9">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B111" s="9">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B112" s="9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="9">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="9">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="9">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="9">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="9">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="9">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="9">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="9">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="9">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="9">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="9">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="9">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="9">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="9">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="9">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="9">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="9">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="9">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="9">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="9">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="9">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="9">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="9">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="9">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="96" t="s">
+        <v>536</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="79" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B2" s="97">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="97">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>1726</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="97">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>1727</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="97">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="97">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>1731</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="97">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="97">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="97">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="97">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="97">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="97">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="97">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="97">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>1744</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>1745</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="97">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="98" t="s">
+        <v>1744</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>1747</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="97">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="97">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="97">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="97">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="97">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="97">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="97">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="97">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="97">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="97">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="97">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="97">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="97">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="97">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="97">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="97">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="97">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="97">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="97">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="97">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="97">
+        <v>35</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="97">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="97">
+        <v>37</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="97">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="97">
+        <v>39</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="97">
+        <v>40</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="97">
+        <v>41</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="97">
+        <v>42</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="97">
+        <v>43</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="97">
+        <v>44</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="97">
+        <v>45</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="97">
+        <v>46</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="97">
+        <v>47</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="97">
+        <v>48</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="97">
+        <v>49</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="97">
+        <v>50</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="97">
+        <v>51</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="97">
+        <v>52</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="97">
+        <v>53</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="97">
+        <v>54</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="97">
+        <v>55</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="97">
+        <v>56</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="97">
+        <v>57</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="97">
+        <v>58</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="97">
+        <v>59</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="97">
+        <v>60</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="97">
+        <v>61</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="97">
+        <v>62</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="97">
+        <v>63</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="97">
+        <v>64</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="97">
+        <v>65</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="97">
+        <v>66</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="97">
+        <v>67</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="97">
+        <v>68</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="97">
+        <v>69</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="97">
+        <v>70</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="97">
+        <v>71</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="97">
+        <v>72</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="97">
+        <v>73</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="97">
+        <v>74</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="97">
+        <v>75</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="97">
+        <v>76</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="97">
+        <v>77</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="97">
+        <v>78</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="97">
+        <v>79</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="97">
+        <v>80</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="97">
+        <v>81</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="97">
+        <v>82</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="97">
+        <v>83</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="97">
+        <v>84</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="B86" s="97">
+        <v>85</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="97">
+        <v>86</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="97">
+        <v>87</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="97">
+        <v>88</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="B90" s="97">
+        <v>89</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="B91" s="97">
+        <v>90</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="97">
+        <v>91</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="97">
+        <v>92</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="97">
+        <v>93</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1">

--- a/Ophir Post Excel Pos For Marketing.xlsx
+++ b/Ophir Post Excel Pos For Marketing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15000" windowHeight="4665" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15000" windowHeight="4665" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Old" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5407" uniqueCount="1750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5488" uniqueCount="1807">
   <si>
     <t>Date</t>
   </si>
@@ -5288,6 +5288,177 @@
   </si>
   <si>
     <t>ဘာဒါ</t>
+  </si>
+  <si>
+    <t>Family Sushi</t>
+  </si>
+  <si>
+    <t>ဦးချစ်မောင်လမ်း တာမွေ</t>
+  </si>
+  <si>
+    <t>ဦးရဲသူရ</t>
+  </si>
+  <si>
+    <t>09-5077223</t>
+  </si>
+  <si>
+    <t>Seoul K</t>
+  </si>
+  <si>
+    <t>University Avenue Bahan</t>
+  </si>
+  <si>
+    <t>09-470920208</t>
+  </si>
+  <si>
+    <t>မောက်ချိုက်</t>
+  </si>
+  <si>
+    <t>bahan ဦးချစ်မောင်လမ်း စျေးကွေ့ မှတ် တိုင်အနီး</t>
+  </si>
+  <si>
+    <t>ရွှေညောင်ပင် ဒံပေါက်</t>
+  </si>
+  <si>
+    <t>အမှတ် ၁၀ အနောက်မျဉ်ပြိုင်ကွင်းလမ်း တာမွေ</t>
+  </si>
+  <si>
+    <t>09-9548408</t>
+  </si>
+  <si>
+    <t>အနဲကြီးထမင်းဆိုင်</t>
+  </si>
+  <si>
+    <t>09-5153785</t>
+  </si>
+  <si>
+    <t>ကျိုင်းတုံစားသောက်ဆိုင်</t>
+  </si>
+  <si>
+    <t>အမှတ် ၁၈၃ ဦးချစ်မောင်လမ်း အနောက်ရပ်ကွက် ဗဟန်း</t>
+  </si>
+  <si>
+    <t>09-757573744</t>
+  </si>
+  <si>
+    <t>Golden Myanmar</t>
+  </si>
+  <si>
+    <t>အနောက်မျဉ်းပြိုင်ကွင်းလမ်း ဗဟန်း</t>
+  </si>
+  <si>
+    <t>ကိုကျော်ထင်</t>
+  </si>
+  <si>
+    <t>09-450025757</t>
+  </si>
+  <si>
+    <t>Chanmy</t>
+  </si>
+  <si>
+    <t>ဗဟန်း</t>
+  </si>
+  <si>
+    <t>ကိုအောင်မျိုး</t>
+  </si>
+  <si>
+    <t>09-260097055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kit Kit Hot pot </t>
+  </si>
+  <si>
+    <t>09-43032049</t>
+  </si>
+  <si>
+    <t>19.1.24</t>
+  </si>
+  <si>
+    <t>ချမ်းသာကြီး</t>
+  </si>
+  <si>
+    <t>သုနန္ဒာလမ်းမ မဥ</t>
+  </si>
+  <si>
+    <t>09-451266448</t>
+  </si>
+  <si>
+    <t>09-751476681</t>
+  </si>
+  <si>
+    <t>မေတ္တာနွယ်</t>
+  </si>
+  <si>
+    <t>Saloon 14</t>
+  </si>
+  <si>
+    <t>ရွှေပေါက်ကံ</t>
+  </si>
+  <si>
+    <t>09-970870948</t>
+  </si>
+  <si>
+    <t>အောင်သရဖူ BBQ</t>
+  </si>
+  <si>
+    <t>အမှတ် ၃၂၅ ပုဂံလမ်းမကြီး ရွှေပေါက်ကံ</t>
+  </si>
+  <si>
+    <t>09-403535099</t>
+  </si>
+  <si>
+    <t>My Tea</t>
+  </si>
+  <si>
+    <t>ပုဂံလမ်း ရွှေပေါက်ကံ</t>
+  </si>
+  <si>
+    <t>09-259012377</t>
+  </si>
+  <si>
+    <t>Mercury Bakery</t>
+  </si>
+  <si>
+    <t>ခ၇/၆၆၀ အင်းဝလမ်း ရွှေပေါက်ကံ</t>
+  </si>
+  <si>
+    <t>09-780400281</t>
+  </si>
+  <si>
+    <t>ရွှေကောင်ကြွယ်</t>
+  </si>
+  <si>
+    <t>အမှတ် ၇၃၃ ပုဂံလမ်း ၁၄ရပ်ကွက် ရွှေပေါက်ကံ</t>
+  </si>
+  <si>
+    <t>09-967821822</t>
+  </si>
+  <si>
+    <t>ရာပြည့်</t>
+  </si>
+  <si>
+    <t>အမှတ် ၁၂၁၆ ပုဂံလမ်း တိုးချဲ့ရပ်ကွက် ရွှေပေါက်ကံ</t>
+  </si>
+  <si>
+    <t>09-766409369</t>
+  </si>
+  <si>
+    <t>အမှတ် ၁၄/၆ ပုဂံလမ်း ၁၄ရပ်ကွက် မဥ</t>
+  </si>
+  <si>
+    <t>09-895807797</t>
+  </si>
+  <si>
+    <t>09-977555474</t>
+  </si>
+  <si>
+    <t>My Swan cake</t>
+  </si>
+  <si>
+    <t>Unity Tea</t>
+  </si>
+  <si>
+    <t>09-973189539</t>
   </si>
 </sst>
 </file>
@@ -5748,7 +5919,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -5998,6 +6169,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -27183,7 +27355,7 @@
   <dimension ref="A1:L356"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
@@ -33731,11 +33903,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L140"/>
+  <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L1"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36075,204 +36247,1816 @@
       <c r="L100" s="2"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B101" s="9">
+      <c r="A101" s="99" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B101" s="3">
         <v>97</v>
       </c>
+      <c r="C101" s="2" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>1752</v>
+      </c>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B102" s="9">
+      <c r="A102" s="99"/>
+      <c r="B102" s="3">
         <v>98</v>
       </c>
+      <c r="C102" s="2" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2" t="s">
+        <v>1756</v>
+      </c>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B103" s="9">
+      <c r="A103" s="99"/>
+      <c r="B103" s="3">
         <v>99</v>
       </c>
+      <c r="C103" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B104" s="9">
+      <c r="A104" s="99"/>
+      <c r="B104" s="3">
         <v>100</v>
       </c>
+      <c r="C104" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B105" s="9">
+      <c r="A105" s="99"/>
+      <c r="B105" s="3">
         <v>101</v>
       </c>
+      <c r="C105" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B106" s="9">
+      <c r="A106" s="99"/>
+      <c r="B106" s="3">
         <v>102</v>
       </c>
+      <c r="C106" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2" t="s">
+        <v>1766</v>
+      </c>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B107" s="9">
+      <c r="A107" s="99"/>
+      <c r="B107" s="3">
         <v>103</v>
       </c>
+      <c r="C107" s="2" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B108" s="9">
+      <c r="A108" s="99"/>
+      <c r="B108" s="3">
         <v>104</v>
       </c>
+      <c r="C108" s="2" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2" t="s">
+        <v>1772</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>1773</v>
+      </c>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B109" s="9">
+      <c r="A109" s="99"/>
+      <c r="B109" s="3">
         <v>105</v>
       </c>
+      <c r="C109" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B110" s="9">
+      <c r="A110" s="83" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B110" s="3">
         <v>106</v>
       </c>
+      <c r="C110" s="2" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2" t="s">
+        <v>1780</v>
+      </c>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B111" s="9">
+      <c r="A111" s="83"/>
+      <c r="B111" s="3">
         <v>107</v>
       </c>
+      <c r="C111" s="49">
+        <v>999</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2" t="s">
+        <v>1781</v>
+      </c>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B112" s="9">
+      <c r="A112" s="83"/>
+      <c r="B112" s="3">
         <v>108</v>
       </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="9">
+      <c r="C112" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="83"/>
+      <c r="B113" s="3">
         <v>109</v>
       </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="9">
+      <c r="C113" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2" t="s">
+        <v>1784</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2" t="s">
+        <v>1785</v>
+      </c>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="83"/>
+      <c r="B114" s="3">
         <v>110</v>
       </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="9">
+      <c r="C114" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2" t="s">
+        <v>1787</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2" t="s">
+        <v>1788</v>
+      </c>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="83"/>
+      <c r="B115" s="3">
         <v>111</v>
       </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="9">
+      <c r="C115" s="2" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2" t="s">
+        <v>1790</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="83"/>
+      <c r="B116" s="3">
         <v>112</v>
       </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="9">
+      <c r="C116" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2" t="s">
+        <v>1793</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2" t="s">
+        <v>1794</v>
+      </c>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="83"/>
+      <c r="B117" s="3">
         <v>113</v>
       </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="9">
+      <c r="C117" s="2" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2" t="s">
+        <v>1796</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2" t="s">
+        <v>1797</v>
+      </c>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="83"/>
+      <c r="B118" s="3">
         <v>114</v>
       </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="9">
+      <c r="C118" s="2" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="83"/>
+      <c r="B119" s="3">
         <v>115</v>
       </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="9">
+      <c r="C119" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2" t="s">
+        <v>1801</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2" t="s">
+        <v>1802</v>
+      </c>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="83"/>
+      <c r="B120" s="3">
         <v>116</v>
       </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="9">
+      <c r="C120" s="2" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2" t="s">
+        <v>1784</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="83"/>
+      <c r="B121" s="3">
         <v>117</v>
       </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="9">
+      <c r="C121" s="2" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2" t="s">
+        <v>1784</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2" t="s">
+        <v>1806</v>
+      </c>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+      <c r="B122" s="3">
         <v>118</v>
       </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="9">
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+      <c r="B123" s="3">
         <v>119</v>
       </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="9">
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+      <c r="B124" s="3">
         <v>120</v>
       </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="9">
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+      <c r="B125" s="3">
         <v>121</v>
       </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="9">
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+      <c r="B126" s="3">
         <v>122</v>
       </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="9">
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+      <c r="B127" s="3">
         <v>123</v>
       </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="9">
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+      <c r="B128" s="3">
         <v>124</v>
       </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="9">
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+      <c r="B129" s="3">
         <v>125</v>
       </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="9">
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+      <c r="B130" s="3">
         <v>126</v>
       </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="9">
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+      <c r="B131" s="3">
         <v>127</v>
       </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="9">
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="2"/>
+      <c r="B132" s="3">
         <v>128</v>
       </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="9">
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+      <c r="B133" s="3">
         <v>129</v>
       </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="9">
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+      <c r="B134" s="3">
         <v>130</v>
       </c>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="9">
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="2"/>
+      <c r="B135" s="3">
         <v>131</v>
       </c>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="9">
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+      <c r="B136" s="3">
         <v>132</v>
       </c>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="9">
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="2"/>
+      <c r="B137" s="3">
         <v>133</v>
       </c>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="9">
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="2"/>
+      <c r="B138" s="3">
         <v>134</v>
       </c>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="9">
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="2"/>
+      <c r="B139" s="3">
         <v>135</v>
       </c>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="9">
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="2"/>
+      <c r="B140" s="3">
         <v>136</v>
       </c>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="2"/>
+      <c r="B141" s="3">
+        <v>137</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="2"/>
+      <c r="B142" s="3">
+        <v>138</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="2"/>
+      <c r="B143" s="3">
+        <v>139</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+      <c r="B144" s="3">
+        <v>140</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+      <c r="B145" s="3">
+        <v>141</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="2"/>
+      <c r="B146" s="3">
+        <v>142</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="2"/>
+      <c r="B147" s="3">
+        <v>143</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="2"/>
+      <c r="B148" s="3">
+        <v>144</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+      <c r="B149" s="3">
+        <v>145</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="2"/>
+      <c r="B150" s="3">
+        <v>146</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="2"/>
+      <c r="B151" s="3">
+        <v>147</v>
+      </c>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="2"/>
+      <c r="B152" s="3">
+        <v>148</v>
+      </c>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="2"/>
+      <c r="B153" s="3">
+        <v>149</v>
+      </c>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
+      <c r="L153" s="2"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="2"/>
+      <c r="B154" s="3">
+        <v>150</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+      <c r="L154" s="2"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="2"/>
+      <c r="B155" s="3">
+        <v>151</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="2"/>
+      <c r="B156" s="3">
+        <v>152</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
+      <c r="L156" s="2"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="2"/>
+      <c r="B157" s="3">
+        <v>153</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+      <c r="L157" s="2"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="2"/>
+      <c r="B158" s="3">
+        <v>154</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+      <c r="L158" s="2"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="2"/>
+      <c r="B159" s="3">
+        <v>155</v>
+      </c>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="2"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="2"/>
+      <c r="B160" s="3">
+        <v>156</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2"/>
+      <c r="K160" s="2"/>
+      <c r="L160" s="2"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="2"/>
+      <c r="B161" s="3">
+        <v>157</v>
+      </c>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2"/>
+      <c r="L161" s="2"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="2"/>
+      <c r="B162" s="3">
+        <v>158</v>
+      </c>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+      <c r="B163" s="3">
+        <v>159</v>
+      </c>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="2"/>
+      <c r="B164" s="3">
+        <v>160</v>
+      </c>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="2"/>
+      <c r="B165" s="3">
+        <v>161</v>
+      </c>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="2"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="2"/>
+      <c r="B166" s="3">
+        <v>162</v>
+      </c>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+      <c r="L166" s="2"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="2"/>
+      <c r="B167" s="3">
+        <v>163</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+      <c r="L167" s="2"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="2"/>
+      <c r="B168" s="3">
+        <v>164</v>
+      </c>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+      <c r="L168" s="2"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="2"/>
+      <c r="B169" s="3">
+        <v>165</v>
+      </c>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="2"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="2"/>
+      <c r="B170" s="3">
+        <v>166</v>
+      </c>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2"/>
+      <c r="K170" s="2"/>
+      <c r="L170" s="2"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="2"/>
+      <c r="B171" s="3">
+        <v>167</v>
+      </c>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="2"/>
+      <c r="L171" s="2"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="2"/>
+      <c r="B172" s="3">
+        <v>168</v>
+      </c>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
+      <c r="J172" s="2"/>
+      <c r="K172" s="2"/>
+      <c r="L172" s="2"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="2"/>
+      <c r="B173" s="3">
+        <v>169</v>
+      </c>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2"/>
+      <c r="K173" s="2"/>
+      <c r="L173" s="2"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="2"/>
+      <c r="B174" s="3">
+        <v>170</v>
+      </c>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+      <c r="L174" s="2"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="2"/>
+      <c r="B175" s="3">
+        <v>171</v>
+      </c>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+      <c r="L175" s="2"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="2"/>
+      <c r="B176" s="3">
+        <v>172</v>
+      </c>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="2"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" s="2"/>
+      <c r="B177" s="3">
+        <v>173</v>
+      </c>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2"/>
+      <c r="K177" s="2"/>
+      <c r="L177" s="2"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" s="2"/>
+      <c r="B178" s="3">
+        <v>174</v>
+      </c>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
+      <c r="K178" s="2"/>
+      <c r="L178" s="2"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" s="2"/>
+      <c r="B179" s="3">
+        <v>175</v>
+      </c>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2"/>
+      <c r="K179" s="2"/>
+      <c r="L179" s="2"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" s="2"/>
+      <c r="B180" s="3">
+        <v>176</v>
+      </c>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+      <c r="J180" s="2"/>
+      <c r="K180" s="2"/>
+      <c r="L180" s="2"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" s="2"/>
+      <c r="B181" s="3">
+        <v>177</v>
+      </c>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2"/>
+      <c r="K181" s="2"/>
+      <c r="L181" s="2"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" s="2"/>
+      <c r="B182" s="3">
+        <v>178</v>
+      </c>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2"/>
+      <c r="K182" s="2"/>
+      <c r="L182" s="2"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" s="2"/>
+      <c r="B183" s="3">
+        <v>179</v>
+      </c>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2"/>
+      <c r="K183" s="2"/>
+      <c r="L183" s="2"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" s="2"/>
+      <c r="B184" s="3">
+        <v>180</v>
+      </c>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2"/>
+      <c r="K184" s="2"/>
+      <c r="L184" s="2"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" s="2"/>
+      <c r="B185" s="3">
+        <v>181</v>
+      </c>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+      <c r="K185" s="2"/>
+      <c r="L185" s="2"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" s="2"/>
+      <c r="B186" s="3">
+        <v>182</v>
+      </c>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2"/>
+      <c r="K186" s="2"/>
+      <c r="L186" s="2"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" s="2"/>
+      <c r="B187" s="3">
+        <v>183</v>
+      </c>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2"/>
+      <c r="K187" s="2"/>
+      <c r="L187" s="2"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" s="2"/>
+      <c r="B188" s="3">
+        <v>184</v>
+      </c>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
+      <c r="J188" s="2"/>
+      <c r="K188" s="2"/>
+      <c r="L188" s="2"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" s="2"/>
+      <c r="B189" s="3">
+        <v>185</v>
+      </c>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
+      <c r="J189" s="2"/>
+      <c r="K189" s="2"/>
+      <c r="L189" s="2"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" s="2"/>
+      <c r="B190" s="3">
+        <v>186</v>
+      </c>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="2"/>
+      <c r="J190" s="2"/>
+      <c r="K190" s="2"/>
+      <c r="L190" s="2"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" s="2"/>
+      <c r="B191" s="3">
+        <v>187</v>
+      </c>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2"/>
+      <c r="K191" s="2"/>
+      <c r="L191" s="2"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" s="2"/>
+      <c r="B192" s="3">
+        <v>188</v>
+      </c>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2"/>
+      <c r="K192" s="2"/>
+      <c r="L192" s="2"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" s="2"/>
+      <c r="B193" s="3">
+        <v>189</v>
+      </c>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="2"/>
+      <c r="L193" s="2"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" s="2"/>
+      <c r="B194" s="3">
+        <v>190</v>
+      </c>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2"/>
+      <c r="K194" s="2"/>
+      <c r="L194" s="2"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" s="2"/>
+      <c r="B195" s="3">
+        <v>191</v>
+      </c>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2"/>
+      <c r="K195" s="2"/>
+      <c r="L195" s="2"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" s="2"/>
+      <c r="B196" s="3">
+        <v>192</v>
+      </c>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2"/>
+      <c r="K196" s="2"/>
+      <c r="L196" s="2"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A197" s="2"/>
+      <c r="B197" s="3">
+        <v>193</v>
+      </c>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2"/>
+      <c r="K197" s="2"/>
+      <c r="L197" s="2"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198" s="2"/>
+      <c r="B198" s="3">
+        <v>194</v>
+      </c>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="2"/>
+      <c r="J198" s="2"/>
+      <c r="K198" s="2"/>
+      <c r="L198" s="2"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" s="2"/>
+      <c r="B199" s="3">
+        <v>195</v>
+      </c>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2"/>
+      <c r="K199" s="2"/>
+      <c r="L199" s="2"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A200" s="2"/>
+      <c r="B200" s="3">
+        <v>196</v>
+      </c>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2"/>
+      <c r="K200" s="2"/>
+      <c r="L200" s="2"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A201" s="2"/>
+      <c r="B201" s="3">
+        <v>197</v>
+      </c>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+      <c r="J201" s="2"/>
+      <c r="K201" s="2"/>
+      <c r="L201" s="2"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A202" s="2"/>
+      <c r="B202" s="3">
+        <v>198</v>
+      </c>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
+      <c r="J202" s="2"/>
+      <c r="K202" s="2"/>
+      <c r="L202" s="2"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A203" s="2"/>
+      <c r="B203" s="3">
+        <v>199</v>
+      </c>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+      <c r="J203" s="2"/>
+      <c r="K203" s="2"/>
+      <c r="L203" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1">
@@ -36300,7 +38084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>

--- a/Ophir Post Excel Pos For Marketing.xlsx
+++ b/Ophir Post Excel Pos For Marketing.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5488" uniqueCount="1807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5584" uniqueCount="1882">
   <si>
     <t>Date</t>
   </si>
@@ -5459,6 +5459,231 @@
   </si>
   <si>
     <t>09-973189539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကျောက်မြောင်း  </t>
+  </si>
+  <si>
+    <t>09-971915825</t>
+  </si>
+  <si>
+    <t>ပန်ဒါမောက်ချိုက်</t>
+  </si>
+  <si>
+    <t>09-451915494</t>
+  </si>
+  <si>
+    <t>Royal Rose</t>
+  </si>
+  <si>
+    <t>Time City</t>
+  </si>
+  <si>
+    <t>မဆု</t>
+  </si>
+  <si>
+    <t>09-265466667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Mycon </t>
+  </si>
+  <si>
+    <t>ရွှေဂုံတိုင်</t>
+  </si>
+  <si>
+    <t>09-450031735</t>
+  </si>
+  <si>
+    <t>House of Nodel</t>
+  </si>
+  <si>
+    <t>dagon</t>
+  </si>
+  <si>
+    <t>Loft Hotel</t>
+  </si>
+  <si>
+    <t>(95-1)37299</t>
+  </si>
+  <si>
+    <t>Hotel Yangon</t>
+  </si>
+  <si>
+    <t>Yagnon</t>
+  </si>
+  <si>
+    <t>09-18243639</t>
+  </si>
+  <si>
+    <t>Half Sugar</t>
+  </si>
+  <si>
+    <t>ဘုရင့်နောင် ယောမင်းကြီးလမ်း</t>
+  </si>
+  <si>
+    <t>09-253361283</t>
+  </si>
+  <si>
+    <t>Bushido</t>
+  </si>
+  <si>
+    <t>09-459190088</t>
+  </si>
+  <si>
+    <t>Phar Kant</t>
+  </si>
+  <si>
+    <t>09-776726347</t>
+  </si>
+  <si>
+    <t>Sichuan Home cooking Break Fast</t>
+  </si>
+  <si>
+    <t>09-687319493-266131319</t>
+  </si>
+  <si>
+    <t>Aung Min Galar</t>
+  </si>
+  <si>
+    <t>09-5070778</t>
+  </si>
+  <si>
+    <t>96 Café</t>
+  </si>
+  <si>
+    <t>09-9756569800</t>
+  </si>
+  <si>
+    <t>Easy coffee</t>
+  </si>
+  <si>
+    <t>09-9262546289</t>
+  </si>
+  <si>
+    <t>Food and Passion</t>
+  </si>
+  <si>
+    <t>Nant Shwe sin</t>
+  </si>
+  <si>
+    <t>09-797892455</t>
+  </si>
+  <si>
+    <t>Shyy Shuu Shae Shae</t>
+  </si>
+  <si>
+    <t>09-444119060</t>
+  </si>
+  <si>
+    <t>Jac Cheese Bakery</t>
+  </si>
+  <si>
+    <t>09-775775410</t>
+  </si>
+  <si>
+    <t>Chill Out</t>
+  </si>
+  <si>
+    <t>09-756200660</t>
+  </si>
+  <si>
+    <t>Night Out Café</t>
+  </si>
+  <si>
+    <t>09-757519975</t>
+  </si>
+  <si>
+    <t>Infinity Bistro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahan </t>
+  </si>
+  <si>
+    <t>09-447696570</t>
+  </si>
+  <si>
+    <t>The Heart of Rangoon</t>
+  </si>
+  <si>
+    <t>09-940633508</t>
+  </si>
+  <si>
+    <t>Shan Kitchen</t>
+  </si>
+  <si>
+    <t>09-9775191772</t>
+  </si>
+  <si>
+    <t>24.1.24</t>
+  </si>
+  <si>
+    <t>ဇဗ္ဗူအေး</t>
+  </si>
+  <si>
+    <t>29.12.23</t>
+  </si>
+  <si>
+    <t>ကန်ရိပ်သာချစ်တီးထမင်းဆိုင်</t>
+  </si>
+  <si>
+    <t>အမှတ် ၂၀၈/ခ ပါရမီလမ်းမကြီး တဥ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIY Hot Pot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No 95/f waizayantar southoakkala </t>
+  </si>
+  <si>
+    <t>09-428766667</t>
+  </si>
+  <si>
+    <t>09-452102095-780670074</t>
+  </si>
+  <si>
+    <t>Thai Coroer</t>
+  </si>
+  <si>
+    <t>No  584 (A) Thumingalar SouthOakkala</t>
+  </si>
+  <si>
+    <t>09-887787781</t>
+  </si>
+  <si>
+    <t>Royal House</t>
+  </si>
+  <si>
+    <t>အမှတ် ၃၁၄ သုမင်္ဂလာလမ်း တောင်ဥ</t>
+  </si>
+  <si>
+    <t>09-5230505</t>
+  </si>
+  <si>
+    <t>ရွှေကြက်ဖ ဘီယာ</t>
+  </si>
+  <si>
+    <t>အမှတ် ၅ သုမင်္ဂလာလမ်း တောင်ဥ</t>
+  </si>
+  <si>
+    <t>09-44322176</t>
+  </si>
+  <si>
+    <t>NGWE</t>
+  </si>
+  <si>
+    <t>No 19 Mayongon</t>
+  </si>
+  <si>
+    <t>09-5113491-5116052-895501952</t>
+  </si>
+  <si>
+    <t>Burma Tea</t>
+  </si>
+  <si>
+    <t>No 110 3ward Near 4/6 wayzayantar Road</t>
+  </si>
+  <si>
+    <t>09-77857883</t>
   </si>
 </sst>
 </file>
@@ -33903,16 +34128,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L203"/>
+  <dimension ref="A1:L225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" customWidth="1"/>
@@ -34443,833 +34668,793 @@
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
+      <c r="A24" s="84" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B24" s="3">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>1808</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="3">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>1726</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2" t="s">
+        <v>1810</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="81"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="87" t="s">
-        <v>1276</v>
-      </c>
+      <c r="A26" s="84"/>
+      <c r="B26" s="3">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>1812</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>1814</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="84"/>
       <c r="B27" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1277</v>
+        <v>1815</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>1278</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>1277</v>
-      </c>
+        <v>1816</v>
+      </c>
+      <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
-        <v>1279</v>
+        <v>1817</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="87"/>
+    <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="84"/>
       <c r="B28" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1280</v>
+        <v>1818</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>1281</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>1819</v>
+      </c>
+      <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="2" t="s">
-        <v>1282</v>
-      </c>
+      <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="87"/>
+    <row r="29" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="84"/>
       <c r="B29" s="3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1283</v>
+        <v>1820</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>1284</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>1819</v>
+      </c>
+      <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>1285</v>
+        <v>1821</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="87"/>
+    <row r="30" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="84"/>
       <c r="B30" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1286</v>
+        <v>1822</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>1287</v>
+        <v>1823</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>1288</v>
+        <v>1824</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="87"/>
+    <row r="31" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="84"/>
       <c r="B31" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1289</v>
+        <v>1825</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>1284</v>
+        <v>1826</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>1290</v>
+        <v>1827</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="87"/>
+    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="84"/>
       <c r="B32" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1291</v>
+        <v>1828</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
-        <v>1281</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>1819</v>
+      </c>
+      <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
-        <v>1292</v>
+        <v>1829</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="87"/>
+    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="84"/>
       <c r="B33" s="3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1293</v>
+        <v>1830</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>1281</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>1294</v>
-      </c>
+        <v>1819</v>
+      </c>
+      <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>1295</v>
+        <v>1831</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="87"/>
+    <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="84"/>
       <c r="B34" s="3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1296</v>
+        <v>1832</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
-        <v>1281</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>1297</v>
-      </c>
+        <v>1819</v>
+      </c>
+      <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2" t="s">
-        <v>1298</v>
+        <v>1833</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="87"/>
+    <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="84"/>
       <c r="B35" s="3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1299</v>
+        <v>1834</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>1281</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>1300</v>
-      </c>
+        <v>1819</v>
+      </c>
+      <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>1301</v>
+        <v>1835</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="87"/>
+    <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="84"/>
       <c r="B36" s="3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1302</v>
+        <v>1836</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>1281</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>1303</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>1304</v>
+        <v>1837</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="83" t="s">
-        <v>1305</v>
-      </c>
+    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="84"/>
       <c r="B37" s="3">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>698</v>
+        <v>1838</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>1306</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>1307</v>
-      </c>
+        <v>1819</v>
+      </c>
+      <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>1308</v>
+        <v>1839</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
+    <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="84"/>
       <c r="B38" s="3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>1309</v>
+        <v>1840</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="2" t="s">
-        <v>1310</v>
-      </c>
+      <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>1297</v>
+        <v>1841</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>1311</v>
+        <v>1842</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
+    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="84"/>
       <c r="B39" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1312</v>
+        <v>1843</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>1313</v>
+        <v>1819</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>1314</v>
+        <v>1844</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
+    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="84"/>
       <c r="B40" s="3">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>1315</v>
+        <v>1845</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>1316</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>1819</v>
+      </c>
+      <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>1317</v>
+        <v>1846</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>1318</v>
-      </c>
+    <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="84"/>
       <c r="B41" s="3">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>1319</v>
+        <v>1847</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>1320</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>1819</v>
+      </c>
+      <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>1321</v>
+        <v>1848</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="83" t="s">
-        <v>1322</v>
-      </c>
+    <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="84"/>
       <c r="B42" s="3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>1323</v>
+        <v>1849</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>1324</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>978</v>
+      </c>
+      <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>1328</v>
+        <v>1850</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="83"/>
+    <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="84"/>
       <c r="B43" s="3">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>1326</v>
+        <v>1851</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>1327</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>1852</v>
+      </c>
+      <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
-        <v>1325</v>
+        <v>1853</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="83"/>
+    <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="84"/>
       <c r="B44" s="3">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>1329</v>
+        <v>1854</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
-        <v>1324</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>1330</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
-        <v>1331</v>
+        <v>1855</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="83"/>
+    <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="84"/>
       <c r="B45" s="3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>1332</v>
+        <v>1856</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
-        <v>1340</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>1819</v>
+      </c>
+      <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
-        <v>1333</v>
+        <v>1857</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="83"/>
-      <c r="B46" s="3">
-        <v>42</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>1334</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2" t="s">
-        <v>1335</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2" t="s">
-        <v>1336</v>
-      </c>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="83"/>
-      <c r="B47" s="3">
-        <v>43</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>1337</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2" t="s">
-        <v>1338</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2" t="s">
-        <v>1339</v>
-      </c>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="83"/>
-      <c r="B48" s="3">
-        <v>44</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>1341</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2" t="s">
-        <v>1335</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2" t="s">
-        <v>1342</v>
-      </c>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
+    <row r="46" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="81"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="81"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="81"/>
+      <c r="L46" s="81"/>
+    </row>
+    <row r="47" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="81"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="81"/>
+    </row>
+    <row r="48" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="81"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="81"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="83"/>
+      <c r="A49" s="87" t="s">
+        <v>1276</v>
+      </c>
       <c r="B49" s="3">
         <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>1343</v>
+        <v>1277</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>1335</v>
+        <v>1278</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>201</v>
+        <v>1277</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
-        <v>1344</v>
+        <v>1279</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="83"/>
+      <c r="A50" s="87"/>
       <c r="B50" s="3">
         <v>46</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>1345</v>
+        <v>1280</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>1335</v>
-      </c>
-      <c r="H50" s="2"/>
+        <v>1281</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2" t="s">
-        <v>1347</v>
+        <v>1282</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="83"/>
+      <c r="A51" s="87"/>
       <c r="B51" s="3">
         <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>1346</v>
+        <v>1283</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>1335</v>
+        <v>1284</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2" t="s">
-        <v>1348</v>
+        <v>1285</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="83"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="3">
         <v>48</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>1349</v>
+        <v>1286</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>1335</v>
+        <v>1287</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
-        <v>1350</v>
+        <v>1288</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="83"/>
+      <c r="A53" s="87"/>
       <c r="B53" s="3">
         <v>49</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>1351</v>
+        <v>1289</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
-        <v>1008</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>1353</v>
-      </c>
+        <v>1284</v>
+      </c>
+      <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2" t="s">
-        <v>1352</v>
+        <v>1290</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="83"/>
+      <c r="A54" s="87"/>
       <c r="B54" s="3">
         <v>50</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>1354</v>
+        <v>1291</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>1008</v>
+        <v>1281</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>1355</v>
+        <v>201</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2" t="s">
-        <v>1356</v>
+        <v>1292</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="83"/>
+      <c r="A55" s="87"/>
       <c r="B55" s="3">
         <v>51</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>1357</v>
+        <v>1293</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
-        <v>1008</v>
+        <v>1281</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>201</v>
+        <v>1294</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2" t="s">
-        <v>1358</v>
+        <v>1295</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="83"/>
+      <c r="A56" s="87"/>
       <c r="B56" s="3">
         <v>52</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>1359</v>
+        <v>1296</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
-        <v>1008</v>
+        <v>1281</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>1360</v>
+        <v>1297</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
-        <v>1361</v>
+        <v>1298</v>
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="83"/>
+      <c r="A57" s="87"/>
       <c r="B57" s="3">
         <v>53</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>1362</v>
+        <v>1299</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>1008</v>
+        <v>1281</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>201</v>
+        <v>1300</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2" t="s">
-        <v>1363</v>
+        <v>1301</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="83"/>
+      <c r="A58" s="87"/>
       <c r="B58" s="3">
         <v>54</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1364</v>
+        <v>1302</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
-        <v>1008</v>
+        <v>1281</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>201</v>
+        <v>1303</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2" t="s">
-        <v>1365</v>
+        <v>1304</v>
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="83"/>
+      <c r="A59" s="83" t="s">
+        <v>1305</v>
+      </c>
       <c r="B59" s="3">
         <v>55</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>1366</v>
+        <v>698</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
-        <v>1008</v>
+        <v>1306</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>201</v>
+        <v>1307</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
-        <v>1367</v>
+        <v>1308</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
@@ -35280,20 +35465,20 @@
         <v>56</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>1368</v>
+        <v>1309</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>1008</v>
+        <v>1310</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>201</v>
+        <v>1297</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2" t="s">
-        <v>1369</v>
+        <v>1311</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
@@ -35304,18 +35489,18 @@
         <v>57</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>1370</v>
+        <v>1312</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
-        <v>1371</v>
+        <v>1313</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
-        <v>1372</v>
+        <v>1314</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
@@ -35326,62 +35511,72 @@
         <v>58</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>273</v>
+        <v>1315</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
-        <v>1373</v>
-      </c>
-      <c r="H62" s="2"/>
+        <v>1316</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2" t="s">
-        <v>1374</v>
+        <v>1317</v>
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="83"/>
+      <c r="A63" s="2" t="s">
+        <v>1318</v>
+      </c>
       <c r="B63" s="3">
         <v>59</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>1375</v>
+        <v>1319</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="H63" s="2"/>
+        <v>1320</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2" t="s">
-        <v>1376</v>
+        <v>1321</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="83"/>
+      <c r="A64" s="83" t="s">
+        <v>1322</v>
+      </c>
       <c r="B64" s="3">
         <v>60</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>1377</v>
+        <v>1323</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="H64" s="2"/>
+        <v>1324</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
-        <v>1378</v>
+        <v>1328</v>
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -35392,18 +35587,20 @@
         <v>61</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>1379</v>
+        <v>1326</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="H65" s="2"/>
+        <v>1327</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2" t="s">
-        <v>1380</v>
+        <v>1325</v>
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
@@ -35414,18 +35611,20 @@
         <v>62</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>1381</v>
+        <v>1329</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>1382</v>
-      </c>
-      <c r="H66" s="2"/>
+        <v>1324</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>1330</v>
+      </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2" t="s">
-        <v>1383</v>
+        <v>1331</v>
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -35436,380 +35635,376 @@
         <v>63</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>1384</v>
+        <v>1332</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="H67" s="2"/>
+        <v>1340</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2" t="s">
-        <v>1385</v>
+        <v>1333</v>
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="85" t="s">
-        <v>1645</v>
-      </c>
+      <c r="A68" s="83"/>
       <c r="B68" s="3">
         <v>64</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>1646</v>
+        <v>1334</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
-        <v>1647</v>
+        <v>1335</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2" t="s">
-        <v>1648</v>
+        <v>1336</v>
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="85"/>
+      <c r="A69" s="83"/>
       <c r="B69" s="3">
         <v>65</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>1649</v>
+        <v>1337</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
-        <v>1647</v>
+        <v>1338</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2" t="s">
-        <v>1650</v>
+        <v>1339</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="85"/>
+      <c r="A70" s="83"/>
       <c r="B70" s="3">
         <v>66</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>1651</v>
+        <v>1341</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>1647</v>
+        <v>1335</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
-        <v>1652</v>
+        <v>1342</v>
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="85"/>
+      <c r="A71" s="83"/>
       <c r="B71" s="3">
         <v>67</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>1466</v>
+        <v>1343</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
-        <v>1647</v>
+        <v>1335</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2" t="s">
-        <v>1653</v>
+        <v>1344</v>
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="85"/>
+      <c r="A72" s="83"/>
       <c r="B72" s="3">
         <v>68</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>1654</v>
+        <v>1345</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>1647</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>1335</v>
+      </c>
+      <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
-        <v>1655</v>
+        <v>1347</v>
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="85"/>
+      <c r="A73" s="83"/>
       <c r="B73" s="3">
         <v>69</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>1656</v>
+        <v>1346</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
-        <v>1647</v>
+        <v>1335</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>1657</v>
+        <v>201</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
-        <v>1658</v>
+        <v>1348</v>
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="85"/>
+      <c r="A74" s="83"/>
       <c r="B74" s="3">
         <v>70</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>1659</v>
+        <v>1349</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>1647</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>1335</v>
+      </c>
+      <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
-        <v>1660</v>
+        <v>1350</v>
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="85"/>
+      <c r="A75" s="83"/>
       <c r="B75" s="3">
         <v>71</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>1661</v>
+        <v>1351</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2" t="s">
-        <v>1647</v>
-      </c>
-      <c r="H75" s="2"/>
+        <v>1008</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>1353</v>
+      </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2" t="s">
-        <v>1662</v>
+        <v>1352</v>
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="85"/>
+      <c r="A76" s="83"/>
       <c r="B76" s="3">
         <v>72</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>1663</v>
+        <v>1354</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>1647</v>
+        <v>1008</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>201</v>
+        <v>1355</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
-        <v>1664</v>
+        <v>1356</v>
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="85"/>
+      <c r="A77" s="83"/>
       <c r="B77" s="3">
         <v>73</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>1665</v>
+        <v>1357</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
-        <v>1666</v>
+        <v>1008</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2" t="s">
-        <v>1667</v>
+        <v>1358</v>
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="85"/>
+      <c r="A78" s="83"/>
       <c r="B78" s="3">
         <v>74</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>1668</v>
+        <v>1359</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
-        <v>1647</v>
+        <v>1008</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>201</v>
+        <v>1360</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2" t="s">
-        <v>1669</v>
+        <v>1361</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="85"/>
+      <c r="A79" s="83"/>
       <c r="B79" s="3">
         <v>75</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>1670</v>
+        <v>1362</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2" t="s">
-        <v>1666</v>
+        <v>1008</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>1297</v>
+        <v>201</v>
       </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2" t="s">
-        <v>1671</v>
+        <v>1363</v>
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="85"/>
+      <c r="A80" s="83"/>
       <c r="B80" s="3">
         <v>76</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>1672</v>
+        <v>1364</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2" t="s">
-        <v>1647</v>
+        <v>1008</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2" t="s">
-        <v>1673</v>
+        <v>1365</v>
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="85"/>
+      <c r="A81" s="83"/>
       <c r="B81" s="3">
         <v>77</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>1674</v>
+        <v>1366</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2" t="s">
-        <v>1647</v>
+        <v>1008</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2" t="s">
-        <v>1675</v>
+        <v>1367</v>
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="83" t="s">
-        <v>1645</v>
-      </c>
+      <c r="A82" s="83"/>
       <c r="B82" s="3">
         <v>78</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>1677</v>
+        <v>1368</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2" t="s">
-        <v>1678</v>
+        <v>1008</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2" t="s">
-        <v>1679</v>
+        <v>1369</v>
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -35820,20 +36015,18 @@
         <v>79</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>1680</v>
+        <v>1370</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2" t="s">
-        <v>1681</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>1371</v>
+      </c>
+      <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2" t="s">
-        <v>1388</v>
+        <v>1372</v>
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
@@ -35844,20 +36037,18 @@
         <v>80</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>1682</v>
+        <v>273</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2" t="s">
-        <v>1683</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>1373</v>
+      </c>
+      <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2" t="s">
-        <v>1686</v>
+        <v>1374</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
@@ -35868,20 +36059,18 @@
         <v>81</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>1684</v>
+        <v>1375</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2" t="s">
-        <v>1685</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
-        <v>1690</v>
+        <v>1376</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
@@ -35892,20 +36081,18 @@
         <v>82</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>1687</v>
+        <v>1377</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2" t="s">
-        <v>1688</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2" t="s">
-        <v>1689</v>
+        <v>1378</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
@@ -35916,20 +36103,18 @@
         <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>1691</v>
+        <v>1379</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2" t="s">
-        <v>1692</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>1693</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2" t="s">
-        <v>1694</v>
+        <v>1380</v>
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
@@ -35940,20 +36125,18 @@
         <v>84</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>1695</v>
+        <v>1381</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2" t="s">
-        <v>1696</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>1382</v>
+      </c>
+      <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2" t="s">
-        <v>1697</v>
+        <v>1383</v>
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
@@ -35964,526 +36147,524 @@
         <v>85</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>1698</v>
+        <v>1384</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2" t="s">
-        <v>1699</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2" t="s">
-        <v>1700</v>
+        <v>1385</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="83"/>
+      <c r="A90" s="85" t="s">
+        <v>1645</v>
+      </c>
       <c r="B90" s="3">
         <v>86</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>1701</v>
+        <v>1646</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2" t="s">
-        <v>1702</v>
+        <v>1647</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="2" t="s">
-        <v>1703</v>
+        <v>1648</v>
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="83"/>
+      <c r="A91" s="85"/>
       <c r="B91" s="3">
         <v>87</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>1704</v>
+        <v>1649</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2" t="s">
-        <v>1702</v>
+        <v>1647</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2" t="s">
-        <v>1705</v>
+        <v>1650</v>
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="83"/>
+      <c r="A92" s="85"/>
       <c r="B92" s="3">
         <v>88</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>1706</v>
+        <v>1651</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2" t="s">
-        <v>1702</v>
+        <v>1647</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2" t="s">
-        <v>1707</v>
+        <v>1652</v>
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="83"/>
+      <c r="A93" s="85"/>
       <c r="B93" s="3">
         <v>89</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>1708</v>
+        <v>1466</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2" t="s">
-        <v>1702</v>
+        <v>1647</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2" t="s">
-        <v>1709</v>
+        <v>1653</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="83"/>
+      <c r="A94" s="85"/>
       <c r="B94" s="3">
         <v>90</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>1682</v>
+        <v>1654</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2" t="s">
-        <v>1702</v>
+        <v>1647</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I94" s="2"/>
       <c r="J94" s="2" t="s">
-        <v>1710</v>
+        <v>1655</v>
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="83"/>
+      <c r="A95" s="85"/>
       <c r="B95" s="3">
         <v>91</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>1711</v>
+        <v>1656</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2" t="s">
-        <v>1702</v>
+        <v>1647</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>201</v>
+        <v>1657</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2" t="s">
-        <v>1712</v>
+        <v>1658</v>
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="83"/>
+      <c r="A96" s="85"/>
       <c r="B96" s="3">
         <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>1713</v>
+        <v>1659</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2" t="s">
-        <v>1702</v>
+        <v>1647</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2" t="s">
-        <v>1714</v>
+        <v>1660</v>
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="83"/>
+      <c r="A97" s="85"/>
       <c r="B97" s="3">
         <v>93</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>1715</v>
+        <v>1661</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2" t="s">
-        <v>1702</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>1647</v>
+      </c>
+      <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2" t="s">
-        <v>1716</v>
+        <v>1662</v>
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="83"/>
+      <c r="A98" s="85"/>
       <c r="B98" s="3">
         <v>94</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>1717</v>
+        <v>1663</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2" t="s">
-        <v>1702</v>
+        <v>1647</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I98" s="2"/>
       <c r="J98" s="2" t="s">
-        <v>1718</v>
+        <v>1664</v>
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="83"/>
+      <c r="A99" s="85"/>
       <c r="B99" s="3">
         <v>95</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>1719</v>
+        <v>1665</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2" t="s">
-        <v>1702</v>
+        <v>1666</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2" t="s">
-        <v>1720</v>
+        <v>1667</v>
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="95"/>
+      <c r="A100" s="85"/>
       <c r="B100" s="3">
         <v>96</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>1721</v>
+        <v>1668</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2" t="s">
-        <v>1702</v>
+        <v>1647</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I100" s="2"/>
       <c r="J100" s="2" t="s">
-        <v>1722</v>
+        <v>1669</v>
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="99" t="s">
-        <v>1723</v>
-      </c>
+      <c r="A101" s="85"/>
       <c r="B101" s="3">
         <v>97</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>1750</v>
+        <v>1670</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2" t="s">
-        <v>1751</v>
+        <v>1666</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>1752</v>
+        <v>1297</v>
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2" t="s">
-        <v>1753</v>
+        <v>1671</v>
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="99"/>
+      <c r="A102" s="85"/>
       <c r="B102" s="3">
         <v>98</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>1754</v>
+        <v>1672</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2" t="s">
-        <v>1755</v>
+        <v>1647</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2" t="s">
-        <v>1756</v>
+        <v>1673</v>
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="99"/>
+      <c r="A103" s="85"/>
       <c r="B103" s="3">
         <v>99</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>1757</v>
+        <v>1674</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2" t="s">
-        <v>1758</v>
+        <v>1647</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I103" s="2"/>
       <c r="J103" s="2" t="s">
-        <v>1388</v>
+        <v>1675</v>
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="99"/>
+      <c r="A104" s="83" t="s">
+        <v>1645</v>
+      </c>
       <c r="B104" s="3">
         <v>100</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>1759</v>
+        <v>1677</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2" t="s">
-        <v>1760</v>
+        <v>1678</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I104" s="2"/>
       <c r="J104" s="2" t="s">
-        <v>1761</v>
+        <v>1679</v>
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="99"/>
+      <c r="A105" s="83"/>
       <c r="B105" s="3">
         <v>101</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>1762</v>
+        <v>1680</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2" t="s">
-        <v>1760</v>
+        <v>1681</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="2" t="s">
-        <v>1763</v>
+        <v>1388</v>
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="99"/>
+      <c r="A106" s="83"/>
       <c r="B106" s="3">
         <v>102</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>1764</v>
+        <v>1682</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2" t="s">
-        <v>1765</v>
+        <v>1683</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>1297</v>
+        <v>201</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="2" t="s">
-        <v>1766</v>
+        <v>1686</v>
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="99"/>
+      <c r="A107" s="83"/>
       <c r="B107" s="3">
         <v>103</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>1767</v>
+        <v>1684</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2" t="s">
-        <v>1768</v>
+        <v>1685</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>1769</v>
+        <v>201</v>
       </c>
       <c r="I107" s="2"/>
       <c r="J107" s="2" t="s">
-        <v>1770</v>
+        <v>1690</v>
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="99"/>
+      <c r="A108" s="83"/>
       <c r="B108" s="3">
         <v>104</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>1771</v>
+        <v>1687</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2" t="s">
-        <v>1772</v>
+        <v>1688</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>1773</v>
+        <v>201</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2" t="s">
-        <v>1774</v>
+        <v>1689</v>
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="99"/>
+      <c r="A109" s="83"/>
       <c r="B109" s="3">
         <v>105</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>1775</v>
+        <v>1691</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2" t="s">
-        <v>1734</v>
+        <v>1692</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>201</v>
+        <v>1693</v>
       </c>
       <c r="I109" s="2"/>
       <c r="J109" s="2" t="s">
-        <v>1776</v>
+        <v>1694</v>
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="83" t="s">
-        <v>1777</v>
-      </c>
+      <c r="A110" s="83"/>
       <c r="B110" s="3">
         <v>106</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1778</v>
+        <v>1695</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2" t="s">
-        <v>1779</v>
-      </c>
-      <c r="H110" s="2"/>
+        <v>1696</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I110" s="2"/>
       <c r="J110" s="2" t="s">
-        <v>1780</v>
+        <v>1697</v>
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
@@ -36493,19 +36674,21 @@
       <c r="B111" s="3">
         <v>107</v>
       </c>
-      <c r="C111" s="49">
-        <v>999</v>
+      <c r="C111" s="2" t="s">
+        <v>1698</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2" t="s">
-        <v>1779</v>
-      </c>
-      <c r="H111" s="2"/>
+        <v>1699</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I111" s="2"/>
       <c r="J111" s="2" t="s">
-        <v>1781</v>
+        <v>1700</v>
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
@@ -36516,17 +36699,21 @@
         <v>108</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>1782</v>
+        <v>1701</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2" t="s">
-        <v>1779</v>
-      </c>
-      <c r="H112" s="2"/>
+        <v>1702</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
+      <c r="J112" s="2" t="s">
+        <v>1703</v>
+      </c>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
@@ -36536,20 +36723,20 @@
         <v>109</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>1783</v>
+        <v>1704</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2" t="s">
-        <v>1784</v>
+        <v>1702</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I113" s="2"/>
       <c r="J113" s="2" t="s">
-        <v>1785</v>
+        <v>1705</v>
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
@@ -36560,20 +36747,20 @@
         <v>110</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>1786</v>
+        <v>1706</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2" t="s">
-        <v>1787</v>
+        <v>1702</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I114" s="2"/>
       <c r="J114" s="2" t="s">
-        <v>1788</v>
+        <v>1707</v>
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
@@ -36584,20 +36771,20 @@
         <v>111</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>1789</v>
+        <v>1708</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2" t="s">
-        <v>1790</v>
+        <v>1702</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I115" s="2"/>
       <c r="J115" s="2" t="s">
-        <v>1791</v>
+        <v>1709</v>
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
@@ -36608,20 +36795,20 @@
         <v>112</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>1792</v>
+        <v>1682</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2" t="s">
-        <v>1793</v>
+        <v>1702</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="2" t="s">
-        <v>1794</v>
+        <v>1710</v>
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
@@ -36632,20 +36819,20 @@
         <v>113</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>1795</v>
+        <v>1711</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2" t="s">
-        <v>1796</v>
+        <v>1702</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I117" s="2"/>
       <c r="J117" s="2" t="s">
-        <v>1797</v>
+        <v>1712</v>
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
@@ -36656,20 +36843,20 @@
         <v>114</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>1798</v>
+        <v>1713</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2" t="s">
-        <v>1799</v>
+        <v>1702</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I118" s="2"/>
       <c r="J118" s="2" t="s">
-        <v>1800</v>
+        <v>1714</v>
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
@@ -36680,20 +36867,20 @@
         <v>115</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>1466</v>
+        <v>1715</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2" t="s">
-        <v>1801</v>
+        <v>1702</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I119" s="2"/>
       <c r="J119" s="2" t="s">
-        <v>1802</v>
+        <v>1716</v>
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
@@ -36704,20 +36891,20 @@
         <v>116</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1804</v>
+        <v>1717</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2" t="s">
-        <v>1784</v>
+        <v>1702</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I120" s="2"/>
       <c r="J120" s="2" t="s">
-        <v>1803</v>
+        <v>1718</v>
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
@@ -36728,226 +36915,326 @@
         <v>117</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>1805</v>
+        <v>1719</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2" t="s">
-        <v>1784</v>
+        <v>1702</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>201</v>
       </c>
       <c r="I121" s="2"/>
       <c r="J121" s="2" t="s">
-        <v>1806</v>
+        <v>1720</v>
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
+      <c r="A122" s="95"/>
       <c r="B122" s="3">
         <v>118</v>
       </c>
-      <c r="C122" s="2"/>
+      <c r="C122" s="2" t="s">
+        <v>1721</v>
+      </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
+      <c r="G122" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
+      <c r="J122" s="2" t="s">
+        <v>1722</v>
+      </c>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
+      <c r="A123" s="99" t="s">
+        <v>1723</v>
+      </c>
       <c r="B123" s="3">
         <v>119</v>
       </c>
-      <c r="C123" s="2"/>
+      <c r="C123" s="2" t="s">
+        <v>1750</v>
+      </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
+      <c r="G123" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>1752</v>
+      </c>
       <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
+      <c r="J123" s="2" t="s">
+        <v>1753</v>
+      </c>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
+      <c r="A124" s="99"/>
       <c r="B124" s="3">
         <v>120</v>
       </c>
-      <c r="C124" s="2"/>
+      <c r="C124" s="2" t="s">
+        <v>1754</v>
+      </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
+      <c r="G124" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
+      <c r="J124" s="2" t="s">
+        <v>1756</v>
+      </c>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
+      <c r="A125" s="99"/>
       <c r="B125" s="3">
         <v>121</v>
       </c>
-      <c r="C125" s="2"/>
+      <c r="C125" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
+      <c r="G125" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
+      <c r="J125" s="2" t="s">
+        <v>1388</v>
+      </c>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
+      <c r="A126" s="99"/>
       <c r="B126" s="3">
         <v>122</v>
       </c>
-      <c r="C126" s="2"/>
+      <c r="C126" s="2" t="s">
+        <v>1759</v>
+      </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
+      <c r="G126" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
+      <c r="J126" s="2" t="s">
+        <v>1761</v>
+      </c>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
+      <c r="A127" s="99"/>
       <c r="B127" s="3">
         <v>123</v>
       </c>
-      <c r="C127" s="2"/>
+      <c r="C127" s="2" t="s">
+        <v>1762</v>
+      </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
+      <c r="G127" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I127" s="2"/>
-      <c r="J127" s="2"/>
+      <c r="J127" s="2" t="s">
+        <v>1763</v>
+      </c>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
+      <c r="A128" s="99"/>
       <c r="B128" s="3">
         <v>124</v>
       </c>
-      <c r="C128" s="2"/>
+      <c r="C128" s="2" t="s">
+        <v>1764</v>
+      </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
+      <c r="G128" s="2" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>1297</v>
+      </c>
       <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
+      <c r="J128" s="2" t="s">
+        <v>1766</v>
+      </c>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
+      <c r="A129" s="99"/>
       <c r="B129" s="3">
         <v>125</v>
       </c>
-      <c r="C129" s="2"/>
+      <c r="C129" s="2" t="s">
+        <v>1767</v>
+      </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
+      <c r="G129" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>1769</v>
+      </c>
       <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
+      <c r="J129" s="2" t="s">
+        <v>1770</v>
+      </c>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
+      <c r="A130" s="99"/>
       <c r="B130" s="3">
         <v>126</v>
       </c>
-      <c r="C130" s="2"/>
+      <c r="C130" s="2" t="s">
+        <v>1771</v>
+      </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
+      <c r="G130" s="2" t="s">
+        <v>1772</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>1773</v>
+      </c>
       <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
+      <c r="J130" s="2" t="s">
+        <v>1774</v>
+      </c>
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
+      <c r="A131" s="99"/>
       <c r="B131" s="3">
         <v>127</v>
       </c>
-      <c r="C131" s="2"/>
+      <c r="C131" s="2" t="s">
+        <v>1775</v>
+      </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
+      <c r="G131" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
+      <c r="J131" s="2" t="s">
+        <v>1776</v>
+      </c>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
+      <c r="A132" s="83" t="s">
+        <v>1777</v>
+      </c>
       <c r="B132" s="3">
         <v>128</v>
       </c>
-      <c r="C132" s="2"/>
+      <c r="C132" s="2" t="s">
+        <v>1778</v>
+      </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
+      <c r="G132" s="2" t="s">
+        <v>1779</v>
+      </c>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
+      <c r="J132" s="2" t="s">
+        <v>1780</v>
+      </c>
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
+      <c r="A133" s="83"/>
       <c r="B133" s="3">
         <v>129</v>
       </c>
-      <c r="C133" s="2"/>
+      <c r="C133" s="49">
+        <v>999</v>
+      </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
+      <c r="G133" s="2" t="s">
+        <v>1779</v>
+      </c>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
+      <c r="J133" s="2" t="s">
+        <v>1781</v>
+      </c>
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
+      <c r="A134" s="83"/>
       <c r="B134" s="3">
         <v>130</v>
       </c>
-      <c r="C134" s="2"/>
+      <c r="C134" s="2" t="s">
+        <v>1782</v>
+      </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
+      <c r="G134" s="2" t="s">
+        <v>1779</v>
+      </c>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
@@ -36955,258 +37242,388 @@
       <c r="L134" s="2"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
+      <c r="A135" s="83"/>
       <c r="B135" s="3">
         <v>131</v>
       </c>
-      <c r="C135" s="2"/>
+      <c r="C135" s="2" t="s">
+        <v>1783</v>
+      </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
+      <c r="G135" s="2" t="s">
+        <v>1784</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I135" s="2"/>
-      <c r="J135" s="2"/>
+      <c r="J135" s="2" t="s">
+        <v>1785</v>
+      </c>
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
+      <c r="A136" s="83"/>
       <c r="B136" s="3">
         <v>132</v>
       </c>
-      <c r="C136" s="2"/>
+      <c r="C136" s="2" t="s">
+        <v>1786</v>
+      </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
+      <c r="G136" s="2" t="s">
+        <v>1787</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
+      <c r="J136" s="2" t="s">
+        <v>1788</v>
+      </c>
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="2"/>
+      <c r="A137" s="83"/>
       <c r="B137" s="3">
         <v>133</v>
       </c>
-      <c r="C137" s="2"/>
+      <c r="C137" s="2" t="s">
+        <v>1789</v>
+      </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
+      <c r="G137" s="2" t="s">
+        <v>1790</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I137" s="2"/>
-      <c r="J137" s="2"/>
+      <c r="J137" s="2" t="s">
+        <v>1791</v>
+      </c>
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
+      <c r="A138" s="83"/>
       <c r="B138" s="3">
         <v>134</v>
       </c>
-      <c r="C138" s="2"/>
+      <c r="C138" s="2" t="s">
+        <v>1792</v>
+      </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
+      <c r="G138" s="2" t="s">
+        <v>1793</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
+      <c r="J138" s="2" t="s">
+        <v>1794</v>
+      </c>
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="2"/>
+      <c r="A139" s="83"/>
       <c r="B139" s="3">
         <v>135</v>
       </c>
-      <c r="C139" s="2"/>
+      <c r="C139" s="2" t="s">
+        <v>1795</v>
+      </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
+      <c r="G139" s="2" t="s">
+        <v>1796</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
+      <c r="J139" s="2" t="s">
+        <v>1797</v>
+      </c>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="2"/>
+      <c r="A140" s="83"/>
       <c r="B140" s="3">
         <v>136</v>
       </c>
-      <c r="C140" s="2"/>
+      <c r="C140" s="2" t="s">
+        <v>1798</v>
+      </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
+      <c r="G140" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
+      <c r="J140" s="2" t="s">
+        <v>1800</v>
+      </c>
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="2"/>
+      <c r="A141" s="83"/>
       <c r="B141" s="3">
         <v>137</v>
       </c>
-      <c r="C141" s="2"/>
+      <c r="C141" s="2" t="s">
+        <v>1466</v>
+      </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
+      <c r="G141" s="2" t="s">
+        <v>1801</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
+      <c r="J141" s="2" t="s">
+        <v>1802</v>
+      </c>
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="2"/>
+      <c r="A142" s="83"/>
       <c r="B142" s="3">
         <v>138</v>
       </c>
-      <c r="C142" s="2"/>
+      <c r="C142" s="2" t="s">
+        <v>1804</v>
+      </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
+      <c r="G142" s="2" t="s">
+        <v>1784</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
+      <c r="J142" s="2" t="s">
+        <v>1803</v>
+      </c>
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="2"/>
+      <c r="A143" s="83"/>
       <c r="B143" s="3">
         <v>139</v>
       </c>
-      <c r="C143" s="2"/>
+      <c r="C143" s="2" t="s">
+        <v>1805</v>
+      </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
+      <c r="G143" s="2" t="s">
+        <v>1784</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
+      <c r="J143" s="2" t="s">
+        <v>1806</v>
+      </c>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="2"/>
+      <c r="A144" s="88" t="s">
+        <v>1858</v>
+      </c>
       <c r="B144" s="3">
         <v>140</v>
       </c>
-      <c r="C144" s="2"/>
+      <c r="C144" s="2" t="s">
+        <v>1861</v>
+      </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
+      <c r="G144" s="2" t="s">
+        <v>1862</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
+      <c r="J144" s="2" t="s">
+        <v>1866</v>
+      </c>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
+      <c r="A145" s="88"/>
       <c r="B145" s="3">
         <v>141</v>
       </c>
-      <c r="C145" s="2"/>
+      <c r="C145" s="2" t="s">
+        <v>1863</v>
+      </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
+      <c r="G145" s="2" t="s">
+        <v>1864</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I145" s="2"/>
-      <c r="J145" s="2"/>
+      <c r="J145" s="2" t="s">
+        <v>1865</v>
+      </c>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="2"/>
+      <c r="A146" s="88"/>
       <c r="B146" s="3">
         <v>142</v>
       </c>
-      <c r="C146" s="2"/>
+      <c r="C146" s="2" t="s">
+        <v>1867</v>
+      </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
+      <c r="G146" s="2" t="s">
+        <v>1868</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
+      <c r="J146" s="2" t="s">
+        <v>1869</v>
+      </c>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
+      <c r="A147" s="88"/>
       <c r="B147" s="3">
         <v>143</v>
       </c>
-      <c r="C147" s="2"/>
+      <c r="C147" s="2" t="s">
+        <v>1870</v>
+      </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
+      <c r="G147" s="2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
+      <c r="J147" s="2" t="s">
+        <v>1872</v>
+      </c>
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="2"/>
+      <c r="A148" s="88"/>
       <c r="B148" s="3">
         <v>144</v>
       </c>
-      <c r="C148" s="2"/>
+      <c r="C148" s="2" t="s">
+        <v>1873</v>
+      </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
+      <c r="G148" s="2" t="s">
+        <v>1874</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
+      <c r="J148" s="2" t="s">
+        <v>1875</v>
+      </c>
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
+      <c r="A149" s="88"/>
       <c r="B149" s="3">
         <v>145</v>
       </c>
-      <c r="C149" s="2"/>
+      <c r="C149" s="2" t="s">
+        <v>1876</v>
+      </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
+      <c r="G149" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I149" s="2"/>
-      <c r="J149" s="2"/>
+      <c r="J149" s="2" t="s">
+        <v>1878</v>
+      </c>
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="2"/>
+      <c r="A150" s="88"/>
       <c r="B150" s="3">
         <v>146</v>
       </c>
-      <c r="C150" s="2"/>
+      <c r="C150" s="2" t="s">
+        <v>1879</v>
+      </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
+      <c r="G150" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I150" s="2"/>
-      <c r="J150" s="2"/>
+      <c r="J150" s="2" t="s">
+        <v>1881</v>
+      </c>
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
     </row>
@@ -38057,6 +38474,358 @@
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
       <c r="L203" s="2"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A204" s="2"/>
+      <c r="B204" s="3">
+        <v>200</v>
+      </c>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
+      <c r="J204" s="2"/>
+      <c r="K204" s="2"/>
+      <c r="L204" s="2"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" s="2"/>
+      <c r="B205" s="3">
+        <v>201</v>
+      </c>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
+      <c r="J205" s="2"/>
+      <c r="K205" s="2"/>
+      <c r="L205" s="2"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206" s="2"/>
+      <c r="B206" s="3">
+        <v>202</v>
+      </c>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+      <c r="I206" s="2"/>
+      <c r="J206" s="2"/>
+      <c r="K206" s="2"/>
+      <c r="L206" s="2"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A207" s="2"/>
+      <c r="B207" s="3">
+        <v>203</v>
+      </c>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="2"/>
+      <c r="J207" s="2"/>
+      <c r="K207" s="2"/>
+      <c r="L207" s="2"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208" s="2"/>
+      <c r="B208" s="3">
+        <v>204</v>
+      </c>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
+      <c r="J208" s="2"/>
+      <c r="K208" s="2"/>
+      <c r="L208" s="2"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A209" s="2"/>
+      <c r="B209" s="3">
+        <v>205</v>
+      </c>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2"/>
+      <c r="K209" s="2"/>
+      <c r="L209" s="2"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210" s="2"/>
+      <c r="B210" s="3">
+        <v>206</v>
+      </c>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+      <c r="J210" s="2"/>
+      <c r="K210" s="2"/>
+      <c r="L210" s="2"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A211" s="2"/>
+      <c r="B211" s="3">
+        <v>207</v>
+      </c>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+      <c r="J211" s="2"/>
+      <c r="K211" s="2"/>
+      <c r="L211" s="2"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A212" s="2"/>
+      <c r="B212" s="3">
+        <v>208</v>
+      </c>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+      <c r="J212" s="2"/>
+      <c r="K212" s="2"/>
+      <c r="L212" s="2"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A213" s="2"/>
+      <c r="B213" s="3">
+        <v>209</v>
+      </c>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+      <c r="J213" s="2"/>
+      <c r="K213" s="2"/>
+      <c r="L213" s="2"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" s="2"/>
+      <c r="B214" s="3">
+        <v>210</v>
+      </c>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
+      <c r="J214" s="2"/>
+      <c r="K214" s="2"/>
+      <c r="L214" s="2"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" s="2"/>
+      <c r="B215" s="3">
+        <v>211</v>
+      </c>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+      <c r="H215" s="2"/>
+      <c r="I215" s="2"/>
+      <c r="J215" s="2"/>
+      <c r="K215" s="2"/>
+      <c r="L215" s="2"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216" s="2"/>
+      <c r="B216" s="3">
+        <v>212</v>
+      </c>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2"/>
+      <c r="I216" s="2"/>
+      <c r="J216" s="2"/>
+      <c r="K216" s="2"/>
+      <c r="L216" s="2"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A217" s="2"/>
+      <c r="B217" s="3">
+        <v>213</v>
+      </c>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+      <c r="H217" s="2"/>
+      <c r="I217" s="2"/>
+      <c r="J217" s="2"/>
+      <c r="K217" s="2"/>
+      <c r="L217" s="2"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A218" s="2"/>
+      <c r="B218" s="3">
+        <v>214</v>
+      </c>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
+      <c r="J218" s="2"/>
+      <c r="K218" s="2"/>
+      <c r="L218" s="2"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A219" s="2"/>
+      <c r="B219" s="3">
+        <v>215</v>
+      </c>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+      <c r="I219" s="2"/>
+      <c r="J219" s="2"/>
+      <c r="K219" s="2"/>
+      <c r="L219" s="2"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A220" s="2"/>
+      <c r="B220" s="3">
+        <v>216</v>
+      </c>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
+      <c r="H220" s="2"/>
+      <c r="I220" s="2"/>
+      <c r="J220" s="2"/>
+      <c r="K220" s="2"/>
+      <c r="L220" s="2"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A221" s="2"/>
+      <c r="B221" s="3">
+        <v>217</v>
+      </c>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="2"/>
+      <c r="I221" s="2"/>
+      <c r="J221" s="2"/>
+      <c r="K221" s="2"/>
+      <c r="L221" s="2"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A222" s="2"/>
+      <c r="B222" s="3">
+        <v>218</v>
+      </c>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
+      <c r="H222" s="2"/>
+      <c r="I222" s="2"/>
+      <c r="J222" s="2"/>
+      <c r="K222" s="2"/>
+      <c r="L222" s="2"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A223" s="2"/>
+      <c r="B223" s="3">
+        <v>219</v>
+      </c>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+      <c r="H223" s="2"/>
+      <c r="I223" s="2"/>
+      <c r="J223" s="2"/>
+      <c r="K223" s="2"/>
+      <c r="L223" s="2"/>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A224" s="2"/>
+      <c r="B224" s="3">
+        <v>220</v>
+      </c>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
+      <c r="H224" s="2"/>
+      <c r="I224" s="2"/>
+      <c r="J224" s="2"/>
+      <c r="K224" s="2"/>
+      <c r="L224" s="2"/>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A225" s="2"/>
+      <c r="B225" s="3">
+        <v>221</v>
+      </c>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+      <c r="H225" s="2"/>
+      <c r="I225" s="2"/>
+      <c r="J225" s="2"/>
+      <c r="K225" s="2"/>
+      <c r="L225" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1">

--- a/Ophir Post Excel Pos For Marketing.xlsx
+++ b/Ophir Post Excel Pos For Marketing.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="140" windowWidth="15000" windowHeight="4670" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="140" windowWidth="15000" windowHeight="4670" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Old" sheetId="1" r:id="rId1"/>
     <sheet name="SST" sheetId="3" r:id="rId2"/>
     <sheet name="Su Mon" sheetId="2" r:id="rId3"/>
-    <sheet name="Follow up" sheetId="4" r:id="rId4"/>
+    <sheet name="SST Tele Sale" sheetId="5" r:id="rId4"/>
+    <sheet name="Follow up" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Old!$A$2:$M$691</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5703" uniqueCount="1972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6127" uniqueCount="2058">
   <si>
     <t>Date</t>
   </si>
@@ -5953,7 +5954,265 @@
     <t>09-783554032</t>
   </si>
   <si>
-    <t xml:space="preserve">ကြီးပွားားာ </t>
+    <t>ကြီးပွား</t>
+  </si>
+  <si>
+    <t>တောင်ဒဂုံ</t>
+  </si>
+  <si>
+    <t>09-429956223</t>
+  </si>
+  <si>
+    <t>လီရှောသူ</t>
+  </si>
+  <si>
+    <t>လှော်ကားလမ်း တဒဂ</t>
+  </si>
+  <si>
+    <t>09-26477752</t>
+  </si>
+  <si>
+    <t>Flaningo</t>
+  </si>
+  <si>
+    <t>ရွှေဂုံတိုင် ဗဟန်း</t>
+  </si>
+  <si>
+    <t>ဦးမြင့်နိုင်စိုး</t>
+  </si>
+  <si>
+    <t>09-662280555</t>
+  </si>
+  <si>
+    <t>Supreme</t>
+  </si>
+  <si>
+    <t>အနောက်ရွှေဂုံတိုင်လမ်း ဗဟန်း</t>
+  </si>
+  <si>
+    <t>ကောင်းမင်းဟန်ဇော်</t>
+  </si>
+  <si>
+    <t>09-942224667</t>
+  </si>
+  <si>
+    <t>Tea Idea</t>
+  </si>
+  <si>
+    <t>ကိုလတ်</t>
+  </si>
+  <si>
+    <t>09-774441995</t>
+  </si>
+  <si>
+    <t>ရှေး‌ေရစက်</t>
+  </si>
+  <si>
+    <t>ရေတာရှည်လမ်းဟောင်း ဗဟန်း</t>
+  </si>
+  <si>
+    <t>အိမြင့်</t>
+  </si>
+  <si>
+    <t>09-420129494</t>
+  </si>
+  <si>
+    <t>ရွှေဂုံတိုင်လမ်း ဗဟန်း</t>
+  </si>
+  <si>
+    <t>Rocket</t>
+  </si>
+  <si>
+    <t>Furusato Japan Res</t>
+  </si>
+  <si>
+    <t>09-761396834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burgundy Hills </t>
+  </si>
+  <si>
+    <t>မဆုမွန်</t>
+  </si>
+  <si>
+    <t>09-256815663</t>
+  </si>
+  <si>
+    <t>47 F &amp; B GP</t>
+  </si>
+  <si>
+    <t>NO(38)B Aye myint Tar Street Thingangyun Ygn</t>
+  </si>
+  <si>
+    <t>မြတ်ဖြိုးပြည့်</t>
+  </si>
+  <si>
+    <t>09-266337727</t>
+  </si>
+  <si>
+    <t>Excel Crystal Jade 2</t>
+  </si>
+  <si>
+    <t>ရွှေဂုံတိုင် excel touel</t>
+  </si>
+  <si>
+    <t>Jade 2</t>
+  </si>
+  <si>
+    <t>09-777700138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea House </t>
+  </si>
+  <si>
+    <t>ဒေါ်နီလာဝင်း</t>
+  </si>
+  <si>
+    <t>ယောမင်းကြီးရက်ကွက်</t>
+  </si>
+  <si>
+    <t>09-455902888</t>
+  </si>
+  <si>
+    <t>Hyper</t>
+  </si>
+  <si>
+    <t>အလုံကမ်းနားလမ်း သစ်တောမှတ်တိုင်</t>
+  </si>
+  <si>
+    <t>ဟိန်းဇော်</t>
+  </si>
+  <si>
+    <t>09-764455111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artica </t>
+  </si>
+  <si>
+    <t>no(179/181) Icannar Road Thittaw Ward Alone</t>
+  </si>
+  <si>
+    <t>ကိုအဲလက်စ်</t>
+  </si>
+  <si>
+    <t>09-788303555</t>
+  </si>
+  <si>
+    <t>2024/Jan</t>
+  </si>
+  <si>
+    <t>25.1.24</t>
+  </si>
+  <si>
+    <t>Golden 9</t>
+  </si>
+  <si>
+    <t>မုဒိတာ</t>
+  </si>
+  <si>
+    <t>09-894540490</t>
+  </si>
+  <si>
+    <t>09-422428461</t>
+  </si>
+  <si>
+    <t>ဘီးကျဲ Res</t>
+  </si>
+  <si>
+    <t>မြန်အောင်မြို့</t>
+  </si>
+  <si>
+    <t>09-455244913</t>
+  </si>
+  <si>
+    <t>ရန်ကုန်လက်ဖက်ရည်</t>
+  </si>
+  <si>
+    <t>09-979429141</t>
+  </si>
+  <si>
+    <t>MdY</t>
+  </si>
+  <si>
+    <t>09-762806252</t>
+  </si>
+  <si>
+    <t>City Food Special Res</t>
+  </si>
+  <si>
+    <t>Bar BBq and Res</t>
+  </si>
+  <si>
+    <t>09-958699124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAI Noddle and Lauge </t>
+  </si>
+  <si>
+    <t>09-259998335</t>
+  </si>
+  <si>
+    <t>09-790514113</t>
+  </si>
+  <si>
+    <t>19 lan Bar</t>
+  </si>
+  <si>
+    <t>19 lan</t>
+  </si>
+  <si>
+    <t>09-969381057</t>
+  </si>
+  <si>
+    <t>09-421261181</t>
+  </si>
+  <si>
+    <t>09-782836712</t>
+  </si>
+  <si>
+    <t>09-883908700</t>
+  </si>
+  <si>
+    <t>26.1.24</t>
+  </si>
+  <si>
+    <t>ရန်ကုန်ဘူတာ</t>
+  </si>
+  <si>
+    <t>09-449993606</t>
+  </si>
+  <si>
+    <t>BAR</t>
+  </si>
+  <si>
+    <t>09-444430925</t>
+  </si>
+  <si>
+    <t>09-975280798</t>
+  </si>
+  <si>
+    <t>Café and Bar</t>
+  </si>
+  <si>
+    <t>ကောင်းခေတ်ဦး လက်ဖက်ရည်နှင့် တရုတ်အစားစာ</t>
+  </si>
+  <si>
+    <t>‌ရွှေပြည်သာ</t>
+  </si>
+  <si>
+    <t>09-766988637</t>
+  </si>
+  <si>
+    <t>09-443411433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Oakkala </t>
+  </si>
+  <si>
+    <t>09-766094969</t>
+  </si>
+  <si>
+    <t>09-777772596</t>
   </si>
 </sst>
 </file>
@@ -6003,7 +6262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6244,6 +6503,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -6417,7 +6682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -6669,11 +6934,60 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -27824,23 +28138,23 @@
   </sheetData>
   <autoFilter ref="A2:M691"/>
   <conditionalFormatting sqref="D14:F14">
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",D14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1048576 G259:G287 G289:G291 G293:G317 G319:G327 G329:G335 G337:G340 G342:G344 G346 G348:G360 G362 G364:G389 G391 G393:G394 G396:G397 G399 G401:G429 G431:G438 G440:G452 G454:G470 G493:G513 G515:G526 G528:G536 G538:G539 G546:G557 G559:G572 G574:G576 G578:G593 G595:G599 G601:G602 G605:G624 G626:G629 G631:G634 G636:G649 G651:G655 G657:G684 G686:G691">
-    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27851,11 +28165,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L356"/>
+  <dimension ref="A1:L353"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C172" sqref="C172"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K180" sqref="K180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29421,7 +29735,9 @@
         <v>1389</v>
       </c>
       <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
+      <c r="L65" s="3" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="91"/>
@@ -29445,7 +29761,9 @@
         <v>1393</v>
       </c>
       <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
+      <c r="L66" s="3" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="91"/>
@@ -29469,7 +29787,9 @@
         <v>1234</v>
       </c>
       <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
+      <c r="L67" s="3" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="91"/>
@@ -29493,7 +29813,9 @@
         <v>1400</v>
       </c>
       <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
+      <c r="L68" s="3" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="94" t="s">
@@ -29519,7 +29841,9 @@
         <v>1403</v>
       </c>
       <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
+      <c r="L69" s="3" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="94"/>
@@ -29543,7 +29867,9 @@
         <v>1408</v>
       </c>
       <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
+      <c r="L70" s="3" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="94"/>
@@ -29567,7 +29893,9 @@
         <v>1412</v>
       </c>
       <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
+      <c r="L71" s="3" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="94"/>
@@ -29591,7 +29919,9 @@
         <v>1416</v>
       </c>
       <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
+      <c r="L72" s="3" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="94"/>
@@ -29615,7 +29945,9 @@
         <v>1420</v>
       </c>
       <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
+      <c r="L73" s="3" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="94"/>
@@ -29637,7 +29969,9 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
+      <c r="L74" s="3" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="94"/>
@@ -29661,8 +29995,8 @@
         <v>1431</v>
       </c>
       <c r="K75" s="2"/>
-      <c r="L75" s="2">
-        <v>2024</v>
+      <c r="L75" s="3" t="s">
+        <v>1219</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
@@ -29687,7 +30021,9 @@
         <v>1430</v>
       </c>
       <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
+      <c r="L76" s="3" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="94"/>
@@ -29711,7 +30047,9 @@
         <v>1434</v>
       </c>
       <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
+      <c r="L77" s="3" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="94"/>
@@ -29735,7 +30073,9 @@
         <v>1438</v>
       </c>
       <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
+      <c r="L78" s="3" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="94"/>
@@ -29757,7 +30097,9 @@
         <v>1440</v>
       </c>
       <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
+      <c r="L79" s="3" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="94"/>
@@ -29781,7 +30123,9 @@
         <v>1443</v>
       </c>
       <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
+      <c r="L80" s="3" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="94"/>
@@ -29805,7 +30149,9 @@
         <v>1446</v>
       </c>
       <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
+      <c r="L81" s="3" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="94"/>
@@ -29829,7 +30175,9 @@
         <v>1452</v>
       </c>
       <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
+      <c r="L82" s="3" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="94"/>
@@ -29853,7 +30201,9 @@
         <v>1388</v>
       </c>
       <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
+      <c r="L83" s="3" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="94"/>
@@ -29877,7 +30227,9 @@
         <v>1458</v>
       </c>
       <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
+      <c r="L84" s="3" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="94"/>
@@ -29901,1053 +30253,1155 @@
         <v>1462</v>
       </c>
       <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A86" s="94"/>
-      <c r="B86" s="53">
-        <v>85</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A87" s="94"/>
-      <c r="B87" s="53">
-        <v>86</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A88" s="94"/>
-      <c r="B88" s="53">
-        <v>87</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-    </row>
-    <row r="89" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="90"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="90"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="90"/>
-      <c r="F89" s="90"/>
-      <c r="G89" s="90"/>
-      <c r="H89" s="90"/>
-      <c r="I89" s="90"/>
-      <c r="J89" s="90"/>
-      <c r="K89" s="90"/>
-      <c r="L89" s="90"/>
-    </row>
-    <row r="90" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="90"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="90"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="90"/>
-      <c r="F90" s="90"/>
-      <c r="G90" s="90"/>
-      <c r="H90" s="90"/>
-      <c r="I90" s="90"/>
-      <c r="J90" s="90"/>
-      <c r="K90" s="90"/>
-      <c r="L90" s="90"/>
-    </row>
-    <row r="91" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="90"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="90"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="90"/>
-      <c r="F91" s="90"/>
-      <c r="G91" s="90"/>
-      <c r="H91" s="90"/>
-      <c r="I91" s="90"/>
-      <c r="J91" s="90"/>
-      <c r="K91" s="90"/>
-      <c r="L91" s="90"/>
+      <c r="L85" s="3" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="90"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="90"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="90"/>
+      <c r="F86" s="90"/>
+      <c r="G86" s="90"/>
+      <c r="H86" s="90"/>
+      <c r="I86" s="90"/>
+      <c r="J86" s="90"/>
+      <c r="K86" s="90"/>
+      <c r="L86" s="90"/>
+    </row>
+    <row r="87" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="90"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="90"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="90"/>
+      <c r="F87" s="90"/>
+      <c r="G87" s="90"/>
+      <c r="H87" s="90"/>
+      <c r="I87" s="90"/>
+      <c r="J87" s="90"/>
+      <c r="K87" s="90"/>
+      <c r="L87" s="90"/>
+    </row>
+    <row r="88" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="90"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="90"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="90"/>
+      <c r="F88" s="90"/>
+      <c r="G88" s="90"/>
+      <c r="H88" s="90"/>
+      <c r="I88" s="90"/>
+      <c r="J88" s="90"/>
+      <c r="K88" s="90"/>
+      <c r="L88" s="90"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A89" s="86" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B89" s="53">
+        <v>88</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="K89" s="2"/>
+      <c r="L89" s="3" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A90" s="86"/>
+      <c r="B90" s="53">
+        <v>89</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="K90" s="2"/>
+      <c r="L90" s="3" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A91" s="86"/>
+      <c r="B91" s="53">
+        <v>90</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K91" s="2"/>
+      <c r="L91" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A92" s="86" t="s">
-        <v>1472</v>
+      <c r="A92" s="88" t="s">
+        <v>1473</v>
       </c>
       <c r="B92" s="53">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>1463</v>
+        <v>1474</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2" t="s">
-        <v>1464</v>
-      </c>
-      <c r="H92" s="2"/>
+        <v>1475</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>1479</v>
+      </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
       <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
+      <c r="L92" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A93" s="86"/>
+      <c r="A93" s="88"/>
       <c r="B93" s="53">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>1466</v>
+        <v>1332</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2" t="s">
-        <v>1467</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>1468</v>
-      </c>
+        <v>1477</v>
+      </c>
+      <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2" t="s">
-        <v>1469</v>
+        <v>1478</v>
       </c>
       <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
+      <c r="L93" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A94" s="86"/>
+      <c r="A94" s="88"/>
       <c r="B94" s="53">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>1470</v>
+        <v>1480</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H94" s="2"/>
+        <v>1481</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>1484</v>
+      </c>
       <c r="I94" s="2"/>
       <c r="J94" s="2" t="s">
-        <v>1471</v>
+        <v>1482</v>
       </c>
       <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
+      <c r="L94" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A95" s="88" t="s">
-        <v>1473</v>
-      </c>
+      <c r="A95" s="88"/>
       <c r="B95" s="53">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>1474</v>
+        <v>1483</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2" t="s">
-        <v>1475</v>
+        <v>1485</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>1479</v>
+        <v>1486</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2" t="s">
-        <v>1476</v>
+        <v>1487</v>
       </c>
       <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
+      <c r="L95" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="88"/>
       <c r="B96" s="53">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>1332</v>
+        <v>1488</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2" t="s">
-        <v>1477</v>
-      </c>
-      <c r="H96" s="2"/>
+        <v>1489</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>1490</v>
+      </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2" t="s">
-        <v>1478</v>
+        <v>1491</v>
       </c>
       <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
+      <c r="L96" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="88"/>
       <c r="B97" s="53">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>1480</v>
+        <v>1492</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2" t="s">
-        <v>1481</v>
+        <v>522</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>1484</v>
+        <v>1493</v>
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="2" t="s">
-        <v>1482</v>
+        <v>1494</v>
       </c>
       <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
+      <c r="L97" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="88"/>
       <c r="B98" s="53">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>1483</v>
+        <v>1495</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2" t="s">
-        <v>1485</v>
+        <v>1496</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>1486</v>
+        <v>1497</v>
       </c>
       <c r="I98" s="2"/>
       <c r="J98" s="2" t="s">
-        <v>1487</v>
+        <v>1102</v>
       </c>
       <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
+      <c r="L98" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="88"/>
       <c r="B99" s="53">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>1488</v>
+        <v>1498</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2" t="s">
-        <v>1489</v>
+        <v>1496</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>1490</v>
+        <v>1499</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2" t="s">
-        <v>1491</v>
+        <v>1500</v>
       </c>
       <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
+      <c r="L99" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="88"/>
       <c r="B100" s="53">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>1492</v>
+        <v>1501</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2" t="s">
-        <v>522</v>
+        <v>1502</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>1493</v>
+        <v>1503</v>
       </c>
       <c r="I100" s="2"/>
       <c r="J100" s="2" t="s">
-        <v>1494</v>
+        <v>1504</v>
       </c>
       <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
+      <c r="L100" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="88"/>
       <c r="B101" s="53">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>1495</v>
+        <v>1505</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2" t="s">
-        <v>1496</v>
+        <v>1506</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>1497</v>
+        <v>1507</v>
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2" t="s">
-        <v>1102</v>
+        <v>1508</v>
       </c>
       <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
+      <c r="L101" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="88"/>
       <c r="B102" s="53">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>1498</v>
+        <v>1509</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2" t="s">
-        <v>1496</v>
+        <v>1506</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>1499</v>
+        <v>1510</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2" t="s">
-        <v>1500</v>
+        <v>1511</v>
       </c>
       <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
+      <c r="L102" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="88"/>
       <c r="B103" s="53">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>1501</v>
+        <v>1512</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2" t="s">
-        <v>1502</v>
+        <v>1506</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>1503</v>
+        <v>1513</v>
       </c>
       <c r="I103" s="2"/>
       <c r="J103" s="2" t="s">
-        <v>1504</v>
+        <v>1514</v>
       </c>
       <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
+      <c r="L103" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="88"/>
       <c r="B104" s="53">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>1505</v>
+        <v>1515</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2" t="s">
-        <v>1506</v>
+        <v>1516</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>1507</v>
+        <v>1517</v>
       </c>
       <c r="I104" s="2"/>
       <c r="J104" s="2" t="s">
-        <v>1508</v>
+        <v>966</v>
       </c>
       <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
+      <c r="L104" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A105" s="88"/>
+      <c r="A105" s="94" t="s">
+        <v>1519</v>
+      </c>
       <c r="B105" s="53">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>1509</v>
+        <v>1518</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2" t="s">
-        <v>1506</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>1510</v>
-      </c>
+        <v>1520</v>
+      </c>
+      <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2" t="s">
-        <v>1511</v>
+        <v>1521</v>
       </c>
       <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
+      <c r="L105" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A106" s="88"/>
+      <c r="A106" s="94"/>
       <c r="B106" s="53">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>1512</v>
+        <v>1522</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2" t="s">
-        <v>1506</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>1513</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2" t="s">
-        <v>1514</v>
+        <v>1523</v>
       </c>
       <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
+      <c r="L106" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A107" s="88"/>
+      <c r="A107" s="94"/>
       <c r="B107" s="53">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>1515</v>
+        <v>1524</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
-      <c r="G107" s="2" t="s">
-        <v>1516</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>1517</v>
-      </c>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2" t="s">
-        <v>966</v>
+        <v>1525</v>
       </c>
       <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
+      <c r="L107" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A108" s="94" t="s">
-        <v>1519</v>
-      </c>
+      <c r="A108" s="94"/>
       <c r="B108" s="53">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>1518</v>
+        <v>1526</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2" t="s">
-        <v>1520</v>
+        <v>583</v>
       </c>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
+      <c r="L108" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="94"/>
       <c r="B109" s="53">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>1522</v>
+        <v>1528</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
-      <c r="G109" s="2" t="s">
-        <v>581</v>
-      </c>
+      <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2" t="s">
-        <v>1523</v>
+        <v>1529</v>
       </c>
       <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
+      <c r="L109" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A110" s="94"/>
+      <c r="A110" s="92" t="s">
+        <v>1530</v>
+      </c>
       <c r="B110" s="53">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1524</v>
+        <v>1531</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
+      <c r="G110" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>1533</v>
+      </c>
       <c r="I110" s="2"/>
       <c r="J110" s="2" t="s">
-        <v>1525</v>
+        <v>1534</v>
       </c>
       <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
+      <c r="L110" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A111" s="94"/>
+      <c r="A111" s="92"/>
       <c r="B111" s="53">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>1526</v>
+        <v>1535</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="H111" s="2"/>
+        <v>1532</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>1536</v>
+      </c>
       <c r="I111" s="2"/>
       <c r="J111" s="2" t="s">
-        <v>1527</v>
+        <v>1537</v>
       </c>
       <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
+      <c r="L111" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A112" s="94"/>
+      <c r="A112" s="92"/>
       <c r="B112" s="53">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>1528</v>
+        <v>1538</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
+      <c r="G112" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>1539</v>
+      </c>
       <c r="I112" s="2"/>
       <c r="J112" s="2" t="s">
-        <v>1529</v>
+        <v>1540</v>
       </c>
       <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
+      <c r="L112" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A113" s="92" t="s">
-        <v>1530</v>
-      </c>
+      <c r="A113" s="92"/>
       <c r="B113" s="53">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>1531</v>
+        <v>1541</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2" t="s">
-        <v>1532</v>
+        <v>927</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>1533</v>
+        <v>1542</v>
       </c>
       <c r="I113" s="2"/>
       <c r="J113" s="2" t="s">
-        <v>1534</v>
+        <v>1543</v>
       </c>
       <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
+      <c r="L113" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="92"/>
       <c r="B114" s="53">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>1535</v>
+        <v>1544</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2" t="s">
-        <v>1532</v>
+        <v>927</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>1536</v>
+        <v>1545</v>
       </c>
       <c r="I114" s="2"/>
       <c r="J114" s="2" t="s">
-        <v>1537</v>
+        <v>1546</v>
       </c>
       <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
+      <c r="L114" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="92"/>
       <c r="B115" s="53">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>1538</v>
+        <v>1547</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2" t="s">
-        <v>1532</v>
+        <v>927</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>1539</v>
+        <v>1548</v>
       </c>
       <c r="I115" s="2"/>
       <c r="J115" s="2" t="s">
-        <v>1540</v>
+        <v>1549</v>
       </c>
       <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
+      <c r="L115" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="92"/>
       <c r="B116" s="53">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>1541</v>
+        <v>1550</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2" t="s">
-        <v>927</v>
+        <v>1551</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>1542</v>
+        <v>1552</v>
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="2" t="s">
-        <v>1543</v>
+        <v>1553</v>
       </c>
       <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
+      <c r="L116" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="92"/>
       <c r="B117" s="53">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>1544</v>
+        <v>1554</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2" t="s">
-        <v>927</v>
+        <v>1555</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>1545</v>
+        <v>1556</v>
       </c>
       <c r="I117" s="2"/>
       <c r="J117" s="2" t="s">
-        <v>1546</v>
+        <v>1557</v>
       </c>
       <c r="K117" s="2"/>
-      <c r="L117" s="2"/>
+      <c r="L117" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="92"/>
       <c r="B118" s="53">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>1547</v>
+        <v>1558</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2" t="s">
-        <v>927</v>
+        <v>1559</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>1548</v>
+        <v>1560</v>
       </c>
       <c r="I118" s="2"/>
       <c r="J118" s="2" t="s">
-        <v>1549</v>
+        <v>1561</v>
       </c>
       <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
+      <c r="L118" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="92"/>
       <c r="B119" s="53">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>1550</v>
+        <v>1562</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2" t="s">
-        <v>1551</v>
+        <v>1563</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>1552</v>
+        <v>1564</v>
       </c>
       <c r="I119" s="2"/>
       <c r="J119" s="2" t="s">
-        <v>1553</v>
+        <v>1565</v>
       </c>
       <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
+      <c r="L119" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="92"/>
       <c r="B120" s="53">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1554</v>
+        <v>1566</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2" t="s">
-        <v>1555</v>
+        <v>1567</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>1556</v>
+        <v>1568</v>
       </c>
       <c r="I120" s="2"/>
       <c r="J120" s="2" t="s">
-        <v>1557</v>
+        <v>1569</v>
       </c>
       <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
+      <c r="L120" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="92"/>
       <c r="B121" s="53">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>1558</v>
+        <v>1570</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2" t="s">
-        <v>1559</v>
+        <v>1571</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>1560</v>
+        <v>1572</v>
       </c>
       <c r="I121" s="2"/>
       <c r="J121" s="2" t="s">
-        <v>1561</v>
+        <v>1573</v>
       </c>
       <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
+      <c r="L121" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A122" s="92"/>
+      <c r="A122" s="86" t="s">
+        <v>1318</v>
+      </c>
       <c r="B122" s="53">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>1562</v>
+        <v>1574</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2" t="s">
-        <v>1563</v>
+        <v>1575</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>1564</v>
+        <v>1576</v>
       </c>
       <c r="I122" s="2"/>
       <c r="J122" s="2" t="s">
-        <v>1565</v>
+        <v>1577</v>
       </c>
       <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
+      <c r="L122" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A123" s="92"/>
+      <c r="A123" s="86"/>
       <c r="B123" s="53">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>1566</v>
+        <v>1578</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2" t="s">
-        <v>1567</v>
+        <v>1579</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>1568</v>
+        <v>1580</v>
       </c>
       <c r="I123" s="2"/>
       <c r="J123" s="2" t="s">
-        <v>1569</v>
+        <v>1581</v>
       </c>
       <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
+      <c r="L123" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A124" s="92"/>
+      <c r="A124" s="86"/>
       <c r="B124" s="53">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>1570</v>
+        <v>1139</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2" t="s">
-        <v>1571</v>
+        <v>1582</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>1572</v>
+        <v>1583</v>
       </c>
       <c r="I124" s="2"/>
       <c r="J124" s="2" t="s">
-        <v>1573</v>
+        <v>792</v>
       </c>
       <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
+      <c r="L124" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A125" s="86" t="s">
-        <v>1318</v>
-      </c>
+      <c r="A125" s="86"/>
       <c r="B125" s="53">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>1574</v>
+        <v>1584</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2" t="s">
-        <v>1575</v>
+        <v>1585</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>1576</v>
+        <v>1586</v>
       </c>
       <c r="I125" s="2"/>
       <c r="J125" s="2" t="s">
-        <v>1577</v>
+        <v>1587</v>
       </c>
       <c r="K125" s="2"/>
-      <c r="L125" s="2"/>
+      <c r="L125" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="86"/>
       <c r="B126" s="53">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>1578</v>
+        <v>1588</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2" t="s">
-        <v>1579</v>
+        <v>1585</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>1580</v>
+        <v>1589</v>
       </c>
       <c r="I126" s="2"/>
       <c r="J126" s="2" t="s">
-        <v>1581</v>
+        <v>1590</v>
       </c>
       <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
+      <c r="L126" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="86"/>
       <c r="B127" s="53">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>1139</v>
+        <v>1591</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
-      <c r="G127" s="2" t="s">
-        <v>1582</v>
-      </c>
+      <c r="G127" s="2"/>
       <c r="H127" s="2" t="s">
-        <v>1583</v>
+        <v>1592</v>
       </c>
       <c r="I127" s="2"/>
       <c r="J127" s="2" t="s">
-        <v>792</v>
+        <v>1593</v>
       </c>
       <c r="K127" s="2"/>
-      <c r="L127" s="2"/>
+      <c r="L127" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="86"/>
       <c r="B128" s="53">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>1584</v>
+        <v>1594</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
-      <c r="G128" s="2" t="s">
-        <v>1585</v>
-      </c>
+      <c r="G128" s="2"/>
       <c r="H128" s="2" t="s">
-        <v>1586</v>
+        <v>1595</v>
       </c>
       <c r="I128" s="2"/>
       <c r="J128" s="2" t="s">
-        <v>1587</v>
+        <v>1596</v>
       </c>
       <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
+      <c r="L128" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A129" s="86"/>
+      <c r="A129" s="89" t="s">
+        <v>1322</v>
+      </c>
       <c r="B129" s="53">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>1588</v>
+        <v>1052</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
-      <c r="G129" s="2" t="s">
-        <v>1585</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>1589</v>
-      </c>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="2" t="s">
-        <v>1590</v>
+        <v>1027</v>
       </c>
       <c r="K129" s="2"/>
-      <c r="L129" s="2"/>
+      <c r="L129" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A130" s="86"/>
+      <c r="A130" s="89"/>
       <c r="B130" s="53">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1591</v>
+        <v>529</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2" t="s">
-        <v>1592</v>
-      </c>
+      <c r="G130" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H130" s="2"/>
       <c r="I130" s="2"/>
       <c r="J130" s="2" t="s">
-        <v>1593</v>
+        <v>1598</v>
       </c>
       <c r="K130" s="2"/>
-      <c r="L130" s="2"/>
+      <c r="L130" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A131" s="86"/>
+      <c r="A131" s="89"/>
       <c r="B131" s="53">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>1594</v>
+        <v>1599</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
-      <c r="H131" s="2" t="s">
-        <v>1595</v>
-      </c>
+      <c r="H131" s="2"/>
       <c r="I131" s="2"/>
       <c r="J131" s="2" t="s">
-        <v>1596</v>
+        <v>1600</v>
       </c>
       <c r="K131" s="2"/>
-      <c r="L131" s="2"/>
+      <c r="L131" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A132" s="89" t="s">
-        <v>1322</v>
-      </c>
+      <c r="A132" s="89"/>
       <c r="B132" s="53">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>1052</v>
+        <v>279</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="2"/>
@@ -30956,218 +31410,244 @@
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
       <c r="J132" s="2" t="s">
-        <v>1027</v>
+        <v>1601</v>
       </c>
       <c r="K132" s="2"/>
-      <c r="L132" s="2"/>
+      <c r="L132" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="89"/>
       <c r="B133" s="53">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>529</v>
+        <v>218</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2" t="s">
-        <v>1597</v>
+        <v>1602</v>
       </c>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
       <c r="J133" s="2" t="s">
-        <v>1598</v>
+        <v>1603</v>
       </c>
       <c r="K133" s="2"/>
-      <c r="L133" s="2"/>
+      <c r="L133" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="89"/>
       <c r="B134" s="53">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>1599</v>
+        <v>529</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
+      <c r="G134" s="2" t="s">
+        <v>522</v>
+      </c>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
       <c r="J134" s="2" t="s">
-        <v>1600</v>
+        <v>1604</v>
       </c>
       <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
+      <c r="L134" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="89"/>
       <c r="B135" s="53">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>279</v>
+        <v>1605</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
+      <c r="G135" s="2" t="s">
+        <v>1606</v>
+      </c>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
       <c r="J135" s="2" t="s">
-        <v>1601</v>
+        <v>1607</v>
       </c>
       <c r="K135" s="2"/>
-      <c r="L135" s="2"/>
+      <c r="L135" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="89"/>
       <c r="B136" s="53">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>218</v>
+        <v>1608</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2" t="s">
-        <v>1602</v>
+        <v>1609</v>
       </c>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
       <c r="J136" s="2" t="s">
-        <v>1603</v>
+        <v>1610</v>
       </c>
       <c r="K136" s="2"/>
-      <c r="L136" s="2"/>
+      <c r="L136" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A137" s="89"/>
+      <c r="A137" s="83" t="s">
+        <v>1676</v>
+      </c>
       <c r="B137" s="53">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>529</v>
+        <v>1611</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="H137" s="2"/>
+        <v>1612</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>1613</v>
+      </c>
       <c r="I137" s="2"/>
       <c r="J137" s="2" t="s">
-        <v>1604</v>
+        <v>1614</v>
       </c>
       <c r="K137" s="2"/>
-      <c r="L137" s="2"/>
+      <c r="L137" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A138" s="89"/>
+      <c r="A138" s="83"/>
       <c r="B138" s="53">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>1605</v>
+        <v>1615</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2" t="s">
-        <v>1606</v>
-      </c>
-      <c r="H138" s="2"/>
+        <v>1616</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>1617</v>
+      </c>
       <c r="I138" s="2"/>
       <c r="J138" s="2" t="s">
-        <v>1607</v>
+        <v>1618</v>
       </c>
       <c r="K138" s="2"/>
-      <c r="L138" s="2"/>
+      <c r="L138" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A139" s="89"/>
+      <c r="A139" s="83"/>
       <c r="B139" s="53">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>1608</v>
+        <v>1619</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2" t="s">
-        <v>1609</v>
-      </c>
-      <c r="H139" s="2"/>
+        <v>1620</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>1621</v>
+      </c>
       <c r="I139" s="2"/>
       <c r="J139" s="2" t="s">
-        <v>1610</v>
+        <v>1622</v>
       </c>
       <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
+      <c r="L139" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A140" s="83" t="s">
-        <v>1676</v>
-      </c>
+      <c r="A140" s="83"/>
       <c r="B140" s="53">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>1611</v>
+        <v>1623</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2" t="s">
-        <v>1612</v>
+        <v>1620</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>1613</v>
+        <v>1624</v>
       </c>
       <c r="I140" s="2"/>
       <c r="J140" s="2" t="s">
-        <v>1614</v>
+        <v>1625</v>
       </c>
       <c r="K140" s="2"/>
-      <c r="L140" s="2"/>
+      <c r="L140" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="83"/>
       <c r="B141" s="53">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>1615</v>
+        <v>1626</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2" t="s">
-        <v>1616</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>1617</v>
-      </c>
+        <v>1627</v>
+      </c>
+      <c r="H141" s="2"/>
       <c r="I141" s="2"/>
-      <c r="J141" s="2" t="s">
-        <v>1618</v>
-      </c>
+      <c r="J141" s="2"/>
       <c r="K141" s="2"/>
-      <c r="L141" s="2"/>
+      <c r="L141" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="83"/>
       <c r="B142" s="53">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>1619</v>
+        <v>1628</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="2"/>
@@ -31176,486 +31656,528 @@
         <v>1620</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>1621</v>
+        <v>1629</v>
       </c>
       <c r="I142" s="2"/>
       <c r="J142" s="2" t="s">
-        <v>1622</v>
+        <v>1630</v>
       </c>
       <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
+      <c r="L142" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="83"/>
       <c r="B143" s="53">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>1623</v>
+        <v>1631</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2" t="s">
-        <v>1620</v>
+        <v>1633</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>1624</v>
+        <v>1632</v>
       </c>
       <c r="I143" s="2"/>
       <c r="J143" s="2" t="s">
-        <v>1625</v>
+        <v>1634</v>
       </c>
       <c r="K143" s="2"/>
-      <c r="L143" s="2"/>
+      <c r="L143" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="83"/>
       <c r="B144" s="53">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>1626</v>
+        <v>1635</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
-      <c r="G144" s="2" t="s">
-        <v>1627</v>
-      </c>
+      <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
+      <c r="J144" s="2" t="s">
+        <v>1636</v>
+      </c>
       <c r="K144" s="2"/>
-      <c r="L144" s="2"/>
+      <c r="L144" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="83"/>
       <c r="B145" s="53">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>1628</v>
+        <v>1637</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2" t="s">
-        <v>1620</v>
+        <v>1638</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>1629</v>
+        <v>1639</v>
       </c>
       <c r="I145" s="2"/>
       <c r="J145" s="2" t="s">
-        <v>1630</v>
+        <v>1640</v>
       </c>
       <c r="K145" s="2"/>
-      <c r="L145" s="2"/>
+      <c r="L145" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="83"/>
       <c r="B146" s="53">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>1631</v>
+        <v>1641</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2" t="s">
-        <v>1633</v>
+        <v>1642</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>1632</v>
+        <v>1643</v>
       </c>
       <c r="I146" s="2"/>
       <c r="J146" s="2" t="s">
-        <v>1634</v>
+        <v>1644</v>
       </c>
       <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
+      <c r="L146" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A147" s="83"/>
+      <c r="A147" s="101" t="s">
+        <v>1882</v>
+      </c>
       <c r="B147" s="53">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>1635</v>
+        <v>1883</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
+      <c r="G147" s="2" t="s">
+        <v>998</v>
+      </c>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
       <c r="J147" s="2" t="s">
-        <v>1636</v>
+        <v>1884</v>
       </c>
       <c r="K147" s="2"/>
-      <c r="L147" s="2"/>
+      <c r="L147" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A148" s="83"/>
+      <c r="A148" s="101"/>
       <c r="B148" s="53">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>1637</v>
+        <v>250</v>
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2" t="s">
-        <v>1638</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>1639</v>
-      </c>
+        <v>998</v>
+      </c>
+      <c r="H148" s="2"/>
       <c r="I148" s="2"/>
       <c r="J148" s="2" t="s">
-        <v>1640</v>
+        <v>1885</v>
       </c>
       <c r="K148" s="2"/>
-      <c r="L148" s="2"/>
+      <c r="L148" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A149" s="83"/>
+      <c r="A149" s="101"/>
       <c r="B149" s="53">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>1641</v>
+        <v>250</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2" t="s">
-        <v>1642</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>1643</v>
-      </c>
+        <v>1772</v>
+      </c>
+      <c r="H149" s="2"/>
       <c r="I149" s="2"/>
       <c r="J149" s="2" t="s">
-        <v>1644</v>
+        <v>1886</v>
       </c>
       <c r="K149" s="2"/>
-      <c r="L149" s="2"/>
+      <c r="L149" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A150" s="2" t="s">
-        <v>1882</v>
-      </c>
+      <c r="A150" s="101"/>
       <c r="B150" s="53">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>1883</v>
+        <v>250</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2" t="s">
-        <v>998</v>
+        <v>545</v>
       </c>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
       <c r="J150" s="2" t="s">
-        <v>1884</v>
+        <v>645</v>
       </c>
       <c r="K150" s="2"/>
-      <c r="L150" s="2"/>
+      <c r="L150" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A151" s="2"/>
+      <c r="A151" s="101"/>
       <c r="B151" s="53">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>250</v>
+        <v>519</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2" t="s">
-        <v>998</v>
+        <v>581</v>
       </c>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
       <c r="J151" s="2" t="s">
-        <v>1885</v>
+        <v>1523</v>
       </c>
       <c r="K151" s="2"/>
-      <c r="L151" s="2"/>
+      <c r="L151" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A152" s="2"/>
+      <c r="A152" s="101"/>
       <c r="B152" s="53">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>250</v>
+        <v>1887</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2" t="s">
-        <v>1772</v>
+        <v>1008</v>
       </c>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
       <c r="J152" s="2" t="s">
-        <v>1886</v>
+        <v>1888</v>
       </c>
       <c r="K152" s="2"/>
-      <c r="L152" s="2"/>
+      <c r="L152" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A153" s="2"/>
+      <c r="A153" s="85" t="s">
+        <v>1889</v>
+      </c>
       <c r="B153" s="53">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>250</v>
+        <v>1890</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="H153" s="2"/>
+        <v>1891</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>1892</v>
+      </c>
       <c r="I153" s="2"/>
       <c r="J153" s="2" t="s">
-        <v>645</v>
+        <v>1893</v>
       </c>
       <c r="K153" s="2"/>
-      <c r="L153" s="2"/>
+      <c r="L153" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A154" s="2"/>
+      <c r="A154" s="85"/>
       <c r="B154" s="53">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>519</v>
+        <v>1894</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="H154" s="2"/>
+        <v>1891</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>1895</v>
+      </c>
       <c r="I154" s="2"/>
       <c r="J154" s="2" t="s">
-        <v>1523</v>
+        <v>1896</v>
       </c>
       <c r="K154" s="2"/>
-      <c r="L154" s="2"/>
+      <c r="L154" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A155" s="2"/>
+      <c r="A155" s="85"/>
       <c r="B155" s="53">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>1887</v>
+        <v>1897</v>
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
-      <c r="G155" s="2" t="s">
-        <v>1008</v>
-      </c>
-      <c r="H155" s="2"/>
+      <c r="G155" s="100" t="s">
+        <v>1898</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>1899</v>
+      </c>
       <c r="I155" s="2"/>
       <c r="J155" s="2" t="s">
-        <v>1888</v>
+        <v>1900</v>
       </c>
       <c r="K155" s="2"/>
-      <c r="L155" s="2"/>
+      <c r="L155" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A156" s="2" t="s">
-        <v>1889</v>
+      <c r="A156" s="88" t="s">
+        <v>1858</v>
       </c>
       <c r="B156" s="53">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>1890</v>
+        <v>1901</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2" t="s">
-        <v>1891</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>1892</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="H156" s="2"/>
       <c r="I156" s="2"/>
       <c r="J156" s="2" t="s">
-        <v>1893</v>
+        <v>1902</v>
       </c>
       <c r="K156" s="2"/>
-      <c r="L156" s="2"/>
+      <c r="L156" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A157" s="2"/>
+      <c r="A157" s="88"/>
       <c r="B157" s="53">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>1894</v>
+        <v>1903</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2" t="s">
-        <v>1891</v>
+        <v>1904</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>1895</v>
+        <v>1905</v>
       </c>
       <c r="I157" s="2"/>
       <c r="J157" s="2" t="s">
-        <v>1896</v>
+        <v>1906</v>
       </c>
       <c r="K157" s="2"/>
-      <c r="L157" s="2"/>
+      <c r="L157" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A158" s="2"/>
+      <c r="A158" s="88"/>
       <c r="B158" s="53">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>1897</v>
+        <v>1907</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
-      <c r="G158" s="100" t="s">
-        <v>1898</v>
+      <c r="G158" s="2" t="s">
+        <v>1908</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>1899</v>
+        <v>1909</v>
       </c>
       <c r="I158" s="2"/>
       <c r="J158" s="2" t="s">
-        <v>1900</v>
+        <v>1910</v>
       </c>
       <c r="K158" s="2"/>
-      <c r="L158" s="2"/>
+      <c r="L158" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A159" s="2" t="s">
-        <v>1858</v>
-      </c>
+      <c r="A159" s="88"/>
       <c r="B159" s="53">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>1901</v>
+        <v>1911</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="H159" s="2"/>
+        <v>1908</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>1912</v>
+      </c>
       <c r="I159" s="2"/>
       <c r="J159" s="2" t="s">
-        <v>1902</v>
+        <v>1913</v>
       </c>
       <c r="K159" s="2"/>
-      <c r="L159" s="2"/>
+      <c r="L159" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A160" s="2"/>
+      <c r="A160" s="88"/>
       <c r="B160" s="53">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>1903</v>
+        <v>1914</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2" t="s">
-        <v>1904</v>
+        <v>1915</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>1905</v>
+        <v>1916</v>
       </c>
       <c r="I160" s="2"/>
       <c r="J160" s="2" t="s">
-        <v>1906</v>
+        <v>1917</v>
       </c>
       <c r="K160" s="2"/>
-      <c r="L160" s="2"/>
+      <c r="L160" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A161" s="2"/>
+      <c r="A161" s="88"/>
       <c r="B161" s="53">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>1907</v>
+        <v>1463</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2" t="s">
-        <v>1908</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>1909</v>
-      </c>
+        <v>1915</v>
+      </c>
+      <c r="H161" s="2"/>
       <c r="I161" s="2"/>
       <c r="J161" s="2" t="s">
-        <v>1910</v>
+        <v>1465</v>
       </c>
       <c r="K161" s="2"/>
-      <c r="L161" s="2"/>
+      <c r="L161" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A162" s="2"/>
+      <c r="A162" s="88"/>
       <c r="B162" s="53">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>1911</v>
+        <v>1918</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
-      <c r="G162" s="2" t="s">
-        <v>1908</v>
-      </c>
+      <c r="G162" s="2"/>
       <c r="H162" s="2" t="s">
-        <v>1912</v>
+        <v>1919</v>
       </c>
       <c r="I162" s="2"/>
       <c r="J162" s="2" t="s">
-        <v>1913</v>
+        <v>1920</v>
       </c>
       <c r="K162" s="2"/>
-      <c r="L162" s="2"/>
+      <c r="L162" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A163" s="2"/>
+      <c r="A163" s="88"/>
       <c r="B163" s="53">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>1914</v>
+        <v>1921</v>
       </c>
       <c r="D163" s="3"/>
       <c r="E163" s="2"/>
@@ -31664,22 +32186,24 @@
         <v>1915</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>1916</v>
+        <v>1922</v>
       </c>
       <c r="I163" s="2"/>
       <c r="J163" s="2" t="s">
-        <v>1917</v>
+        <v>1923</v>
       </c>
       <c r="K163" s="2"/>
-      <c r="L163" s="2"/>
+      <c r="L163" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A164" s="2"/>
+      <c r="A164" s="88"/>
       <c r="B164" s="53">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>1463</v>
+        <v>1924</v>
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="2"/>
@@ -31687,312 +32211,414 @@
       <c r="G164" s="2" t="s">
         <v>1915</v>
       </c>
-      <c r="H164" s="2"/>
+      <c r="H164" s="2" t="s">
+        <v>1925</v>
+      </c>
       <c r="I164" s="2"/>
       <c r="J164" s="2" t="s">
-        <v>1465</v>
+        <v>1926</v>
       </c>
       <c r="K164" s="2"/>
-      <c r="L164" s="2"/>
+      <c r="L164" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A165" s="2"/>
+      <c r="A165" s="88"/>
       <c r="B165" s="53">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>1918</v>
+        <v>1927</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
-      <c r="G165" s="2"/>
+      <c r="G165" s="2" t="s">
+        <v>1915</v>
+      </c>
       <c r="H165" s="2" t="s">
-        <v>1919</v>
+        <v>1928</v>
       </c>
       <c r="I165" s="2"/>
       <c r="J165" s="2" t="s">
-        <v>1920</v>
+        <v>1929</v>
       </c>
       <c r="K165" s="2"/>
-      <c r="L165" s="2"/>
+      <c r="L165" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A166" s="2"/>
+      <c r="A166" s="88"/>
       <c r="B166" s="53">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>1921</v>
+        <v>1759</v>
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="2" t="s">
-        <v>1915</v>
+        <v>1930</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>1922</v>
+        <v>1931</v>
       </c>
       <c r="I166" s="2"/>
       <c r="J166" s="2" t="s">
-        <v>1923</v>
+        <v>1932</v>
       </c>
       <c r="K166" s="2"/>
-      <c r="L166" s="2"/>
+      <c r="L166" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A167" s="2"/>
+      <c r="A167" s="88"/>
       <c r="B167" s="53">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>1924</v>
+        <v>1933</v>
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="G167" s="2" t="s">
-        <v>1915</v>
+        <v>1930</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>1925</v>
+        <v>1934</v>
       </c>
       <c r="I167" s="2"/>
       <c r="J167" s="2" t="s">
-        <v>1926</v>
+        <v>1935</v>
       </c>
       <c r="K167" s="2"/>
-      <c r="L167" s="2"/>
+      <c r="L167" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A168" s="2"/>
+      <c r="A168" s="88"/>
       <c r="B168" s="53">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>1927</v>
+        <v>1936</v>
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
       <c r="G168" s="2" t="s">
-        <v>1915</v>
+        <v>1930</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>1928</v>
+        <v>1937</v>
       </c>
       <c r="I168" s="2"/>
       <c r="J168" s="2" t="s">
-        <v>1929</v>
+        <v>1938</v>
       </c>
       <c r="K168" s="2"/>
-      <c r="L168" s="2"/>
+      <c r="L168" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A169" s="2"/>
+      <c r="A169" s="102" t="s">
+        <v>1939</v>
+      </c>
       <c r="B169" s="53">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>1759</v>
+        <v>1977</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2" t="s">
-        <v>1930</v>
+        <v>1978</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>1931</v>
+        <v>1979</v>
       </c>
       <c r="I169" s="2"/>
       <c r="J169" s="2" t="s">
-        <v>1932</v>
+        <v>1980</v>
       </c>
       <c r="K169" s="2"/>
-      <c r="L169" s="2"/>
+      <c r="L169" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A170" s="2"/>
+      <c r="A170" s="102"/>
       <c r="B170" s="53">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>1933</v>
+        <v>1981</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2" t="s">
-        <v>1930</v>
+        <v>1982</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>1934</v>
+        <v>1983</v>
       </c>
       <c r="I170" s="2"/>
       <c r="J170" s="2" t="s">
-        <v>1935</v>
+        <v>1984</v>
       </c>
       <c r="K170" s="2"/>
-      <c r="L170" s="2"/>
+      <c r="L170" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A171" s="2"/>
+      <c r="A171" s="102"/>
       <c r="B171" s="53">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>1936</v>
+        <v>1985</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2" t="s">
-        <v>1930</v>
+        <v>1772</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>1937</v>
+        <v>1986</v>
       </c>
       <c r="I171" s="2"/>
       <c r="J171" s="2" t="s">
-        <v>1938</v>
+        <v>1987</v>
       </c>
       <c r="K171" s="2"/>
-      <c r="L171" s="2"/>
+      <c r="L171" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A172" s="2"/>
+      <c r="A172" s="102"/>
       <c r="B172" s="53">
-        <v>168</v>
-      </c>
-      <c r="C172" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>1988</v>
+      </c>
       <c r="D172" s="3"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
+      <c r="G172" s="2" t="s">
+        <v>1989</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>1990</v>
+      </c>
       <c r="I172" s="2"/>
-      <c r="J172" s="2"/>
+      <c r="J172" s="2" t="s">
+        <v>1991</v>
+      </c>
       <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
+      <c r="L172" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A173" s="2"/>
+      <c r="A173" s="102"/>
       <c r="B173" s="53">
-        <v>169</v>
-      </c>
-      <c r="C173" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>1994</v>
+      </c>
       <c r="D173" s="3"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
+      <c r="G173" s="2" t="s">
+        <v>1992</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>1993</v>
+      </c>
       <c r="I173" s="2"/>
-      <c r="J173" s="2"/>
+      <c r="J173" s="2" t="s">
+        <v>1995</v>
+      </c>
       <c r="K173" s="2"/>
-      <c r="L173" s="2"/>
+      <c r="L173" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A174" s="2"/>
+      <c r="A174" s="102"/>
       <c r="B174" s="53">
-        <v>170</v>
-      </c>
-      <c r="C174" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>1996</v>
+      </c>
       <c r="D174" s="3"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
+      <c r="G174" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>1997</v>
+      </c>
       <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
+      <c r="J174" s="2" t="s">
+        <v>1998</v>
+      </c>
       <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
+      <c r="L174" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A175" s="2"/>
+      <c r="A175" s="102"/>
       <c r="B175" s="53">
-        <v>171</v>
-      </c>
-      <c r="C175" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>1999</v>
+      </c>
       <c r="D175" s="3"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
+      <c r="G175" s="2" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>2001</v>
+      </c>
       <c r="I175" s="2"/>
-      <c r="J175" s="2"/>
+      <c r="J175" s="2" t="s">
+        <v>2002</v>
+      </c>
       <c r="K175" s="2"/>
-      <c r="L175" s="2"/>
+      <c r="L175" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A176" s="2"/>
+      <c r="A176" s="102"/>
       <c r="B176" s="53">
-        <v>172</v>
-      </c>
-      <c r="C176" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>2003</v>
+      </c>
       <c r="D176" s="3"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
+      <c r="G176" s="2" t="s">
+        <v>2004</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>2005</v>
+      </c>
       <c r="I176" s="2"/>
-      <c r="J176" s="2"/>
+      <c r="J176" s="2" t="s">
+        <v>2006</v>
+      </c>
       <c r="K176" s="2"/>
-      <c r="L176" s="2"/>
+      <c r="L176" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A177" s="2"/>
+      <c r="A177" s="102"/>
       <c r="B177" s="53">
-        <v>173</v>
-      </c>
-      <c r="C177" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>2007</v>
+      </c>
       <c r="D177" s="3"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
+      <c r="G177" s="2" t="s">
+        <v>2009</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>2008</v>
+      </c>
       <c r="I177" s="2"/>
-      <c r="J177" s="2"/>
+      <c r="J177" s="2" t="s">
+        <v>2010</v>
+      </c>
       <c r="K177" s="2"/>
-      <c r="L177" s="2"/>
+      <c r="L177" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A178" s="2"/>
+      <c r="A178" s="102"/>
       <c r="B178" s="53">
-        <v>174</v>
-      </c>
-      <c r="C178" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>2011</v>
+      </c>
       <c r="D178" s="3"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
+      <c r="G178" s="2" t="s">
+        <v>2012</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>2013</v>
+      </c>
       <c r="I178" s="2"/>
-      <c r="J178" s="2"/>
+      <c r="J178" s="2" t="s">
+        <v>2014</v>
+      </c>
       <c r="K178" s="2"/>
-      <c r="L178" s="2"/>
+      <c r="L178" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A179" s="2"/>
+      <c r="A179" s="102"/>
       <c r="B179" s="53">
-        <v>175</v>
-      </c>
-      <c r="C179" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>2015</v>
+      </c>
       <c r="D179" s="3"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
+      <c r="G179" s="2" t="s">
+        <v>2016</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>2017</v>
+      </c>
       <c r="I179" s="2"/>
-      <c r="J179" s="2"/>
+      <c r="J179" s="2" t="s">
+        <v>2018</v>
+      </c>
       <c r="K179" s="2"/>
-      <c r="L179" s="2"/>
+      <c r="L179" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" s="2"/>
       <c r="B180" s="53">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="3"/>
@@ -32008,7 +32634,7 @@
     <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" s="2"/>
       <c r="B181" s="53">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="3"/>
@@ -32024,7 +32650,7 @@
     <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" s="2"/>
       <c r="B182" s="53">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
@@ -32040,7 +32666,7 @@
     <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" s="2"/>
       <c r="B183" s="53">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="3"/>
@@ -32056,7 +32682,7 @@
     <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" s="2"/>
       <c r="B184" s="53">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="3"/>
@@ -32072,7 +32698,7 @@
     <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" s="2"/>
       <c r="B185" s="53">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="3"/>
@@ -32088,7 +32714,7 @@
     <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
       <c r="B186" s="53">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
@@ -32104,7 +32730,7 @@
     <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" s="2"/>
       <c r="B187" s="53">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
@@ -32120,7 +32746,7 @@
     <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" s="2"/>
       <c r="B188" s="53">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
@@ -32136,7 +32762,7 @@
     <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" s="2"/>
       <c r="B189" s="53">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
@@ -32152,7 +32778,7 @@
     <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" s="2"/>
       <c r="B190" s="53">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
@@ -32168,7 +32794,7 @@
     <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" s="2"/>
       <c r="B191" s="53">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="3"/>
@@ -32184,7 +32810,7 @@
     <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" s="2"/>
       <c r="B192" s="53">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
@@ -32200,7 +32826,7 @@
     <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" s="2"/>
       <c r="B193" s="53">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="3"/>
@@ -32216,7 +32842,7 @@
     <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" s="2"/>
       <c r="B194" s="53">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
@@ -32232,7 +32858,7 @@
     <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" s="2"/>
       <c r="B195" s="53">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
@@ -32248,7 +32874,7 @@
     <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" s="2"/>
       <c r="B196" s="53">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
@@ -32264,7 +32890,7 @@
     <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" s="2"/>
       <c r="B197" s="53">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="3"/>
@@ -32280,7 +32906,7 @@
     <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" s="2"/>
       <c r="B198" s="53">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="3"/>
@@ -32296,7 +32922,7 @@
     <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" s="2"/>
       <c r="B199" s="53">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="3"/>
@@ -32312,7 +32938,7 @@
     <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" s="2"/>
       <c r="B200" s="53">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
@@ -32328,7 +32954,7 @@
     <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" s="2"/>
       <c r="B201" s="53">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
@@ -32344,7 +32970,7 @@
     <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" s="2"/>
       <c r="B202" s="53">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
@@ -32360,7 +32986,7 @@
     <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" s="2"/>
       <c r="B203" s="53">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
@@ -32376,7 +33002,7 @@
     <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" s="2"/>
       <c r="B204" s="53">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
@@ -32392,7 +33018,7 @@
     <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" s="2"/>
       <c r="B205" s="53">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
@@ -32408,7 +33034,7 @@
     <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" s="2"/>
       <c r="B206" s="53">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="3"/>
@@ -32423,9 +33049,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" s="2"/>
-      <c r="B207" s="53">
-        <v>203</v>
-      </c>
+      <c r="B207" s="4"/>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
       <c r="E207" s="2"/>
@@ -32439,9 +33063,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" s="2"/>
-      <c r="B208" s="53">
-        <v>204</v>
-      </c>
+      <c r="B208" s="4"/>
       <c r="C208" s="2"/>
       <c r="D208" s="3"/>
       <c r="E208" s="2"/>
@@ -32455,9 +33077,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" s="2"/>
-      <c r="B209" s="53">
-        <v>205</v>
-      </c>
+      <c r="B209" s="4"/>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
       <c r="E209" s="2"/>
@@ -34485,78 +35105,36 @@
       <c r="K353" s="2"/>
       <c r="L353" s="2"/>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A354" s="2"/>
-      <c r="B354" s="4"/>
-      <c r="C354" s="2"/>
-      <c r="D354" s="3"/>
-      <c r="E354" s="2"/>
-      <c r="F354" s="2"/>
-      <c r="G354" s="2"/>
-      <c r="H354" s="2"/>
-      <c r="I354" s="2"/>
-      <c r="J354" s="2"/>
-      <c r="K354" s="2"/>
-      <c r="L354" s="2"/>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A355" s="2"/>
-      <c r="B355" s="4"/>
-      <c r="C355" s="2"/>
-      <c r="D355" s="3"/>
-      <c r="E355" s="2"/>
-      <c r="F355" s="2"/>
-      <c r="G355" s="2"/>
-      <c r="H355" s="2"/>
-      <c r="I355" s="2"/>
-      <c r="J355" s="2"/>
-      <c r="K355" s="2"/>
-      <c r="L355" s="2"/>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A356" s="2"/>
-      <c r="B356" s="4"/>
-      <c r="C356" s="2"/>
-      <c r="D356" s="3"/>
-      <c r="E356" s="2"/>
-      <c r="F356" s="2"/>
-      <c r="G356" s="2"/>
-      <c r="H356" s="2"/>
-      <c r="I356" s="2"/>
-      <c r="J356" s="2"/>
-      <c r="K356" s="2"/>
-      <c r="L356" s="2"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="E2:F64 G2 G4:G7 G9:G22 G24:G28 G30:G57 G59:G64">
-    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="19" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D64">
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34568,9 +35146,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C163" sqref="C163"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34671,7 +35249,9 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="83"/>
@@ -34691,7 +35271,9 @@
         <v>1232</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="83"/>
@@ -34713,7 +35295,9 @@
         <v>1234</v>
       </c>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="83"/>
@@ -34733,7 +35317,9 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="83"/>
@@ -34751,7 +35337,9 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="83"/>
@@ -34773,7 +35361,9 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="83"/>
@@ -34797,7 +35387,9 @@
         <v>9421135468</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="83"/>
@@ -34819,7 +35411,9 @@
         <v>1245</v>
       </c>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="83"/>
@@ -34841,7 +35435,9 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="83"/>
@@ -34861,7 +35457,9 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="83"/>
@@ -34881,7 +35479,9 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="83"/>
@@ -34903,7 +35503,9 @@
         <v>1253</v>
       </c>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="83"/>
@@ -34923,7 +35525,9 @@
         <v>1255</v>
       </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="83"/>
@@ -34943,7 +35547,9 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="84" t="s">
@@ -34967,7 +35573,9 @@
         <v>1260</v>
       </c>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="84"/>
@@ -34987,7 +35595,9 @@
         <v>1262</v>
       </c>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="L18" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="84"/>
@@ -35007,7 +35617,9 @@
         <v>1264</v>
       </c>
       <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="84"/>
@@ -35031,7 +35643,9 @@
         <v>1269</v>
       </c>
       <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="84"/>
@@ -35055,7 +35669,9 @@
         <v>1270</v>
       </c>
       <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="84"/>
@@ -35079,7 +35695,9 @@
         <v>1273</v>
       </c>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="84"/>
@@ -35103,7 +35721,9 @@
         <v>1275</v>
       </c>
       <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="L23" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="84" t="s">
@@ -35127,7 +35747,9 @@
         <v>1808</v>
       </c>
       <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="84"/>
@@ -35149,7 +35771,9 @@
         <v>1810</v>
       </c>
       <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="L25" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="84"/>
@@ -35173,7 +35797,9 @@
         <v>1814</v>
       </c>
       <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="L26" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="84"/>
@@ -35195,7 +35821,9 @@
         <v>1817</v>
       </c>
       <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="L27" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="84"/>
@@ -35215,7 +35843,9 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="L28" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="29" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="84"/>
@@ -35237,7 +35867,9 @@
         <v>1821</v>
       </c>
       <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+      <c r="L29" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="30" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="84"/>
@@ -35259,7 +35891,9 @@
         <v>1824</v>
       </c>
       <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="L30" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="31" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="84"/>
@@ -35281,7 +35915,9 @@
         <v>1827</v>
       </c>
       <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="L31" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="84"/>
@@ -35303,7 +35939,9 @@
         <v>1829</v>
       </c>
       <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="L32" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="84"/>
@@ -35325,7 +35963,9 @@
         <v>1831</v>
       </c>
       <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="L33" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="84"/>
@@ -35347,7 +35987,9 @@
         <v>1833</v>
       </c>
       <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+      <c r="L34" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="84"/>
@@ -35369,7 +36011,9 @@
         <v>1835</v>
       </c>
       <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
+      <c r="L35" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="84"/>
@@ -35391,7 +36035,9 @@
         <v>1837</v>
       </c>
       <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
+      <c r="L36" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="84"/>
@@ -35413,7 +36059,9 @@
         <v>1839</v>
       </c>
       <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
+      <c r="L37" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="84"/>
@@ -35435,7 +36083,9 @@
         <v>1842</v>
       </c>
       <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
+      <c r="L38" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="84"/>
@@ -35457,7 +36107,9 @@
         <v>1844</v>
       </c>
       <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="L39" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="84"/>
@@ -35479,7 +36131,9 @@
         <v>1846</v>
       </c>
       <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
+      <c r="L40" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="84"/>
@@ -35501,7 +36155,9 @@
         <v>1848</v>
       </c>
       <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
+      <c r="L41" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="84"/>
@@ -35523,7 +36179,9 @@
         <v>1850</v>
       </c>
       <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
+      <c r="L42" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="84"/>
@@ -35545,7 +36203,9 @@
         <v>1853</v>
       </c>
       <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
+      <c r="L43" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="84"/>
@@ -35567,7 +36227,9 @@
         <v>1855</v>
       </c>
       <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
+      <c r="L44" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="84"/>
@@ -35589,7 +36251,9 @@
         <v>1857</v>
       </c>
       <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
+      <c r="L45" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="46" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="81"/>
@@ -35657,7 +36321,9 @@
         <v>1279</v>
       </c>
       <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
+      <c r="L49" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="87"/>
@@ -35681,7 +36347,9 @@
         <v>1282</v>
       </c>
       <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
+      <c r="L50" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="87"/>
@@ -35705,7 +36373,9 @@
         <v>1285</v>
       </c>
       <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
+      <c r="L51" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="87"/>
@@ -35727,7 +36397,9 @@
         <v>1288</v>
       </c>
       <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
+      <c r="L52" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="87"/>
@@ -35749,7 +36421,9 @@
         <v>1290</v>
       </c>
       <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
+      <c r="L53" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="87"/>
@@ -35773,7 +36447,9 @@
         <v>1292</v>
       </c>
       <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
+      <c r="L54" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="87"/>
@@ -35797,7 +36473,9 @@
         <v>1295</v>
       </c>
       <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
+      <c r="L55" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="87"/>
@@ -35821,7 +36499,9 @@
         <v>1298</v>
       </c>
       <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
+      <c r="L56" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="87"/>
@@ -35845,7 +36525,9 @@
         <v>1301</v>
       </c>
       <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
+      <c r="L57" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="87"/>
@@ -35869,7 +36551,9 @@
         <v>1304</v>
       </c>
       <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
+      <c r="L58" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="83" t="s">
@@ -35895,7 +36579,9 @@
         <v>1308</v>
       </c>
       <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
+      <c r="L59" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="83"/>
@@ -35919,7 +36605,9 @@
         <v>1311</v>
       </c>
       <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
+      <c r="L60" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="83"/>
@@ -35941,7 +36629,9 @@
         <v>1314</v>
       </c>
       <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
+      <c r="L61" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="83"/>
@@ -35965,7 +36655,9 @@
         <v>1317</v>
       </c>
       <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
+      <c r="L62" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
@@ -35991,7 +36683,9 @@
         <v>1321</v>
       </c>
       <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
+      <c r="L63" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="83" t="s">
@@ -36017,7 +36711,9 @@
         <v>1328</v>
       </c>
       <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
+      <c r="L64" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="83"/>
@@ -36041,7 +36737,9 @@
         <v>1325</v>
       </c>
       <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
+      <c r="L65" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="83"/>
@@ -36065,7 +36763,9 @@
         <v>1331</v>
       </c>
       <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
+      <c r="L66" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="83"/>
@@ -36089,7 +36789,9 @@
         <v>1333</v>
       </c>
       <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
+      <c r="L67" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="83"/>
@@ -36113,7 +36815,9 @@
         <v>1336</v>
       </c>
       <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
+      <c r="L68" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="83"/>
@@ -36137,7 +36841,9 @@
         <v>1339</v>
       </c>
       <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
+      <c r="L69" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="83"/>
@@ -36161,7 +36867,9 @@
         <v>1342</v>
       </c>
       <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
+      <c r="L70" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="83"/>
@@ -36185,7 +36893,9 @@
         <v>1344</v>
       </c>
       <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
+      <c r="L71" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="83"/>
@@ -36207,7 +36917,9 @@
         <v>1347</v>
       </c>
       <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
+      <c r="L72" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="83"/>
@@ -36231,7 +36943,9 @@
         <v>1348</v>
       </c>
       <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
+      <c r="L73" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="83"/>
@@ -36253,7 +36967,9 @@
         <v>1350</v>
       </c>
       <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
+      <c r="L74" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="83"/>
@@ -36277,7 +36993,9 @@
         <v>1352</v>
       </c>
       <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
+      <c r="L75" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="83"/>
@@ -36301,7 +37019,9 @@
         <v>1356</v>
       </c>
       <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
+      <c r="L76" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="83"/>
@@ -36325,7 +37045,9 @@
         <v>1358</v>
       </c>
       <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
+      <c r="L77" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="83"/>
@@ -36349,7 +37071,9 @@
         <v>1361</v>
       </c>
       <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
+      <c r="L78" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="83"/>
@@ -36373,7 +37097,9 @@
         <v>1363</v>
       </c>
       <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
+      <c r="L79" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="83"/>
@@ -36397,7 +37123,9 @@
         <v>1365</v>
       </c>
       <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
+      <c r="L80" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="83"/>
@@ -36421,7 +37149,9 @@
         <v>1367</v>
       </c>
       <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
+      <c r="L81" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="83"/>
@@ -36445,7 +37175,9 @@
         <v>1369</v>
       </c>
       <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
+      <c r="L82" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="83"/>
@@ -36467,7 +37199,9 @@
         <v>1372</v>
       </c>
       <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
+      <c r="L83" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="83"/>
@@ -36489,7 +37223,9 @@
         <v>1374</v>
       </c>
       <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
+      <c r="L84" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="83"/>
@@ -36511,7 +37247,9 @@
         <v>1376</v>
       </c>
       <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
+      <c r="L85" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="83"/>
@@ -36533,7 +37271,9 @@
         <v>1378</v>
       </c>
       <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
+      <c r="L86" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="83"/>
@@ -36555,7 +37295,9 @@
         <v>1380</v>
       </c>
       <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
+      <c r="L87" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="83"/>
@@ -36577,7 +37319,9 @@
         <v>1383</v>
       </c>
       <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
+      <c r="L88" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="83"/>
@@ -36599,7 +37343,9 @@
         <v>1385</v>
       </c>
       <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
+      <c r="L89" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="85" t="s">
@@ -36625,7 +37371,9 @@
         <v>1648</v>
       </c>
       <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
+      <c r="L90" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="85"/>
@@ -36649,7 +37397,9 @@
         <v>1650</v>
       </c>
       <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
+      <c r="L91" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="85"/>
@@ -36673,7 +37423,9 @@
         <v>1652</v>
       </c>
       <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
+      <c r="L92" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="85"/>
@@ -36697,7 +37449,9 @@
         <v>1653</v>
       </c>
       <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
+      <c r="L93" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="85"/>
@@ -36721,7 +37475,9 @@
         <v>1655</v>
       </c>
       <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
+      <c r="L94" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="85"/>
@@ -36745,7 +37501,9 @@
         <v>1658</v>
       </c>
       <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
+      <c r="L95" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="85"/>
@@ -36769,7 +37527,9 @@
         <v>1660</v>
       </c>
       <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
+      <c r="L96" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="85"/>
@@ -36791,7 +37551,9 @@
         <v>1662</v>
       </c>
       <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
+      <c r="L97" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="85"/>
@@ -36815,7 +37577,9 @@
         <v>1664</v>
       </c>
       <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
+      <c r="L98" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="85"/>
@@ -36839,7 +37603,9 @@
         <v>1667</v>
       </c>
       <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
+      <c r="L99" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="85"/>
@@ -36863,7 +37629,9 @@
         <v>1669</v>
       </c>
       <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
+      <c r="L100" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="85"/>
@@ -36887,7 +37655,9 @@
         <v>1671</v>
       </c>
       <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
+      <c r="L101" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="85"/>
@@ -36911,7 +37681,9 @@
         <v>1673</v>
       </c>
       <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
+      <c r="L102" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="85"/>
@@ -36935,7 +37707,9 @@
         <v>1675</v>
       </c>
       <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
+      <c r="L103" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="83" t="s">
@@ -36961,7 +37735,9 @@
         <v>1679</v>
       </c>
       <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
+      <c r="L104" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="83"/>
@@ -36985,7 +37761,9 @@
         <v>1388</v>
       </c>
       <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
+      <c r="L105" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="83"/>
@@ -37009,7 +37787,9 @@
         <v>1686</v>
       </c>
       <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
+      <c r="L106" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="83"/>
@@ -37033,7 +37813,9 @@
         <v>1690</v>
       </c>
       <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
+      <c r="L107" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="83"/>
@@ -37057,7 +37839,9 @@
         <v>1689</v>
       </c>
       <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
+      <c r="L108" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="83"/>
@@ -37081,7 +37865,9 @@
         <v>1694</v>
       </c>
       <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
+      <c r="L109" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="83"/>
@@ -37105,7 +37891,9 @@
         <v>1697</v>
       </c>
       <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
+      <c r="L110" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="83"/>
@@ -37129,7 +37917,9 @@
         <v>1700</v>
       </c>
       <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
+      <c r="L111" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="83"/>
@@ -37153,7 +37943,9 @@
         <v>1703</v>
       </c>
       <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
+      <c r="L112" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="83"/>
@@ -37177,7 +37969,9 @@
         <v>1705</v>
       </c>
       <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
+      <c r="L113" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="83"/>
@@ -37201,7 +37995,9 @@
         <v>1707</v>
       </c>
       <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
+      <c r="L114" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="83"/>
@@ -37225,7 +38021,9 @@
         <v>1709</v>
       </c>
       <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
+      <c r="L115" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="83"/>
@@ -37249,7 +38047,9 @@
         <v>1710</v>
       </c>
       <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
+      <c r="L116" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="83"/>
@@ -37273,7 +38073,9 @@
         <v>1712</v>
       </c>
       <c r="K117" s="2"/>
-      <c r="L117" s="2"/>
+      <c r="L117" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="83"/>
@@ -37297,7 +38099,9 @@
         <v>1714</v>
       </c>
       <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
+      <c r="L118" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="83"/>
@@ -37321,7 +38125,9 @@
         <v>1716</v>
       </c>
       <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
+      <c r="L119" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="83"/>
@@ -37345,7 +38151,9 @@
         <v>1718</v>
       </c>
       <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
+      <c r="L120" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="83"/>
@@ -37369,7 +38177,9 @@
         <v>1720</v>
       </c>
       <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
+      <c r="L121" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="95"/>
@@ -37393,7 +38203,9 @@
         <v>1722</v>
       </c>
       <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
+      <c r="L122" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="99" t="s">
@@ -37419,7 +38231,9 @@
         <v>1753</v>
       </c>
       <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
+      <c r="L123" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="99"/>
@@ -37443,7 +38257,9 @@
         <v>1756</v>
       </c>
       <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
+      <c r="L124" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="99"/>
@@ -37467,7 +38283,9 @@
         <v>1388</v>
       </c>
       <c r="K125" s="2"/>
-      <c r="L125" s="2"/>
+      <c r="L125" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="99"/>
@@ -37491,7 +38309,9 @@
         <v>1761</v>
       </c>
       <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
+      <c r="L126" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="99"/>
@@ -37515,7 +38335,9 @@
         <v>1763</v>
       </c>
       <c r="K127" s="2"/>
-      <c r="L127" s="2"/>
+      <c r="L127" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="99"/>
@@ -37539,7 +38361,9 @@
         <v>1766</v>
       </c>
       <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
+      <c r="L128" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="99"/>
@@ -37563,7 +38387,9 @@
         <v>1770</v>
       </c>
       <c r="K129" s="2"/>
-      <c r="L129" s="2"/>
+      <c r="L129" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="99"/>
@@ -37587,7 +38413,9 @@
         <v>1774</v>
       </c>
       <c r="K130" s="2"/>
-      <c r="L130" s="2"/>
+      <c r="L130" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="99"/>
@@ -37611,7 +38439,9 @@
         <v>1776</v>
       </c>
       <c r="K131" s="2"/>
-      <c r="L131" s="2"/>
+      <c r="L131" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="83" t="s">
@@ -37635,7 +38465,9 @@
         <v>1780</v>
       </c>
       <c r="K132" s="2"/>
-      <c r="L132" s="2"/>
+      <c r="L132" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="83"/>
@@ -37657,7 +38489,9 @@
         <v>1781</v>
       </c>
       <c r="K133" s="2"/>
-      <c r="L133" s="2"/>
+      <c r="L133" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="83"/>
@@ -37677,7 +38511,9 @@
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
+      <c r="L134" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="83"/>
@@ -37701,7 +38537,9 @@
         <v>1785</v>
       </c>
       <c r="K135" s="2"/>
-      <c r="L135" s="2"/>
+      <c r="L135" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="83"/>
@@ -37725,7 +38563,9 @@
         <v>1788</v>
       </c>
       <c r="K136" s="2"/>
-      <c r="L136" s="2"/>
+      <c r="L136" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="83"/>
@@ -37749,7 +38589,9 @@
         <v>1791</v>
       </c>
       <c r="K137" s="2"/>
-      <c r="L137" s="2"/>
+      <c r="L137" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="83"/>
@@ -37773,7 +38615,9 @@
         <v>1794</v>
       </c>
       <c r="K138" s="2"/>
-      <c r="L138" s="2"/>
+      <c r="L138" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="83"/>
@@ -37797,7 +38641,9 @@
         <v>1797</v>
       </c>
       <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
+      <c r="L139" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="83"/>
@@ -37821,7 +38667,9 @@
         <v>1800</v>
       </c>
       <c r="K140" s="2"/>
-      <c r="L140" s="2"/>
+      <c r="L140" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="83"/>
@@ -37845,7 +38693,9 @@
         <v>1802</v>
       </c>
       <c r="K141" s="2"/>
-      <c r="L141" s="2"/>
+      <c r="L141" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="83"/>
@@ -37869,7 +38719,9 @@
         <v>1803</v>
       </c>
       <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
+      <c r="L142" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="83"/>
@@ -37893,7 +38745,9 @@
         <v>1806</v>
       </c>
       <c r="K143" s="2"/>
-      <c r="L143" s="2"/>
+      <c r="L143" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="88" t="s">
@@ -37919,7 +38773,9 @@
         <v>1866</v>
       </c>
       <c r="K144" s="2"/>
-      <c r="L144" s="2"/>
+      <c r="L144" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="88"/>
@@ -37943,7 +38799,9 @@
         <v>1865</v>
       </c>
       <c r="K145" s="2"/>
-      <c r="L145" s="2"/>
+      <c r="L145" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="88"/>
@@ -37967,7 +38825,9 @@
         <v>1869</v>
       </c>
       <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
+      <c r="L146" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="88"/>
@@ -37991,7 +38851,9 @@
         <v>1872</v>
       </c>
       <c r="K147" s="2"/>
-      <c r="L147" s="2"/>
+      <c r="L147" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="88"/>
@@ -38015,7 +38877,9 @@
         <v>1875</v>
       </c>
       <c r="K148" s="2"/>
-      <c r="L148" s="2"/>
+      <c r="L148" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="88"/>
@@ -38039,7 +38903,9 @@
         <v>1878</v>
       </c>
       <c r="K149" s="2"/>
-      <c r="L149" s="2"/>
+      <c r="L149" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="88"/>
@@ -38063,10 +38929,12 @@
         <v>1881</v>
       </c>
       <c r="K150" s="2"/>
-      <c r="L150" s="2"/>
+      <c r="L150" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A151" s="2" t="s">
+      <c r="A151" s="101" t="s">
         <v>1939</v>
       </c>
       <c r="B151" s="3">
@@ -38089,10 +38957,12 @@
         <v>1942</v>
       </c>
       <c r="K151" s="2"/>
-      <c r="L151" s="2"/>
+      <c r="L151" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A152" s="2"/>
+      <c r="A152" s="101"/>
       <c r="B152" s="3">
         <v>148</v>
       </c>
@@ -38113,10 +38983,12 @@
         <v>1945</v>
       </c>
       <c r="K152" s="2"/>
-      <c r="L152" s="2"/>
+      <c r="L152" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A153" s="2"/>
+      <c r="A153" s="101"/>
       <c r="B153" s="3">
         <v>149</v>
       </c>
@@ -38129,16 +39001,20 @@
       <c r="G153" s="2" t="s">
         <v>1941</v>
       </c>
-      <c r="H153" s="2"/>
+      <c r="H153" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I153" s="2"/>
       <c r="J153" s="2" t="s">
         <v>1947</v>
       </c>
       <c r="K153" s="2"/>
-      <c r="L153" s="2"/>
+      <c r="L153" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A154" s="2"/>
+      <c r="A154" s="101"/>
       <c r="B154" s="3">
         <v>150</v>
       </c>
@@ -38151,16 +39027,20 @@
       <c r="G154" s="2" t="s">
         <v>1949</v>
       </c>
-      <c r="H154" s="2"/>
+      <c r="H154" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I154" s="2"/>
       <c r="J154" s="2" t="s">
         <v>1950</v>
       </c>
       <c r="K154" s="2"/>
-      <c r="L154" s="2"/>
+      <c r="L154" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A155" s="2"/>
+      <c r="A155" s="101"/>
       <c r="B155" s="3">
         <v>151</v>
       </c>
@@ -38173,16 +39053,20 @@
       <c r="G155" s="2" t="s">
         <v>1952</v>
       </c>
-      <c r="H155" s="2"/>
+      <c r="H155" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I155" s="2"/>
       <c r="J155" s="2" t="s">
         <v>1953</v>
       </c>
       <c r="K155" s="2"/>
-      <c r="L155" s="2"/>
+      <c r="L155" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A156" s="2"/>
+      <c r="A156" s="101"/>
       <c r="B156" s="3">
         <v>152</v>
       </c>
@@ -38195,16 +39079,20 @@
       <c r="G156" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="H156" s="2"/>
+      <c r="H156" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I156" s="2"/>
       <c r="J156" s="2" t="s">
         <v>1956</v>
       </c>
       <c r="K156" s="2"/>
-      <c r="L156" s="2"/>
+      <c r="L156" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A157" s="2"/>
+      <c r="A157" s="101"/>
       <c r="B157" s="3">
         <v>153</v>
       </c>
@@ -38217,16 +39105,20 @@
       <c r="G157" s="2" t="s">
         <v>1958</v>
       </c>
-      <c r="H157" s="2"/>
+      <c r="H157" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I157" s="2"/>
       <c r="J157" s="2" t="s">
         <v>1959</v>
       </c>
       <c r="K157" s="2"/>
-      <c r="L157" s="2"/>
+      <c r="L157" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A158" s="2"/>
+      <c r="A158" s="101"/>
       <c r="B158" s="3">
         <v>154</v>
       </c>
@@ -38239,16 +39131,20 @@
       <c r="G158" s="2" t="s">
         <v>1961</v>
       </c>
-      <c r="H158" s="2"/>
+      <c r="H158" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I158" s="2"/>
       <c r="J158" s="2" t="s">
         <v>1962</v>
       </c>
       <c r="K158" s="2"/>
-      <c r="L158" s="2"/>
+      <c r="L158" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A159" s="2"/>
+      <c r="A159" s="101"/>
       <c r="B159" s="3">
         <v>155</v>
       </c>
@@ -38261,16 +39157,20 @@
       <c r="G159" s="2" t="s">
         <v>1964</v>
       </c>
-      <c r="H159" s="2"/>
+      <c r="H159" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I159" s="2"/>
       <c r="J159" s="2" t="s">
         <v>1962</v>
       </c>
       <c r="K159" s="2"/>
-      <c r="L159" s="2"/>
+      <c r="L159" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A160" s="2"/>
+      <c r="A160" s="101"/>
       <c r="B160" s="3">
         <v>156</v>
       </c>
@@ -38283,16 +39183,20 @@
       <c r="G160" s="2" t="s">
         <v>1966</v>
       </c>
-      <c r="H160" s="2"/>
+      <c r="H160" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I160" s="2"/>
       <c r="J160" s="2" t="s">
         <v>1967</v>
       </c>
       <c r="K160" s="2"/>
-      <c r="L160" s="2"/>
+      <c r="L160" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A161" s="2"/>
+      <c r="A161" s="101"/>
       <c r="B161" s="3">
         <v>157</v>
       </c>
@@ -38305,16 +39209,20 @@
       <c r="G161" s="2" t="s">
         <v>1969</v>
       </c>
-      <c r="H161" s="2"/>
+      <c r="H161" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I161" s="2"/>
       <c r="J161" s="2" t="s">
         <v>1970</v>
       </c>
       <c r="K161" s="2"/>
-      <c r="L161" s="2"/>
+      <c r="L161" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A162" s="2"/>
+      <c r="A162" s="101"/>
       <c r="B162" s="3">
         <v>158</v>
       </c>
@@ -38324,28 +39232,46 @@
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
+      <c r="G162" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I162" s="2"/>
-      <c r="J162" s="2"/>
+      <c r="J162" s="2" t="s">
+        <v>1973</v>
+      </c>
       <c r="K162" s="2"/>
-      <c r="L162" s="2"/>
+      <c r="L162" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A163" s="2"/>
+      <c r="A163" s="101"/>
       <c r="B163" s="3">
         <v>159</v>
       </c>
-      <c r="C163" s="2"/>
+      <c r="C163" s="2" t="s">
+        <v>1974</v>
+      </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
-      <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
+      <c r="G163" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I163" s="2"/>
-      <c r="J163" s="2"/>
+      <c r="J163" s="2" t="s">
+        <v>1976</v>
+      </c>
       <c r="K163" s="2"/>
-      <c r="L163" s="2"/>
+      <c r="L163" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="2"/>
@@ -39338,6 +40264,937 @@
       <c r="J225" s="2"/>
       <c r="K225" s="2"/>
       <c r="L225" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="6.36328125" customWidth="1"/>
+    <col min="3" max="3" width="40.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" customWidth="1"/>
+    <col min="6" max="6" width="5.90625" customWidth="1"/>
+    <col min="7" max="7" width="22.7265625" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="20.1796875" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" customWidth="1"/>
+    <col min="12" max="12" width="17.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="104" t="s">
+        <v>536</v>
+      </c>
+      <c r="C1" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="103" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G1" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="88" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="88"/>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>2022</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>2023</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="88"/>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>1772</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="88"/>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>2024</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="88"/>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>2026</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>2027</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="88"/>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>2029</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="88"/>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>2030</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="88"/>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>1888</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="88"/>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>2034</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="88"/>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>2036</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="88"/>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>2037</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="88"/>
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="88"/>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>2041</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="88"/>
+      <c r="B15" s="3">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="88"/>
+      <c r="B16" s="3">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>1784</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="88"/>
+      <c r="B17" s="3">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="106" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B18" s="3">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>2046</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="106"/>
+      <c r="B19" s="3">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="106"/>
+      <c r="B20" s="3">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="106"/>
+      <c r="B21" s="3">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>2049</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="106"/>
+      <c r="B22" s="3">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="106"/>
+      <c r="B23" s="3">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>2052</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>2053</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="106"/>
+      <c r="B24" s="3">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>2054</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="106"/>
+      <c r="B25" s="3">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2" t="s">
+        <v>2029</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="106"/>
+      <c r="B26" s="3">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>2055</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="106"/>
+      <c r="B27" s="3">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>2055</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>2056</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="106"/>
+      <c r="B28" s="3">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>2055</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>2057</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="106"/>
+      <c r="B29" s="3">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>2055</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3">
+        <v>35</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3">
+        <v>37</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3">
+        <v>39</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3">
+        <v>40</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3">
+        <v>41</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3">
+        <v>42</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3">
+        <v>43</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1">
@@ -39357,17 +41214,16 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Ophir Post Excel Pos For Marketing.xlsx
+++ b/Ophir Post Excel Pos For Marketing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="140" windowWidth="15000" windowHeight="4670" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="140" windowWidth="15000" windowHeight="4670"/>
   </bookViews>
   <sheets>
     <sheet name="Old" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6127" uniqueCount="2058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6155" uniqueCount="2058">
   <si>
     <t>Date</t>
   </si>
@@ -7482,8 +7482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M691"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="K222" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="K207" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K695" sqref="K695"/>
@@ -28168,7 +28168,7 @@
   <dimension ref="A1:L353"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K180" sqref="K180"/>
     </sheetView>
   </sheetViews>
@@ -35147,7 +35147,7 @@
   <dimension ref="A1:L225"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
@@ -40291,8 +40291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40366,7 +40366,9 @@
         <v>1168</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="L2" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="88"/>
@@ -40388,7 +40390,9 @@
         <v>2023</v>
       </c>
       <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="L3" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="88"/>
@@ -40410,7 +40414,9 @@
         <v>1123</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="L4" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="88"/>
@@ -40432,7 +40438,9 @@
         <v>2024</v>
       </c>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="L5" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="88"/>
@@ -40454,7 +40462,9 @@
         <v>2027</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="L6" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="88"/>
@@ -40476,7 +40486,9 @@
         <v>2029</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="L7" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="88"/>
@@ -40498,7 +40510,9 @@
         <v>2031</v>
       </c>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="L8" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="88"/>
@@ -40520,7 +40534,9 @@
         <v>1888</v>
       </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="L9" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="88"/>
@@ -40542,7 +40558,9 @@
         <v>2034</v>
       </c>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="L10" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="88"/>
@@ -40564,7 +40582,9 @@
         <v>2036</v>
       </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="L11" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="88"/>
@@ -40586,7 +40606,9 @@
         <v>2037</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="L12" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="88"/>
@@ -40608,7 +40630,9 @@
         <v>2040</v>
       </c>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="L13" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="88"/>
@@ -40630,7 +40654,9 @@
         <v>2041</v>
       </c>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="L14" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="88"/>
@@ -40652,7 +40678,9 @@
         <v>1527</v>
       </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="L15" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="88"/>
@@ -40674,7 +40702,9 @@
         <v>2042</v>
       </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="L16" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="88"/>
@@ -40694,7 +40724,9 @@
         <v>2043</v>
       </c>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="L17" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="106" t="s">
@@ -40718,7 +40750,9 @@
         <v>2046</v>
       </c>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="L18" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="106"/>
@@ -40740,7 +40774,9 @@
         <v>1051</v>
       </c>
       <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="L19" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="106"/>
@@ -40762,7 +40798,9 @@
         <v>2048</v>
       </c>
       <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="L20" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="106"/>
@@ -40782,7 +40820,9 @@
         <v>2049</v>
       </c>
       <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="L21" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="106"/>
@@ -40804,7 +40844,9 @@
         <v>370</v>
       </c>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="L22" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="106"/>
@@ -40826,7 +40868,9 @@
         <v>2053</v>
       </c>
       <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="L23" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="106"/>
@@ -40846,7 +40890,9 @@
         <v>2054</v>
       </c>
       <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="L24" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="106"/>
@@ -40866,7 +40912,9 @@
         <v>2029</v>
       </c>
       <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="L25" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="106"/>
@@ -40888,7 +40936,9 @@
         <v>1012</v>
       </c>
       <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="L26" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="106"/>
@@ -40910,7 +40960,9 @@
         <v>2056</v>
       </c>
       <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="L27" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="106"/>
@@ -40932,7 +40984,9 @@
         <v>2057</v>
       </c>
       <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="L28" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="106"/>
@@ -40954,7 +41008,9 @@
         <v>370</v>
       </c>
       <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+      <c r="L29" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
@@ -41221,8 +41277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>

--- a/Ophir Post Excel Pos For Marketing.xlsx
+++ b/Ophir Post Excel Pos For Marketing.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thitl\OneDrive\Desktop\Pos-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ophir POS\Desktop\Pos-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="140" windowWidth="15000" windowHeight="4670"/>
+    <workbookView xWindow="120" yWindow="140" windowWidth="15000" windowHeight="4670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Old" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6155" uniqueCount="2058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6315" uniqueCount="2150">
   <si>
     <t>Date</t>
   </si>
@@ -6213,6 +6213,282 @@
   </si>
   <si>
     <t>09-777772596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ခရေဇီလမ်းမူကထနှင့် ဟော့ပေါ့ </t>
+  </si>
+  <si>
+    <t>အမှတ် ၁၂၃၇ လှော်ကားလမ်း မြရတနာလမ်းထောင့်</t>
+  </si>
+  <si>
+    <t>09-401925669</t>
+  </si>
+  <si>
+    <t>ဖိုးချမ်း Thai Food and Drink</t>
+  </si>
+  <si>
+    <t>09-769445526</t>
+  </si>
+  <si>
+    <t>29.1.24</t>
+  </si>
+  <si>
+    <t>Sky Res</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အမှတ် ၁၀/၄၀ ကြို့ကုန်းလမ်း အင်းစိန်လမ်းမပေါ် </t>
+  </si>
+  <si>
+    <t>09-421029742</t>
+  </si>
+  <si>
+    <t>M-Thai Res</t>
+  </si>
+  <si>
+    <t>အမှတ် ၅၅ မဟာသုခိတာလမ်း အင်းစိန် အရှေ့ကြို့ကုန်း</t>
+  </si>
+  <si>
+    <t>09-890495343</t>
+  </si>
+  <si>
+    <t>ရှီ ချစ်တီးထမင်းဆိုင်</t>
+  </si>
+  <si>
+    <t>အမှတ် ၇ အ‌ရှေ့ကြို့ကုန်း အင်းစိန်</t>
+  </si>
+  <si>
+    <t>09-404002211</t>
+  </si>
+  <si>
+    <t>Green Res</t>
+  </si>
+  <si>
+    <t>အရှေ့ကြို့ကုန်း အင်းစိန်</t>
+  </si>
+  <si>
+    <t>09-770725084</t>
+  </si>
+  <si>
+    <t>Good Day Tea Food</t>
+  </si>
+  <si>
+    <t>အမှတ် ၁၂၇ မဟာသုခိတလမ်း အင်းစိန် အရှေ့ကြို့ကုန်း ၄လမ်း</t>
+  </si>
+  <si>
+    <t>R-Guu Food</t>
+  </si>
+  <si>
+    <t>အမှတ် ၃၆၇ ၂လမ်းမြောက် အရှေ့ကြို့ကုန်း အင်းစိန်</t>
+  </si>
+  <si>
+    <t>09-954616661-960712136</t>
+  </si>
+  <si>
+    <t>09-425029297-769090865</t>
+  </si>
+  <si>
+    <t>21 Bar and Res</t>
+  </si>
+  <si>
+    <t>အမှတ် ၂၁ ရန်ကုန် အင်းစိန်လမ်းမကြီး ကြို့ကုန်းမှတ်တိုင်အနီး</t>
+  </si>
+  <si>
+    <t>09-895351050-756305831</t>
+  </si>
+  <si>
+    <t>ရွှေကံကော်</t>
+  </si>
+  <si>
+    <t>အမှတ် ၃၆၇ မဟာသုခိတာလမ်း ၂မြောက် အရှေ့ကြို့ကုန်း အင်းစိန်</t>
+  </si>
+  <si>
+    <t>09-457880399-756305831</t>
+  </si>
+  <si>
+    <t>ဟိန်းစားဖွယ်စုံ</t>
+  </si>
+  <si>
+    <t>အမှတ် ၁၁၅ မြေညီထပ် အင်းစိန်လမ်းမကြီး လှိုင်မြို့နယ်</t>
+  </si>
+  <si>
+    <t>09-400508191-763683140</t>
+  </si>
+  <si>
+    <t>အမှတ် ၆၈ အင်းစိန်လမ်းမကြီး လှိုင်မြို့</t>
+  </si>
+  <si>
+    <t>09-5111735-763687556   01-521479</t>
+  </si>
+  <si>
+    <t>Oo Sald Bar</t>
+  </si>
+  <si>
+    <t>No 50 Ywar Ma Kyaung Street , Hlaing Township</t>
+  </si>
+  <si>
+    <t>09-887608050</t>
+  </si>
+  <si>
+    <t>အမှတ်(၈/၁၂-အေ) ရွှာမကျောင်းလမ်း ၁ရပ်ကွက် လှိုင်မြို့</t>
+  </si>
+  <si>
+    <t>09-750085558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Zone </t>
+  </si>
+  <si>
+    <t>လှိုင်မြို့နယ် ရွှာမကျောင်းလမ်း</t>
+  </si>
+  <si>
+    <t>09-424215544</t>
+  </si>
+  <si>
+    <t>ရသာ ၂ ကြေးအိုးတရုတ်အစားစာ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အမှတ် ၂ အင်းစိန် လမ်းမကြီး </t>
+  </si>
+  <si>
+    <t>09-428165679</t>
+  </si>
+  <si>
+    <t>Bo Bo Bar</t>
+  </si>
+  <si>
+    <t>အမှတ် ၂၈/၃၀ ရွှာမကျောင်းလမ်း ၁ရပ်ကွက် လှိုင်မြို့</t>
+  </si>
+  <si>
+    <t>09-780574712</t>
+  </si>
+  <si>
+    <t>ကမ်းရိုးတန်းပင်လယ်စာစားသောက်ဆိုင်</t>
+  </si>
+  <si>
+    <t>အမှတ် ၆၆ ရွှာမကျောင်းလမ်း လှိုင်မြို့</t>
+  </si>
+  <si>
+    <t>09-5084017</t>
+  </si>
+  <si>
+    <t>30.1.24</t>
+  </si>
+  <si>
+    <t>Dao Hotpot</t>
+  </si>
+  <si>
+    <t>Kabar Aye Bagoda Street , Ygn</t>
+  </si>
+  <si>
+    <t>09-955447888</t>
+  </si>
+  <si>
+    <t>Shwe Lar Hot Pot</t>
+  </si>
+  <si>
+    <t>09-752389588</t>
+  </si>
+  <si>
+    <t>တိုင်းရင်းသား စားသောက်ဆိုင်</t>
+  </si>
+  <si>
+    <t>Kaung Kaung Malar Shan Kaw</t>
+  </si>
+  <si>
+    <t>09-5149822</t>
+  </si>
+  <si>
+    <t>Shwe pa Lin</t>
+  </si>
+  <si>
+    <t>09-451187771</t>
+  </si>
+  <si>
+    <t>Solan India Food</t>
+  </si>
+  <si>
+    <t>09-250172849</t>
+  </si>
+  <si>
+    <t>Café Kabarage</t>
+  </si>
+  <si>
+    <t>09-777758914</t>
+  </si>
+  <si>
+    <t>Yunan Barbecue</t>
+  </si>
+  <si>
+    <t>09-5019920</t>
+  </si>
+  <si>
+    <t>09-420280349</t>
+  </si>
+  <si>
+    <t>Master Cool Chinese BBQ</t>
+  </si>
+  <si>
+    <t>09-667564999</t>
+  </si>
+  <si>
+    <t>Hana Café &amp; Sncak</t>
+  </si>
+  <si>
+    <t>09-974051149</t>
+  </si>
+  <si>
+    <t>YuKi MUGi</t>
+  </si>
+  <si>
+    <t>No 7-8 KabarAye Bagoda Street , Ygn</t>
+  </si>
+  <si>
+    <t>09-760654602</t>
+  </si>
+  <si>
+    <t>Another Club</t>
+  </si>
+  <si>
+    <t>No 7/A -8/A KabarAye Bagoda Street , ygn</t>
+  </si>
+  <si>
+    <t>09-963320000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Café' Dibar </t>
+  </si>
+  <si>
+    <t>09-5006143</t>
+  </si>
+  <si>
+    <t>The Lankern</t>
+  </si>
+  <si>
+    <t>No 192 KabarAye Bagoda Street , Ygn</t>
+  </si>
+  <si>
+    <t>No-9 KabarBagoda Street , Ygn</t>
+  </si>
+  <si>
+    <t>01-9345000</t>
+  </si>
+  <si>
+    <t>Fu San Res</t>
+  </si>
+  <si>
+    <t>No No 160 KabarAye Bagoda Street , Ygn</t>
+  </si>
+  <si>
+    <t>09-776617711</t>
+  </si>
+  <si>
+    <t>Pwint Thit San</t>
+  </si>
+  <si>
+    <t>No 520/A3 KabarAye Bagoda Street , Ygn</t>
+  </si>
+  <si>
+    <t>09-262556635</t>
   </si>
 </sst>
 </file>
@@ -7482,8 +7758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M691"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="K207" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="K495" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K695" sqref="K695"/>
@@ -28167,9 +28443,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L353"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K180" sqref="K180"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H196" sqref="H196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32616,276 +32892,414 @@
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A180" s="2"/>
+      <c r="A180" s="106" t="s">
+        <v>2110</v>
+      </c>
       <c r="B180" s="53">
         <v>179</v>
       </c>
-      <c r="C180" s="2"/>
+      <c r="C180" s="2" t="s">
+        <v>2111</v>
+      </c>
       <c r="D180" s="3"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
+      <c r="G180" s="2" t="s">
+        <v>2112</v>
+      </c>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
-      <c r="J180" s="2"/>
+      <c r="J180" s="2" t="s">
+        <v>2113</v>
+      </c>
       <c r="K180" s="2"/>
-      <c r="L180" s="2"/>
+      <c r="L180" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A181" s="2"/>
+      <c r="A181" s="106"/>
       <c r="B181" s="53">
         <v>180</v>
       </c>
-      <c r="C181" s="2"/>
+      <c r="C181" s="2" t="s">
+        <v>2114</v>
+      </c>
       <c r="D181" s="3"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
+      <c r="G181" s="2" t="s">
+        <v>2112</v>
+      </c>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
-      <c r="J181" s="2"/>
+      <c r="J181" s="2" t="s">
+        <v>2115</v>
+      </c>
       <c r="K181" s="2"/>
-      <c r="L181" s="2"/>
+      <c r="L181" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A182" s="2"/>
+      <c r="A182" s="106"/>
       <c r="B182" s="53">
         <v>181</v>
       </c>
-      <c r="C182" s="2"/>
+      <c r="C182" s="2" t="s">
+        <v>2116</v>
+      </c>
       <c r="D182" s="3"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
-      <c r="G182" s="2"/>
+      <c r="G182" s="2" t="s">
+        <v>2112</v>
+      </c>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
-      <c r="J182" s="2"/>
+      <c r="J182" s="2" t="s">
+        <v>958</v>
+      </c>
       <c r="K182" s="2"/>
-      <c r="L182" s="2"/>
+      <c r="L182" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A183" s="2"/>
+      <c r="A183" s="106"/>
       <c r="B183" s="53">
         <v>182</v>
       </c>
-      <c r="C183" s="2"/>
+      <c r="C183" s="2" t="s">
+        <v>2117</v>
+      </c>
       <c r="D183" s="3"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
+      <c r="G183" s="2" t="s">
+        <v>2112</v>
+      </c>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
-      <c r="J183" s="2"/>
+      <c r="J183" s="2" t="s">
+        <v>2118</v>
+      </c>
       <c r="K183" s="2"/>
-      <c r="L183" s="2"/>
+      <c r="L183" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A184" s="2"/>
+      <c r="A184" s="106"/>
       <c r="B184" s="53">
         <v>183</v>
       </c>
-      <c r="C184" s="2"/>
+      <c r="C184" s="2" t="s">
+        <v>2119</v>
+      </c>
       <c r="D184" s="3"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
-      <c r="G184" s="2"/>
+      <c r="G184" s="2" t="s">
+        <v>2112</v>
+      </c>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
-      <c r="J184" s="2"/>
+      <c r="J184" s="2" t="s">
+        <v>2120</v>
+      </c>
       <c r="K184" s="2"/>
-      <c r="L184" s="2"/>
+      <c r="L184" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A185" s="2"/>
+      <c r="A185" s="106"/>
       <c r="B185" s="53">
         <v>184</v>
       </c>
-      <c r="C185" s="2"/>
+      <c r="C185" s="2" t="s">
+        <v>2121</v>
+      </c>
       <c r="D185" s="3"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
+      <c r="G185" s="2" t="s">
+        <v>2112</v>
+      </c>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
-      <c r="J185" s="2"/>
+      <c r="J185" s="2" t="s">
+        <v>2122</v>
+      </c>
       <c r="K185" s="2"/>
-      <c r="L185" s="2"/>
+      <c r="L185" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A186" s="2"/>
+      <c r="A186" s="106"/>
       <c r="B186" s="53">
         <v>185</v>
       </c>
-      <c r="C186" s="2"/>
+      <c r="C186" s="2" t="s">
+        <v>2123</v>
+      </c>
       <c r="D186" s="3"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
-      <c r="G186" s="2"/>
+      <c r="G186" s="2" t="s">
+        <v>2112</v>
+      </c>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
-      <c r="J186" s="2"/>
+      <c r="J186" s="2" t="s">
+        <v>2124</v>
+      </c>
       <c r="K186" s="2"/>
-      <c r="L186" s="2"/>
+      <c r="L186" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A187" s="2"/>
+      <c r="A187" s="106"/>
       <c r="B187" s="53">
         <v>186</v>
       </c>
-      <c r="C187" s="2"/>
+      <c r="C187" s="2" t="s">
+        <v>2125</v>
+      </c>
       <c r="D187" s="3"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
-      <c r="G187" s="2"/>
+      <c r="G187" s="2" t="s">
+        <v>2112</v>
+      </c>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
-      <c r="J187" s="2"/>
+      <c r="J187" s="2" t="s">
+        <v>2126</v>
+      </c>
       <c r="K187" s="2"/>
-      <c r="L187" s="2"/>
+      <c r="L187" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A188" s="2"/>
+      <c r="A188" s="106"/>
       <c r="B188" s="53">
         <v>187</v>
       </c>
-      <c r="C188" s="2"/>
+      <c r="C188" s="2" t="s">
+        <v>1861</v>
+      </c>
       <c r="D188" s="3"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
+      <c r="G188" s="2" t="s">
+        <v>2112</v>
+      </c>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
-      <c r="J188" s="2"/>
+      <c r="J188" s="2" t="s">
+        <v>2127</v>
+      </c>
       <c r="K188" s="2"/>
-      <c r="L188" s="2"/>
+      <c r="L188" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A189" s="2"/>
+      <c r="A189" s="106"/>
       <c r="B189" s="53">
         <v>188</v>
       </c>
-      <c r="C189" s="2"/>
+      <c r="C189" s="2" t="s">
+        <v>2128</v>
+      </c>
       <c r="D189" s="3"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
-      <c r="G189" s="2"/>
+      <c r="G189" s="2" t="s">
+        <v>2112</v>
+      </c>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
-      <c r="J189" s="2"/>
+      <c r="J189" s="2" t="s">
+        <v>2129</v>
+      </c>
       <c r="K189" s="2"/>
-      <c r="L189" s="2"/>
+      <c r="L189" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A190" s="2"/>
+      <c r="A190" s="106"/>
       <c r="B190" s="53">
         <v>189</v>
       </c>
-      <c r="C190" s="2"/>
+      <c r="C190" s="2" t="s">
+        <v>2130</v>
+      </c>
       <c r="D190" s="3"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
-      <c r="G190" s="2"/>
+      <c r="G190" s="2" t="s">
+        <v>2112</v>
+      </c>
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
-      <c r="J190" s="2"/>
+      <c r="J190" s="2" t="s">
+        <v>2131</v>
+      </c>
       <c r="K190" s="2"/>
-      <c r="L190" s="2"/>
+      <c r="L190" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A191" s="2"/>
+      <c r="A191" s="106"/>
       <c r="B191" s="53">
         <v>190</v>
       </c>
-      <c r="C191" s="2"/>
+      <c r="C191" s="2" t="s">
+        <v>2132</v>
+      </c>
       <c r="D191" s="3"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
+      <c r="G191" s="2" t="s">
+        <v>2133</v>
+      </c>
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
-      <c r="J191" s="2"/>
+      <c r="J191" s="2" t="s">
+        <v>2134</v>
+      </c>
       <c r="K191" s="2"/>
-      <c r="L191" s="2"/>
+      <c r="L191" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A192" s="2"/>
+      <c r="A192" s="106"/>
       <c r="B192" s="53">
         <v>191</v>
       </c>
-      <c r="C192" s="2"/>
+      <c r="C192" s="2" t="s">
+        <v>2135</v>
+      </c>
       <c r="D192" s="3"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
-      <c r="G192" s="2"/>
+      <c r="G192" s="2" t="s">
+        <v>2136</v>
+      </c>
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
-      <c r="J192" s="2"/>
+      <c r="J192" s="2" t="s">
+        <v>2137</v>
+      </c>
       <c r="K192" s="2"/>
-      <c r="L192" s="2"/>
+      <c r="L192" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A193" s="2"/>
+      <c r="A193" s="106"/>
       <c r="B193" s="53">
         <v>192</v>
       </c>
-      <c r="C193" s="2"/>
+      <c r="C193" s="2" t="s">
+        <v>2138</v>
+      </c>
       <c r="D193" s="3"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
-      <c r="G193" s="2"/>
+      <c r="G193" s="2" t="s">
+        <v>2142</v>
+      </c>
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
-      <c r="J193" s="2"/>
+      <c r="J193" s="2" t="s">
+        <v>2139</v>
+      </c>
       <c r="K193" s="2"/>
-      <c r="L193" s="2"/>
+      <c r="L193" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A194" s="2"/>
+      <c r="A194" s="106"/>
       <c r="B194" s="53">
         <v>193</v>
       </c>
-      <c r="C194" s="2"/>
+      <c r="C194" s="2" t="s">
+        <v>2140</v>
+      </c>
       <c r="D194" s="3"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
-      <c r="G194" s="2"/>
+      <c r="G194" s="2" t="s">
+        <v>2141</v>
+      </c>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
-      <c r="J194" s="2"/>
+      <c r="J194" s="2" t="s">
+        <v>2143</v>
+      </c>
       <c r="K194" s="2"/>
-      <c r="L194" s="2"/>
+      <c r="L194" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A195" s="2"/>
+      <c r="A195" s="106"/>
       <c r="B195" s="53">
         <v>194</v>
       </c>
-      <c r="C195" s="2"/>
+      <c r="C195" s="2" t="s">
+        <v>2144</v>
+      </c>
       <c r="D195" s="3"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
-      <c r="G195" s="2"/>
+      <c r="G195" s="2" t="s">
+        <v>2145</v>
+      </c>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
-      <c r="J195" s="2"/>
+      <c r="J195" s="2" t="s">
+        <v>2146</v>
+      </c>
       <c r="K195" s="2"/>
-      <c r="L195" s="2"/>
+      <c r="L195" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A196" s="2"/>
+      <c r="A196" s="106"/>
       <c r="B196" s="53">
         <v>195</v>
       </c>
-      <c r="C196" s="2"/>
+      <c r="C196" s="2" t="s">
+        <v>2147</v>
+      </c>
       <c r="D196" s="3"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
-      <c r="G196" s="2"/>
+      <c r="G196" s="2" t="s">
+        <v>2148</v>
+      </c>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
-      <c r="J196" s="2"/>
+      <c r="J196" s="2" t="s">
+        <v>2149</v>
+      </c>
       <c r="K196" s="2"/>
-      <c r="L196" s="2"/>
+      <c r="L196" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" s="2"/>
@@ -35146,9 +35560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G173" sqref="G173"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J183" sqref="J183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39274,292 +39688,474 @@
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A164" s="2"/>
+      <c r="A164" s="85"/>
       <c r="B164" s="3">
         <v>160</v>
       </c>
-      <c r="C164" s="2"/>
+      <c r="C164" s="2" t="s">
+        <v>2058</v>
+      </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
+      <c r="G164" s="2" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I164" s="2"/>
-      <c r="J164" s="2"/>
+      <c r="J164" s="2" t="s">
+        <v>2060</v>
+      </c>
       <c r="K164" s="2"/>
-      <c r="L164" s="2"/>
+      <c r="L164" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A165" s="2"/>
+      <c r="A165" s="85"/>
       <c r="B165" s="3">
         <v>161</v>
       </c>
-      <c r="C165" s="2"/>
+      <c r="C165" s="2" t="s">
+        <v>2061</v>
+      </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
+      <c r="G165" s="2" t="s">
+        <v>1941</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I165" s="2"/>
-      <c r="J165" s="2"/>
+      <c r="J165" s="2" t="s">
+        <v>2062</v>
+      </c>
       <c r="K165" s="2"/>
-      <c r="L165" s="2"/>
+      <c r="L165" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A166" s="2"/>
+      <c r="A166" s="91" t="s">
+        <v>2063</v>
+      </c>
       <c r="B166" s="3">
         <v>162</v>
       </c>
-      <c r="C166" s="2"/>
+      <c r="C166" s="2" t="s">
+        <v>2064</v>
+      </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
+      <c r="G166" s="2" t="s">
+        <v>2065</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I166" s="2"/>
-      <c r="J166" s="2"/>
+      <c r="J166" s="2" t="s">
+        <v>2066</v>
+      </c>
       <c r="K166" s="2"/>
-      <c r="L166" s="2"/>
+      <c r="L166" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A167" s="2"/>
+      <c r="A167" s="91"/>
       <c r="B167" s="3">
         <v>163</v>
       </c>
-      <c r="C167" s="2"/>
+      <c r="C167" s="2" t="s">
+        <v>2067</v>
+      </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
+      <c r="G167" s="2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I167" s="2"/>
-      <c r="J167" s="2"/>
+      <c r="J167" s="2" t="s">
+        <v>2069</v>
+      </c>
       <c r="K167" s="2"/>
-      <c r="L167" s="2"/>
+      <c r="L167" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A168" s="2"/>
+      <c r="A168" s="91"/>
       <c r="B168" s="3">
         <v>164</v>
       </c>
-      <c r="C168" s="2"/>
+      <c r="C168" s="2" t="s">
+        <v>2070</v>
+      </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
+      <c r="G168" s="2" t="s">
+        <v>2071</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I168" s="2"/>
-      <c r="J168" s="2"/>
+      <c r="J168" s="2" t="s">
+        <v>2072</v>
+      </c>
       <c r="K168" s="2"/>
-      <c r="L168" s="2"/>
+      <c r="L168" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A169" s="2"/>
+      <c r="A169" s="91"/>
       <c r="B169" s="3">
         <v>165</v>
       </c>
-      <c r="C169" s="2"/>
+      <c r="C169" s="2" t="s">
+        <v>2073</v>
+      </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
+      <c r="G169" s="2" t="s">
+        <v>2074</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I169" s="2"/>
-      <c r="J169" s="2"/>
+      <c r="J169" s="2" t="s">
+        <v>2075</v>
+      </c>
       <c r="K169" s="2"/>
-      <c r="L169" s="2"/>
+      <c r="L169" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A170" s="2"/>
+      <c r="A170" s="91"/>
       <c r="B170" s="3">
         <v>166</v>
       </c>
-      <c r="C170" s="2"/>
+      <c r="C170" s="2" t="s">
+        <v>2076</v>
+      </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
+      <c r="G170" s="2" t="s">
+        <v>2077</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I170" s="2"/>
-      <c r="J170" s="2"/>
+      <c r="J170" s="2" t="s">
+        <v>2081</v>
+      </c>
       <c r="K170" s="2"/>
-      <c r="L170" s="2"/>
+      <c r="L170" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A171" s="2"/>
+      <c r="A171" s="91"/>
       <c r="B171" s="3">
         <v>167</v>
       </c>
-      <c r="C171" s="2"/>
+      <c r="C171" s="2" t="s">
+        <v>2078</v>
+      </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
+      <c r="G171" s="2" t="s">
+        <v>2079</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I171" s="2"/>
-      <c r="J171" s="2"/>
+      <c r="J171" s="2" t="s">
+        <v>2080</v>
+      </c>
       <c r="K171" s="2"/>
-      <c r="L171" s="2"/>
+      <c r="L171" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A172" s="2"/>
+      <c r="A172" s="91"/>
       <c r="B172" s="3">
         <v>168</v>
       </c>
-      <c r="C172" s="2"/>
+      <c r="C172" s="2" t="s">
+        <v>2082</v>
+      </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
+      <c r="G172" s="2" t="s">
+        <v>2083</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I172" s="2"/>
-      <c r="J172" s="2"/>
+      <c r="J172" s="2" t="s">
+        <v>2084</v>
+      </c>
       <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
+      <c r="L172" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A173" s="2"/>
+      <c r="A173" s="91"/>
       <c r="B173" s="3">
         <v>169</v>
       </c>
-      <c r="C173" s="2"/>
+      <c r="C173" s="2" t="s">
+        <v>2085</v>
+      </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
+      <c r="G173" s="2" t="s">
+        <v>2086</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I173" s="2"/>
-      <c r="J173" s="2"/>
+      <c r="J173" s="2" t="s">
+        <v>2087</v>
+      </c>
       <c r="K173" s="2"/>
-      <c r="L173" s="2"/>
+      <c r="L173" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A174" s="2"/>
+      <c r="A174" s="91"/>
       <c r="B174" s="3">
         <v>170</v>
       </c>
-      <c r="C174" s="2"/>
+      <c r="C174" s="2" t="s">
+        <v>2088</v>
+      </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
+      <c r="G174" s="2" t="s">
+        <v>2089</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
+      <c r="J174" s="2" t="s">
+        <v>2090</v>
+      </c>
       <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
+      <c r="L174" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A175" s="2"/>
+      <c r="A175" s="91"/>
       <c r="B175" s="3">
         <v>171</v>
       </c>
-      <c r="C175" s="2"/>
+      <c r="C175" s="2" t="s">
+        <v>1682</v>
+      </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
+      <c r="G175" s="2" t="s">
+        <v>2091</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I175" s="2"/>
-      <c r="J175" s="2"/>
+      <c r="J175" s="2" t="s">
+        <v>2092</v>
+      </c>
       <c r="K175" s="2"/>
-      <c r="L175" s="2"/>
+      <c r="L175" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A176" s="2"/>
+      <c r="A176" s="91"/>
       <c r="B176" s="3">
         <v>172</v>
       </c>
-      <c r="C176" s="2"/>
+      <c r="C176" s="2" t="s">
+        <v>2093</v>
+      </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
+      <c r="G176" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I176" s="2"/>
-      <c r="J176" s="2"/>
+      <c r="J176" s="2" t="s">
+        <v>2095</v>
+      </c>
       <c r="K176" s="2"/>
-      <c r="L176" s="2"/>
+      <c r="L176" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A177" s="2"/>
+      <c r="A177" s="91"/>
       <c r="B177" s="3">
         <v>173</v>
       </c>
-      <c r="C177" s="2"/>
+      <c r="C177" s="2" t="s">
+        <v>1417</v>
+      </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
+      <c r="G177" s="2" t="s">
+        <v>2096</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I177" s="2"/>
-      <c r="J177" s="2"/>
+      <c r="J177" s="2" t="s">
+        <v>2097</v>
+      </c>
       <c r="K177" s="2"/>
-      <c r="L177" s="2"/>
+      <c r="L177" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A178" s="2"/>
+      <c r="A178" s="91"/>
       <c r="B178" s="3">
         <v>174</v>
       </c>
-      <c r="C178" s="2"/>
+      <c r="C178" s="2" t="s">
+        <v>2098</v>
+      </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
+      <c r="G178" s="2" t="s">
+        <v>2099</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>1297</v>
+      </c>
       <c r="I178" s="2"/>
-      <c r="J178" s="2"/>
+      <c r="J178" s="2" t="s">
+        <v>2100</v>
+      </c>
       <c r="K178" s="2"/>
-      <c r="L178" s="2"/>
+      <c r="L178" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A179" s="2"/>
+      <c r="A179" s="91"/>
       <c r="B179" s="3">
         <v>175</v>
       </c>
-      <c r="C179" s="2"/>
+      <c r="C179" s="2" t="s">
+        <v>2101</v>
+      </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
+      <c r="G179" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I179" s="2"/>
-      <c r="J179" s="2"/>
+      <c r="J179" s="2" t="s">
+        <v>2103</v>
+      </c>
       <c r="K179" s="2"/>
-      <c r="L179" s="2"/>
+      <c r="L179" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A180" s="2"/>
+      <c r="A180" s="91"/>
       <c r="B180" s="3">
         <v>176</v>
       </c>
-      <c r="C180" s="2"/>
+      <c r="C180" s="2" t="s">
+        <v>2104</v>
+      </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2"/>
+      <c r="G180" s="2" t="s">
+        <v>2105</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I180" s="2"/>
-      <c r="J180" s="2"/>
+      <c r="J180" s="2" t="s">
+        <v>2106</v>
+      </c>
       <c r="K180" s="2"/>
-      <c r="L180" s="2"/>
+      <c r="L180" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A181" s="2"/>
+      <c r="A181" s="91"/>
       <c r="B181" s="3">
         <v>177</v>
       </c>
-      <c r="C181" s="2"/>
+      <c r="C181" s="2" t="s">
+        <v>2107</v>
+      </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
-      <c r="H181" s="2"/>
+      <c r="G181" s="2" t="s">
+        <v>2108</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I181" s="2"/>
-      <c r="J181" s="2"/>
+      <c r="J181" s="2" t="s">
+        <v>2109</v>
+      </c>
       <c r="K181" s="2"/>
-      <c r="L181" s="2"/>
+      <c r="L181" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" s="2"/>
@@ -41277,7 +41873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>

--- a/Ophir Post Excel Pos For Marketing.xlsx
+++ b/Ophir Post Excel Pos For Marketing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="140" windowWidth="15000" windowHeight="4670" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="140" windowWidth="15000" windowHeight="4670" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Old" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6315" uniqueCount="2150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6406" uniqueCount="2202">
   <si>
     <t>Date</t>
   </si>
@@ -6489,6 +6489,162 @@
   </si>
   <si>
     <t>09-262556635</t>
+  </si>
+  <si>
+    <t>The Lord</t>
+  </si>
+  <si>
+    <t>အမှတ် ၉၉ အောင်ဇေယျလမ်း ရတနာလမ်းမ‌ ရန်ကင်းမြို့</t>
+  </si>
+  <si>
+    <t>09-444337611</t>
+  </si>
+  <si>
+    <t>Vintage Moe Kaung</t>
+  </si>
+  <si>
+    <t>အမှတ် ၁၁၅ မိုးကောင်းလမ်း ရန်ကင်း</t>
+  </si>
+  <si>
+    <t>09-889988963</t>
+  </si>
+  <si>
+    <t>Golden Cusine</t>
+  </si>
+  <si>
+    <t>အမှတ် ၄၇ မိုးကောင်းလမ်း ၁၄ရပ်ကွက် ရန်ကင်း</t>
+  </si>
+  <si>
+    <t>Haeunade Res</t>
+  </si>
+  <si>
+    <t>NO 3 A AungZayYa Street Yankin</t>
+  </si>
+  <si>
+    <t>09-255586919</t>
+  </si>
+  <si>
+    <t>09-41004911-750104465</t>
+  </si>
+  <si>
+    <t>SeaFood Paragon</t>
+  </si>
+  <si>
+    <t>No 31 A AungZayYa Street Yankin</t>
+  </si>
+  <si>
+    <t>09-798668445</t>
+  </si>
+  <si>
+    <t>Monpuku</t>
+  </si>
+  <si>
+    <t>NO 26/26B AungZayYa Street Yankin</t>
+  </si>
+  <si>
+    <t>09-961555977</t>
+  </si>
+  <si>
+    <t>Slay Bar</t>
+  </si>
+  <si>
+    <t>No 1 ThuKheTar Street , Yankin</t>
+  </si>
+  <si>
+    <t>09-958185142-958185143</t>
+  </si>
+  <si>
+    <t>NO 38B Aye Myint Tar Street Thingangyun</t>
+  </si>
+  <si>
+    <t>09-881660030-952525777</t>
+  </si>
+  <si>
+    <t>Café House</t>
+  </si>
+  <si>
+    <t>NO 38A MoeKaungRoad Yankin</t>
+  </si>
+  <si>
+    <t>09-954742996-459090118</t>
+  </si>
+  <si>
+    <t>Top House</t>
+  </si>
+  <si>
+    <t>No 32A AyeZayYaMOn Street Yankin</t>
+  </si>
+  <si>
+    <t>09-882888315</t>
+  </si>
+  <si>
+    <t>Royal Thai</t>
+  </si>
+  <si>
+    <t>No 40 AungZayYa Street Yankin</t>
+  </si>
+  <si>
+    <t>09-771028002-260249388</t>
+  </si>
+  <si>
+    <t>G-Six Bar</t>
+  </si>
+  <si>
+    <t>No 889 4/6 SouthOakkala</t>
+  </si>
+  <si>
+    <t>09-880575705</t>
+  </si>
+  <si>
+    <t>NO 24 AungZayYa Street Kyouk Kone Ygn</t>
+  </si>
+  <si>
+    <t>09-442555584</t>
+  </si>
+  <si>
+    <t>MK BBQ and Res</t>
+  </si>
+  <si>
+    <t>Moe Kaung Road Yankin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဖက်ထုပ်ဘုရင် </t>
+  </si>
+  <si>
+    <t>အမှတ် ၂၉/က ကျောက်ကုန်းလမ်း ရန်ကင်း</t>
+  </si>
+  <si>
+    <t>09-675492188</t>
+  </si>
+  <si>
+    <t>09-881010055-881010066</t>
+  </si>
+  <si>
+    <t>Kyouk Kone Tea</t>
+  </si>
+  <si>
+    <t>No 99 AungZay Ya Street Kyouk Kone, Yankin</t>
+  </si>
+  <si>
+    <t>09-952192430-259036366</t>
+  </si>
+  <si>
+    <t>DaNu Phyu Daw Saw Ye</t>
+  </si>
+  <si>
+    <t>No 19 Aung Zay Ya Street , Yankin</t>
+  </si>
+  <si>
+    <t>09-404010100-404010200</t>
+  </si>
+  <si>
+    <t>ရှီယမ်ယမ်ထိုင်ဝမ်ဖက်ထုပ်</t>
+  </si>
+  <si>
+    <t>No 20, Aung Zay Ya Street ,kyouk kone, Yankin</t>
+  </si>
+  <si>
+    <t>09-262888818</t>
   </si>
 </sst>
 </file>
@@ -6958,7 +7114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -7222,6 +7378,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -28443,8 +28600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L353"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H196" sqref="H196"/>
     </sheetView>
   </sheetViews>
@@ -35560,9 +35717,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J183" sqref="J183"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E199" sqref="E199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40158,292 +40315,474 @@
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A182" s="2"/>
+      <c r="A182" s="107" t="s">
+        <v>2110</v>
+      </c>
       <c r="B182" s="3">
         <v>178</v>
       </c>
-      <c r="C182" s="2"/>
+      <c r="C182" s="2" t="s">
+        <v>2150</v>
+      </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
-      <c r="G182" s="2"/>
-      <c r="H182" s="2"/>
+      <c r="G182" s="2" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I182" s="2"/>
-      <c r="J182" s="2"/>
+      <c r="J182" s="2" t="s">
+        <v>2152</v>
+      </c>
       <c r="K182" s="2"/>
-      <c r="L182" s="2"/>
+      <c r="L182" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A183" s="2"/>
+      <c r="A183" s="107"/>
       <c r="B183" s="3">
         <v>179</v>
       </c>
-      <c r="C183" s="2"/>
+      <c r="C183" s="2" t="s">
+        <v>2153</v>
+      </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
+      <c r="G183" s="2" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I183" s="2"/>
-      <c r="J183" s="2"/>
+      <c r="J183" s="2" t="s">
+        <v>2155</v>
+      </c>
       <c r="K183" s="2"/>
-      <c r="L183" s="2"/>
+      <c r="L183" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A184" s="2"/>
+      <c r="A184" s="107"/>
       <c r="B184" s="3">
         <v>180</v>
       </c>
-      <c r="C184" s="2"/>
+      <c r="C184" s="2" t="s">
+        <v>2156</v>
+      </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
-      <c r="G184" s="2"/>
-      <c r="H184" s="2"/>
+      <c r="G184" s="2" t="s">
+        <v>2157</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I184" s="2"/>
-      <c r="J184" s="2"/>
+      <c r="J184" s="2" t="s">
+        <v>2161</v>
+      </c>
       <c r="K184" s="2"/>
-      <c r="L184" s="2"/>
+      <c r="L184" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A185" s="2"/>
+      <c r="A185" s="107"/>
       <c r="B185" s="3">
         <v>181</v>
       </c>
-      <c r="C185" s="2"/>
+      <c r="C185" s="2" t="s">
+        <v>2158</v>
+      </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
-      <c r="H185" s="2"/>
+      <c r="G185" s="2" t="s">
+        <v>2159</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I185" s="2"/>
-      <c r="J185" s="2"/>
+      <c r="J185" s="2" t="s">
+        <v>2160</v>
+      </c>
       <c r="K185" s="2"/>
-      <c r="L185" s="2"/>
+      <c r="L185" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A186" s="2"/>
+      <c r="A186" s="107"/>
       <c r="B186" s="3">
         <v>182</v>
       </c>
-      <c r="C186" s="2"/>
+      <c r="C186" s="2" t="s">
+        <v>2162</v>
+      </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
-      <c r="G186" s="2"/>
-      <c r="H186" s="2"/>
+      <c r="G186" s="2" t="s">
+        <v>2163</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I186" s="2"/>
-      <c r="J186" s="2"/>
+      <c r="J186" s="2" t="s">
+        <v>2164</v>
+      </c>
       <c r="K186" s="2"/>
-      <c r="L186" s="2"/>
+      <c r="L186" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A187" s="2"/>
+      <c r="A187" s="107"/>
       <c r="B187" s="3">
         <v>183</v>
       </c>
-      <c r="C187" s="2"/>
+      <c r="C187" s="2" t="s">
+        <v>2165</v>
+      </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
-      <c r="G187" s="2"/>
-      <c r="H187" s="2"/>
+      <c r="G187" s="2" t="s">
+        <v>2166</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I187" s="2"/>
-      <c r="J187" s="2"/>
+      <c r="J187" s="2" t="s">
+        <v>2167</v>
+      </c>
       <c r="K187" s="2"/>
-      <c r="L187" s="2"/>
+      <c r="L187" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A188" s="2"/>
+      <c r="A188" s="107"/>
       <c r="B188" s="3">
         <v>184</v>
       </c>
-      <c r="C188" s="2"/>
+      <c r="C188" s="2" t="s">
+        <v>2168</v>
+      </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
-      <c r="H188" s="2"/>
+      <c r="G188" s="2" t="s">
+        <v>2169</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I188" s="2"/>
-      <c r="J188" s="2"/>
+      <c r="J188" s="2" t="s">
+        <v>2170</v>
+      </c>
       <c r="K188" s="2"/>
-      <c r="L188" s="2"/>
+      <c r="L188" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A189" s="2"/>
+      <c r="A189" s="107"/>
       <c r="B189" s="3">
         <v>185</v>
       </c>
-      <c r="C189" s="2"/>
+      <c r="C189" s="2" t="s">
+        <v>847</v>
+      </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
-      <c r="G189" s="2"/>
-      <c r="H189" s="2"/>
+      <c r="G189" s="2" t="s">
+        <v>2171</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I189" s="2"/>
-      <c r="J189" s="2"/>
+      <c r="J189" s="2" t="s">
+        <v>2172</v>
+      </c>
       <c r="K189" s="2"/>
-      <c r="L189" s="2"/>
+      <c r="L189" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A190" s="2"/>
+      <c r="A190" s="107"/>
       <c r="B190" s="3">
         <v>186</v>
       </c>
-      <c r="C190" s="2"/>
+      <c r="C190" s="2" t="s">
+        <v>2173</v>
+      </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
-      <c r="G190" s="2"/>
-      <c r="H190" s="2"/>
+      <c r="G190" s="2" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I190" s="2"/>
-      <c r="J190" s="2"/>
+      <c r="J190" s="2" t="s">
+        <v>2175</v>
+      </c>
       <c r="K190" s="2"/>
-      <c r="L190" s="2"/>
+      <c r="L190" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A191" s="2"/>
+      <c r="A191" s="107"/>
       <c r="B191" s="3">
         <v>187</v>
       </c>
-      <c r="C191" s="2"/>
+      <c r="C191" s="2" t="s">
+        <v>2176</v>
+      </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
+      <c r="G191" s="2" t="s">
+        <v>2177</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I191" s="2"/>
-      <c r="J191" s="2"/>
+      <c r="J191" s="2" t="s">
+        <v>2178</v>
+      </c>
       <c r="K191" s="2"/>
-      <c r="L191" s="2"/>
+      <c r="L191" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A192" s="2"/>
+      <c r="A192" s="107"/>
       <c r="B192" s="3">
         <v>188</v>
       </c>
-      <c r="C192" s="2"/>
+      <c r="C192" s="2" t="s">
+        <v>2179</v>
+      </c>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
-      <c r="G192" s="2"/>
-      <c r="H192" s="2"/>
+      <c r="G192" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I192" s="2"/>
-      <c r="J192" s="2"/>
+      <c r="J192" s="2" t="s">
+        <v>2181</v>
+      </c>
       <c r="K192" s="2"/>
-      <c r="L192" s="2"/>
+      <c r="L192" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A193" s="2"/>
+      <c r="A193" s="107"/>
       <c r="B193" s="3">
         <v>189</v>
       </c>
-      <c r="C193" s="2"/>
+      <c r="C193" s="2" t="s">
+        <v>2182</v>
+      </c>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
-      <c r="G193" s="2"/>
-      <c r="H193" s="2"/>
+      <c r="G193" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I193" s="2"/>
-      <c r="J193" s="2"/>
+      <c r="J193" s="2" t="s">
+        <v>2184</v>
+      </c>
       <c r="K193" s="2"/>
-      <c r="L193" s="2"/>
+      <c r="L193" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A194" s="2"/>
+      <c r="A194" s="107"/>
       <c r="B194" s="3">
         <v>190</v>
       </c>
-      <c r="C194" s="2"/>
+      <c r="C194" s="2" t="s">
+        <v>1687</v>
+      </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
-      <c r="G194" s="2"/>
-      <c r="H194" s="2"/>
+      <c r="G194" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I194" s="2"/>
-      <c r="J194" s="2"/>
+      <c r="J194" s="2" t="s">
+        <v>2186</v>
+      </c>
       <c r="K194" s="2"/>
-      <c r="L194" s="2"/>
+      <c r="L194" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A195" s="2"/>
+      <c r="A195" s="107"/>
       <c r="B195" s="3">
         <v>191</v>
       </c>
-      <c r="C195" s="2"/>
+      <c r="C195" s="2" t="s">
+        <v>2187</v>
+      </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
-      <c r="G195" s="2"/>
-      <c r="H195" s="2"/>
+      <c r="G195" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I195" s="2"/>
-      <c r="J195" s="2"/>
+      <c r="J195" s="2" t="s">
+        <v>2192</v>
+      </c>
       <c r="K195" s="2"/>
-      <c r="L195" s="2"/>
+      <c r="L195" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A196" s="2"/>
+      <c r="A196" s="107"/>
       <c r="B196" s="3">
         <v>192</v>
       </c>
-      <c r="C196" s="2"/>
+      <c r="C196" s="2" t="s">
+        <v>2189</v>
+      </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
-      <c r="G196" s="2"/>
-      <c r="H196" s="2"/>
+      <c r="G196" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I196" s="2"/>
-      <c r="J196" s="2"/>
+      <c r="J196" s="2" t="s">
+        <v>2191</v>
+      </c>
       <c r="K196" s="2"/>
-      <c r="L196" s="2"/>
+      <c r="L196" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A197" s="2"/>
+      <c r="A197" s="107"/>
       <c r="B197" s="3">
         <v>193</v>
       </c>
-      <c r="C197" s="2"/>
+      <c r="C197" s="2" t="s">
+        <v>2193</v>
+      </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
-      <c r="G197" s="2"/>
-      <c r="H197" s="2"/>
+      <c r="G197" s="2" t="s">
+        <v>2194</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I197" s="2"/>
-      <c r="J197" s="2"/>
+      <c r="J197" s="2" t="s">
+        <v>2195</v>
+      </c>
       <c r="K197" s="2"/>
-      <c r="L197" s="2"/>
+      <c r="L197" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A198" s="2"/>
+      <c r="A198" s="107"/>
       <c r="B198" s="3">
         <v>194</v>
       </c>
-      <c r="C198" s="2"/>
+      <c r="C198" s="2" t="s">
+        <v>2196</v>
+      </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
-      <c r="G198" s="2"/>
-      <c r="H198" s="2"/>
+      <c r="G198" s="2" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I198" s="2"/>
-      <c r="J198" s="2"/>
+      <c r="J198" s="2" t="s">
+        <v>2198</v>
+      </c>
       <c r="K198" s="2"/>
-      <c r="L198" s="2"/>
+      <c r="L198" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A199" s="2"/>
+      <c r="A199" s="107"/>
       <c r="B199" s="3">
         <v>195</v>
       </c>
-      <c r="C199" s="2"/>
+      <c r="C199" s="2" t="s">
+        <v>2199</v>
+      </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
-      <c r="G199" s="2"/>
-      <c r="H199" s="2"/>
+      <c r="G199" s="2" t="s">
+        <v>2200</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I199" s="2"/>
-      <c r="J199" s="2"/>
+      <c r="J199" s="2" t="s">
+        <v>2201</v>
+      </c>
       <c r="K199" s="2"/>
-      <c r="L199" s="2"/>
+      <c r="L199" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" s="2"/>
@@ -40887,7 +41226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>

--- a/Ophir Post Excel Pos For Marketing.xlsx
+++ b/Ophir Post Excel Pos For Marketing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="140" windowWidth="15000" windowHeight="4670" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="140" windowWidth="15000" windowHeight="4670" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Old" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6406" uniqueCount="2202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6427" uniqueCount="2215">
   <si>
     <t>Date</t>
   </si>
@@ -6645,6 +6645,45 @@
   </si>
   <si>
     <t>09-262888818</t>
+  </si>
+  <si>
+    <t>31.2.24</t>
+  </si>
+  <si>
+    <t>Ever Green</t>
+  </si>
+  <si>
+    <t>အမှတ် ၁၀၀ အင်းစိန်လမ်း ခဝဲခြံ ၃ ရပ်ကွက် မရမ်းကုန်း</t>
+  </si>
+  <si>
+    <t>09-257346009</t>
+  </si>
+  <si>
+    <t>The Best Chiice</t>
+  </si>
+  <si>
+    <t>N0 66 10 Ward Hlaing  Tsp</t>
+  </si>
+  <si>
+    <t>09-400888605</t>
+  </si>
+  <si>
+    <t>777 Res</t>
+  </si>
+  <si>
+    <t>အမှတ် ၅၈ ကံလမ်း လှိုင်မြို့</t>
+  </si>
+  <si>
+    <t>09-777040646</t>
+  </si>
+  <si>
+    <t>ရွှေပဒုမ္မာ</t>
+  </si>
+  <si>
+    <t>အမှတ် ၃၂ ကံလမ်း လှိုင်မြို့</t>
+  </si>
+  <si>
+    <t>09-940970247</t>
   </si>
 </sst>
 </file>
@@ -35717,9 +35756,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E199" sqref="E199"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K204" sqref="K204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40785,68 +40824,110 @@
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A200" s="2"/>
+      <c r="A200" s="87" t="s">
+        <v>2202</v>
+      </c>
       <c r="B200" s="3">
         <v>196</v>
       </c>
-      <c r="C200" s="2"/>
+      <c r="C200" s="2" t="s">
+        <v>2203</v>
+      </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
-      <c r="G200" s="2"/>
-      <c r="H200" s="2"/>
+      <c r="G200" s="2" t="s">
+        <v>2204</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I200" s="2"/>
-      <c r="J200" s="2"/>
+      <c r="J200" s="2" t="s">
+        <v>2205</v>
+      </c>
       <c r="K200" s="2"/>
-      <c r="L200" s="2"/>
+      <c r="L200" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A201" s="2"/>
+      <c r="A201" s="87"/>
       <c r="B201" s="3">
         <v>197</v>
       </c>
-      <c r="C201" s="2"/>
+      <c r="C201" s="2" t="s">
+        <v>2206</v>
+      </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
+      <c r="G201" s="2" t="s">
+        <v>2207</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I201" s="2"/>
-      <c r="J201" s="2"/>
+      <c r="J201" s="2" t="s">
+        <v>2208</v>
+      </c>
       <c r="K201" s="2"/>
-      <c r="L201" s="2"/>
+      <c r="L201" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A202" s="2"/>
+      <c r="A202" s="87"/>
       <c r="B202" s="3">
         <v>198</v>
       </c>
-      <c r="C202" s="2"/>
+      <c r="C202" s="2" t="s">
+        <v>2209</v>
+      </c>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
-      <c r="G202" s="2"/>
-      <c r="H202" s="2"/>
+      <c r="G202" s="2" t="s">
+        <v>2210</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I202" s="2"/>
-      <c r="J202" s="2"/>
+      <c r="J202" s="2" t="s">
+        <v>2211</v>
+      </c>
       <c r="K202" s="2"/>
-      <c r="L202" s="2"/>
+      <c r="L202" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A203" s="2"/>
+      <c r="A203" s="87"/>
       <c r="B203" s="3">
         <v>199</v>
       </c>
-      <c r="C203" s="2"/>
+      <c r="C203" s="2" t="s">
+        <v>2212</v>
+      </c>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
-      <c r="G203" s="2"/>
-      <c r="H203" s="2"/>
+      <c r="G203" s="2" t="s">
+        <v>2213</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I203" s="2"/>
-      <c r="J203" s="2"/>
+      <c r="J203" s="2" t="s">
+        <v>2214</v>
+      </c>
       <c r="K203" s="2"/>
-      <c r="L203" s="2"/>
+      <c r="L203" s="3" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" s="2"/>
@@ -41227,7 +41308,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42212,8 +42293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>

--- a/Ophir Post Excel Pos For Marketing.xlsx
+++ b/Ophir Post Excel Pos For Marketing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="140" windowWidth="15000" windowHeight="4670" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="140" windowWidth="15000" windowHeight="4670" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Old" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6534" uniqueCount="2269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6565" uniqueCount="2286">
   <si>
     <t>Date</t>
   </si>
@@ -6847,6 +6847,57 @@
   </si>
   <si>
     <t>2024/Feb</t>
+  </si>
+  <si>
+    <t>5.2.24</t>
+  </si>
+  <si>
+    <t>09-667490995</t>
+  </si>
+  <si>
+    <t>Boom BBQ and Res</t>
+  </si>
+  <si>
+    <t>09-794671050</t>
+  </si>
+  <si>
+    <t>Yangon BBQ and Res</t>
+  </si>
+  <si>
+    <t>09-402654283</t>
+  </si>
+  <si>
+    <t>09-678425512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coffee Shop </t>
+  </si>
+  <si>
+    <t>09-43188721</t>
+  </si>
+  <si>
+    <t>Yangon Bar</t>
+  </si>
+  <si>
+    <t>09-678539548</t>
+  </si>
+  <si>
+    <t>Tea Shop</t>
+  </si>
+  <si>
+    <t>09-884181321</t>
+  </si>
+  <si>
+    <t>YanKin</t>
+  </si>
+  <si>
+    <t>Bubble Tea Coffee</t>
+  </si>
+  <si>
+    <t>09-43051015</t>
+  </si>
+  <si>
+    <t>09-424445458</t>
   </si>
 </sst>
 </file>
@@ -7316,7 +7367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -7583,6 +7634,7 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -28841,8 +28893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L365"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G227" sqref="G227"/>
     </sheetView>
   </sheetViews>
@@ -36258,8 +36310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E219" sqref="E219"/>
     </sheetView>
   </sheetViews>
@@ -41885,9 +41937,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42608,162 +42660,224 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+      <c r="A30" s="110" t="s">
+        <v>2269</v>
+      </c>
       <c r="B30" s="3">
         <v>29</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>521</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>2270</v>
+      </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
+      <c r="A31" s="110"/>
       <c r="B31" s="3">
         <v>30</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>2271</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>2055</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="J31" s="2" t="s">
+        <v>2272</v>
+      </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
+      <c r="A32" s="110"/>
       <c r="B32" s="3">
         <v>31</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>2273</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>2055</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="J32" s="2" t="s">
+        <v>2274</v>
+      </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
+      <c r="A33" s="110"/>
       <c r="B33" s="3">
         <v>32</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>250</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>2055</v>
+      </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="J33" s="2" t="s">
+        <v>2275</v>
+      </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="110"/>
       <c r="B34" s="3">
         <v>33</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>2276</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>420</v>
+      </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+      <c r="J34" s="2" t="s">
+        <v>2277</v>
+      </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="110"/>
       <c r="B35" s="3">
         <v>34</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>2278</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>420</v>
+      </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
+      <c r="J35" s="2" t="s">
+        <v>2279</v>
+      </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
+      <c r="A36" s="110"/>
       <c r="B36" s="3">
         <v>35</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>2280</v>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>420</v>
+      </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
+      <c r="J36" s="2" t="s">
+        <v>2281</v>
+      </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
+      <c r="A37" s="110"/>
       <c r="B37" s="3">
         <v>36</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>2280</v>
+      </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>2282</v>
+      </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="J37" s="2" t="s">
+        <v>1027</v>
+      </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
+      <c r="A38" s="110"/>
       <c r="B38" s="3">
         <v>37</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>2283</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>2240</v>
+      </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
+      <c r="J38" s="2" t="s">
+        <v>2284</v>
+      </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
+      <c r="A39" s="110"/>
       <c r="B39" s="3">
         <v>38</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>521</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>1726</v>
+      </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
+      <c r="J39" s="2" t="s">
+        <v>2285</v>
+      </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
@@ -43151,18 +43265,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44790,18 +44904,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",D1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Ophir Post Excel Pos For Marketing.xlsx
+++ b/Ophir Post Excel Pos For Marketing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6565" uniqueCount="2286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6636" uniqueCount="2319">
   <si>
     <t>Date</t>
   </si>
@@ -6898,6 +6898,105 @@
   </si>
   <si>
     <t>09-424445458</t>
+  </si>
+  <si>
+    <t>8.2.24</t>
+  </si>
+  <si>
+    <t>Mother House</t>
+  </si>
+  <si>
+    <t>အမှတ် ၄၂၄ ဗိုလ်မှုးဗထူးလမ်းမကြီး အ‌ရှေ့ဒဂုံ ရန်ကုန်</t>
+  </si>
+  <si>
+    <t>Jaguar Bar</t>
+  </si>
+  <si>
+    <t>NO 151 Bo Mhuu Ba Htoo , Main Road 5 ward East Dagon</t>
+  </si>
+  <si>
+    <t>09-695405677</t>
+  </si>
+  <si>
+    <t>09-457591063-428214664</t>
+  </si>
+  <si>
+    <t>Icon Food and Res</t>
+  </si>
+  <si>
+    <t>NO 143 Ba Mhuu Ba Htoo , 5 Ward , East Dagon</t>
+  </si>
+  <si>
+    <t>09-423737737</t>
+  </si>
+  <si>
+    <t>ယောနဘံစားသောက်ဆိုင်</t>
+  </si>
+  <si>
+    <t>အမှတ် ၃၇ ဗိုလ်မှုးဗထူးလမ်းမကြီး စိန်ပန်းမှတ်တိင် ၅ရပ်ကွက်</t>
+  </si>
+  <si>
+    <t>09-450850246</t>
+  </si>
+  <si>
+    <t>တော်ဝင်ရွှေနန်း BBQ</t>
+  </si>
+  <si>
+    <t>အမှတ် ၁၃၅၇ ဗိုလ်မှုးဗထူးလမ်း နှင့် ဗိုလ်ချိုလမ်းထိပ်</t>
+  </si>
+  <si>
+    <t>09-401544018-458183835</t>
+  </si>
+  <si>
+    <t>ကောင်းပြည့်စုံ</t>
+  </si>
+  <si>
+    <t>NO 418 Bo Mhuu Ba Htoo Street, 3 Ward , East Dagon</t>
+  </si>
+  <si>
+    <t>09-777785423</t>
+  </si>
+  <si>
+    <t>ကွတ်ခိုင်</t>
+  </si>
+  <si>
+    <t>09-663191515</t>
+  </si>
+  <si>
+    <t>ဦးမင်း Bar</t>
+  </si>
+  <si>
+    <t>အမှတ် ၅၄ ဗိုလ်မှုးဗထူးလမ်း မြောက်ဒဂုံ</t>
+  </si>
+  <si>
+    <t>09-772272722</t>
+  </si>
+  <si>
+    <t>Aung MinGaLar BBQ</t>
+  </si>
+  <si>
+    <t>09-454384053</t>
+  </si>
+  <si>
+    <t>Feel Gold</t>
+  </si>
+  <si>
+    <t>09-898382679</t>
+  </si>
+  <si>
+    <t>The SeaSidw Tost</t>
+  </si>
+  <si>
+    <t>09-79992812</t>
+  </si>
+  <si>
+    <t>ကျော်ဆန်းချစ်တီးထမင်းဆိုင်</t>
+  </si>
+  <si>
+    <t>ဘောက်ထော်မြို့</t>
+  </si>
+  <si>
+    <t>09-453311828</t>
   </si>
 </sst>
 </file>
@@ -28893,8 +28992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L365"/>
   <sheetViews>
-    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G227" sqref="G227"/>
     </sheetView>
   </sheetViews>
@@ -36308,11 +36407,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L225"/>
+  <dimension ref="A1:L318"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E219" sqref="E219"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D228" sqref="D228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -41736,180 +41835,1606 @@
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A215" s="2"/>
+      <c r="A215" s="88" t="s">
+        <v>2286</v>
+      </c>
       <c r="B215" s="3">
         <v>208</v>
       </c>
-      <c r="C215" s="2"/>
+      <c r="C215" s="2" t="s">
+        <v>2287</v>
+      </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
-      <c r="G215" s="2"/>
-      <c r="H215" s="2"/>
+      <c r="G215" s="2" t="s">
+        <v>2288</v>
+      </c>
+      <c r="H215" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I215" s="2"/>
-      <c r="J215" s="2"/>
+      <c r="J215" s="2" t="s">
+        <v>2292</v>
+      </c>
       <c r="K215" s="2"/>
-      <c r="L215" s="2"/>
+      <c r="L215" s="3" t="s">
+        <v>2268</v>
+      </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A216" s="2"/>
+      <c r="A216" s="88"/>
       <c r="B216" s="3">
         <v>209</v>
       </c>
-      <c r="C216" s="2"/>
+      <c r="C216" s="2" t="s">
+        <v>2289</v>
+      </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
-      <c r="G216" s="2"/>
-      <c r="H216" s="2"/>
+      <c r="G216" s="2" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H216" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I216" s="2"/>
-      <c r="J216" s="2"/>
+      <c r="J216" s="2" t="s">
+        <v>2291</v>
+      </c>
       <c r="K216" s="2"/>
-      <c r="L216" s="2"/>
+      <c r="L216" s="3" t="s">
+        <v>2268</v>
+      </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A217" s="2"/>
+      <c r="A217" s="88"/>
       <c r="B217" s="3">
         <v>210</v>
       </c>
-      <c r="C217" s="2"/>
+      <c r="C217" s="2" t="s">
+        <v>2293</v>
+      </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2"/>
+      <c r="G217" s="2" t="s">
+        <v>2294</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I217" s="2"/>
-      <c r="J217" s="2"/>
+      <c r="J217" s="2" t="s">
+        <v>2295</v>
+      </c>
       <c r="K217" s="2"/>
-      <c r="L217" s="2"/>
+      <c r="L217" s="3" t="s">
+        <v>2268</v>
+      </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A218" s="2"/>
+      <c r="A218" s="88"/>
       <c r="B218" s="3">
         <v>211</v>
       </c>
-      <c r="C218" s="2"/>
+      <c r="C218" s="2" t="s">
+        <v>2296</v>
+      </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
-      <c r="G218" s="2"/>
-      <c r="H218" s="2"/>
+      <c r="G218" s="2" t="s">
+        <v>2297</v>
+      </c>
+      <c r="H218" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I218" s="2"/>
-      <c r="J218" s="2"/>
+      <c r="J218" s="2" t="s">
+        <v>2298</v>
+      </c>
       <c r="K218" s="2"/>
-      <c r="L218" s="2"/>
+      <c r="L218" s="3" t="s">
+        <v>2268</v>
+      </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A219" s="2"/>
+      <c r="A219" s="88"/>
       <c r="B219" s="3">
         <v>212</v>
       </c>
-      <c r="C219" s="2"/>
+      <c r="C219" s="2" t="s">
+        <v>2299</v>
+      </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
-      <c r="H219" s="2"/>
+      <c r="G219" s="2" t="s">
+        <v>2300</v>
+      </c>
+      <c r="H219" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I219" s="2"/>
-      <c r="J219" s="2"/>
+      <c r="J219" s="2" t="s">
+        <v>2301</v>
+      </c>
       <c r="K219" s="2"/>
-      <c r="L219" s="2"/>
+      <c r="L219" s="3" t="s">
+        <v>2268</v>
+      </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A220" s="2"/>
+      <c r="A220" s="88"/>
       <c r="B220" s="3">
         <v>213</v>
       </c>
-      <c r="C220" s="2"/>
+      <c r="C220" s="2" t="s">
+        <v>2302</v>
+      </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
-      <c r="G220" s="2"/>
-      <c r="H220" s="2"/>
+      <c r="G220" s="2" t="s">
+        <v>2300</v>
+      </c>
+      <c r="H220" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I220" s="2"/>
-      <c r="J220" s="2"/>
+      <c r="J220" s="2" t="s">
+        <v>2304</v>
+      </c>
       <c r="K220" s="2"/>
-      <c r="L220" s="2"/>
+      <c r="L220" s="3" t="s">
+        <v>2268</v>
+      </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A221" s="2"/>
+      <c r="A221" s="88"/>
       <c r="B221" s="3">
         <v>214</v>
       </c>
-      <c r="C221" s="2"/>
+      <c r="C221" s="2" t="s">
+        <v>2305</v>
+      </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
-      <c r="G221" s="2"/>
-      <c r="H221" s="2"/>
+      <c r="G221" s="2" t="s">
+        <v>2303</v>
+      </c>
+      <c r="H221" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I221" s="2"/>
-      <c r="J221" s="2"/>
+      <c r="J221" s="2" t="s">
+        <v>2306</v>
+      </c>
       <c r="K221" s="2"/>
-      <c r="L221" s="2"/>
+      <c r="L221" s="3" t="s">
+        <v>2268</v>
+      </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A222" s="2"/>
+      <c r="A222" s="88"/>
       <c r="B222" s="3">
         <v>215</v>
       </c>
-      <c r="C222" s="2"/>
+      <c r="C222" s="2" t="s">
+        <v>2307</v>
+      </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
-      <c r="G222" s="2"/>
-      <c r="H222" s="2"/>
+      <c r="G222" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="H222" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I222" s="2"/>
-      <c r="J222" s="2"/>
+      <c r="J222" s="2" t="s">
+        <v>2309</v>
+      </c>
       <c r="K222" s="2"/>
-      <c r="L222" s="2"/>
+      <c r="L222" s="3" t="s">
+        <v>2268</v>
+      </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A223" s="2"/>
+      <c r="A223" s="88"/>
       <c r="B223" s="3">
         <v>216</v>
       </c>
-      <c r="C223" s="2"/>
+      <c r="C223" s="2" t="s">
+        <v>2310</v>
+      </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
-      <c r="G223" s="2"/>
-      <c r="H223" s="2"/>
+      <c r="G223" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I223" s="2"/>
-      <c r="J223" s="2"/>
+      <c r="J223" s="2" t="s">
+        <v>2311</v>
+      </c>
       <c r="K223" s="2"/>
-      <c r="L223" s="2"/>
+      <c r="L223" s="3" t="s">
+        <v>2268</v>
+      </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A224" s="2"/>
+      <c r="A224" s="88"/>
       <c r="B224" s="3">
         <v>217</v>
       </c>
-      <c r="C224" s="2"/>
+      <c r="C224" s="2" t="s">
+        <v>2312</v>
+      </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
-      <c r="G224" s="2"/>
-      <c r="H224" s="2"/>
+      <c r="G224" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="H224" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I224" s="2"/>
-      <c r="J224" s="2"/>
+      <c r="J224" s="2" t="s">
+        <v>2313</v>
+      </c>
       <c r="K224" s="2"/>
-      <c r="L224" s="2"/>
+      <c r="L224" s="3" t="s">
+        <v>2268</v>
+      </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A225" s="2"/>
+      <c r="A225" s="88"/>
       <c r="B225" s="3">
         <v>218</v>
       </c>
-      <c r="C225" s="2"/>
+      <c r="C225" s="2" t="s">
+        <v>2314</v>
+      </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
-      <c r="H225" s="2"/>
+      <c r="G225" s="2" t="s">
+        <v>2308</v>
+      </c>
+      <c r="H225" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I225" s="2"/>
-      <c r="J225" s="2"/>
+      <c r="J225" s="2" t="s">
+        <v>2315</v>
+      </c>
       <c r="K225" s="2"/>
-      <c r="L225" s="2"/>
+      <c r="L225" s="3" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A226" s="88"/>
+      <c r="B226" s="53">
+        <v>219</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="4" t="s">
+        <v>2317</v>
+      </c>
+      <c r="H226" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I226" s="2"/>
+      <c r="J226" s="4" t="s">
+        <v>2318</v>
+      </c>
+      <c r="K226" s="2"/>
+      <c r="L226" s="3" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A227" s="2"/>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="2"/>
+      <c r="I227" s="2"/>
+      <c r="J227" s="2"/>
+      <c r="K227" s="2"/>
+      <c r="L227" s="2"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A228" s="2"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+      <c r="I228" s="2"/>
+      <c r="J228" s="2"/>
+      <c r="K228" s="2"/>
+      <c r="L228" s="2"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A229" s="2"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+      <c r="H229" s="2"/>
+      <c r="I229" s="2"/>
+      <c r="J229" s="2"/>
+      <c r="K229" s="2"/>
+      <c r="L229" s="2"/>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A230" s="2"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="2"/>
+      <c r="J230" s="2"/>
+      <c r="K230" s="2"/>
+      <c r="L230" s="2"/>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A231" s="2"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+      <c r="I231" s="2"/>
+      <c r="J231" s="2"/>
+      <c r="K231" s="2"/>
+      <c r="L231" s="2"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="2"/>
+      <c r="J232" s="2"/>
+      <c r="K232" s="2"/>
+      <c r="L232" s="2"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A233" s="2"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+      <c r="J233" s="2"/>
+      <c r="K233" s="2"/>
+      <c r="L233" s="2"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A234" s="2"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="K234" s="2"/>
+      <c r="L234" s="2"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A235" s="2"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="2"/>
+      <c r="I235" s="2"/>
+      <c r="J235" s="2"/>
+      <c r="K235" s="2"/>
+      <c r="L235" s="2"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A236" s="2"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="2"/>
+      <c r="I236" s="2"/>
+      <c r="J236" s="2"/>
+      <c r="K236" s="2"/>
+      <c r="L236" s="2"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A237" s="2"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="2"/>
+      <c r="I237" s="2"/>
+      <c r="J237" s="2"/>
+      <c r="K237" s="2"/>
+      <c r="L237" s="2"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A238" s="2"/>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
+      <c r="H238" s="2"/>
+      <c r="I238" s="2"/>
+      <c r="J238" s="2"/>
+      <c r="K238" s="2"/>
+      <c r="L238" s="2"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A239" s="2"/>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+      <c r="G239" s="2"/>
+      <c r="H239" s="2"/>
+      <c r="I239" s="2"/>
+      <c r="J239" s="2"/>
+      <c r="K239" s="2"/>
+      <c r="L239" s="2"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A240" s="2"/>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
+      <c r="H240" s="2"/>
+      <c r="I240" s="2"/>
+      <c r="J240" s="2"/>
+      <c r="K240" s="2"/>
+      <c r="L240" s="2"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A241" s="2"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+      <c r="H241" s="2"/>
+      <c r="I241" s="2"/>
+      <c r="J241" s="2"/>
+      <c r="K241" s="2"/>
+      <c r="L241" s="2"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A242" s="2"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="2"/>
+      <c r="I242" s="2"/>
+      <c r="J242" s="2"/>
+      <c r="K242" s="2"/>
+      <c r="L242" s="2"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A243" s="2"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
+      <c r="H243" s="2"/>
+      <c r="I243" s="2"/>
+      <c r="J243" s="2"/>
+      <c r="K243" s="2"/>
+      <c r="L243" s="2"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
+      <c r="G244" s="2"/>
+      <c r="H244" s="2"/>
+      <c r="I244" s="2"/>
+      <c r="J244" s="2"/>
+      <c r="K244" s="2"/>
+      <c r="L244" s="2"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A245" s="2"/>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+      <c r="H245" s="2"/>
+      <c r="I245" s="2"/>
+      <c r="J245" s="2"/>
+      <c r="K245" s="2"/>
+      <c r="L245" s="2"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A246" s="2"/>
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2"/>
+      <c r="H246" s="2"/>
+      <c r="I246" s="2"/>
+      <c r="J246" s="2"/>
+      <c r="K246" s="2"/>
+      <c r="L246" s="2"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A247" s="2"/>
+      <c r="B247" s="2"/>
+      <c r="C247" s="2"/>
+      <c r="D247" s="2"/>
+      <c r="E247" s="2"/>
+      <c r="F247" s="2"/>
+      <c r="G247" s="2"/>
+      <c r="H247" s="2"/>
+      <c r="I247" s="2"/>
+      <c r="J247" s="2"/>
+      <c r="K247" s="2"/>
+      <c r="L247" s="2"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A248" s="2"/>
+      <c r="B248" s="2"/>
+      <c r="C248" s="2"/>
+      <c r="D248" s="2"/>
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
+      <c r="G248" s="2"/>
+      <c r="H248" s="2"/>
+      <c r="I248" s="2"/>
+      <c r="J248" s="2"/>
+      <c r="K248" s="2"/>
+      <c r="L248" s="2"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A249" s="2"/>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2"/>
+      <c r="H249" s="2"/>
+      <c r="I249" s="2"/>
+      <c r="J249" s="2"/>
+      <c r="K249" s="2"/>
+      <c r="L249" s="2"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A250" s="2"/>
+      <c r="B250" s="2"/>
+      <c r="C250" s="2"/>
+      <c r="D250" s="2"/>
+      <c r="E250" s="2"/>
+      <c r="F250" s="2"/>
+      <c r="G250" s="2"/>
+      <c r="H250" s="2"/>
+      <c r="I250" s="2"/>
+      <c r="J250" s="2"/>
+      <c r="K250" s="2"/>
+      <c r="L250" s="2"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A251" s="2"/>
+      <c r="B251" s="2"/>
+      <c r="C251" s="2"/>
+      <c r="D251" s="2"/>
+      <c r="E251" s="2"/>
+      <c r="F251" s="2"/>
+      <c r="G251" s="2"/>
+      <c r="H251" s="2"/>
+      <c r="I251" s="2"/>
+      <c r="J251" s="2"/>
+      <c r="K251" s="2"/>
+      <c r="L251" s="2"/>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A252" s="2"/>
+      <c r="B252" s="2"/>
+      <c r="C252" s="2"/>
+      <c r="D252" s="2"/>
+      <c r="E252" s="2"/>
+      <c r="F252" s="2"/>
+      <c r="G252" s="2"/>
+      <c r="H252" s="2"/>
+      <c r="I252" s="2"/>
+      <c r="J252" s="2"/>
+      <c r="K252" s="2"/>
+      <c r="L252" s="2"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A253" s="2"/>
+      <c r="B253" s="2"/>
+      <c r="C253" s="2"/>
+      <c r="D253" s="2"/>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
+      <c r="G253" s="2"/>
+      <c r="H253" s="2"/>
+      <c r="I253" s="2"/>
+      <c r="J253" s="2"/>
+      <c r="K253" s="2"/>
+      <c r="L253" s="2"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A254" s="2"/>
+      <c r="B254" s="2"/>
+      <c r="C254" s="2"/>
+      <c r="D254" s="2"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+      <c r="G254" s="2"/>
+      <c r="H254" s="2"/>
+      <c r="I254" s="2"/>
+      <c r="J254" s="2"/>
+      <c r="K254" s="2"/>
+      <c r="L254" s="2"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A255" s="2"/>
+      <c r="B255" s="2"/>
+      <c r="C255" s="2"/>
+      <c r="D255" s="2"/>
+      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
+      <c r="G255" s="2"/>
+      <c r="H255" s="2"/>
+      <c r="I255" s="2"/>
+      <c r="J255" s="2"/>
+      <c r="K255" s="2"/>
+      <c r="L255" s="2"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A256" s="2"/>
+      <c r="B256" s="2"/>
+      <c r="C256" s="2"/>
+      <c r="D256" s="2"/>
+      <c r="E256" s="2"/>
+      <c r="F256" s="2"/>
+      <c r="G256" s="2"/>
+      <c r="H256" s="2"/>
+      <c r="I256" s="2"/>
+      <c r="J256" s="2"/>
+      <c r="K256" s="2"/>
+      <c r="L256" s="2"/>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A257" s="2"/>
+      <c r="B257" s="2"/>
+      <c r="C257" s="2"/>
+      <c r="D257" s="2"/>
+      <c r="E257" s="2"/>
+      <c r="F257" s="2"/>
+      <c r="G257" s="2"/>
+      <c r="H257" s="2"/>
+      <c r="I257" s="2"/>
+      <c r="J257" s="2"/>
+      <c r="K257" s="2"/>
+      <c r="L257" s="2"/>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A258" s="2"/>
+      <c r="B258" s="2"/>
+      <c r="C258" s="2"/>
+      <c r="D258" s="2"/>
+      <c r="E258" s="2"/>
+      <c r="F258" s="2"/>
+      <c r="G258" s="2"/>
+      <c r="H258" s="2"/>
+      <c r="I258" s="2"/>
+      <c r="J258" s="2"/>
+      <c r="K258" s="2"/>
+      <c r="L258" s="2"/>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A259" s="2"/>
+      <c r="B259" s="2"/>
+      <c r="C259" s="2"/>
+      <c r="D259" s="2"/>
+      <c r="E259" s="2"/>
+      <c r="F259" s="2"/>
+      <c r="G259" s="2"/>
+      <c r="H259" s="2"/>
+      <c r="I259" s="2"/>
+      <c r="J259" s="2"/>
+      <c r="K259" s="2"/>
+      <c r="L259" s="2"/>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A260" s="2"/>
+      <c r="B260" s="2"/>
+      <c r="C260" s="2"/>
+      <c r="D260" s="2"/>
+      <c r="E260" s="2"/>
+      <c r="F260" s="2"/>
+      <c r="G260" s="2"/>
+      <c r="H260" s="2"/>
+      <c r="I260" s="2"/>
+      <c r="J260" s="2"/>
+      <c r="K260" s="2"/>
+      <c r="L260" s="2"/>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A261" s="2"/>
+      <c r="B261" s="2"/>
+      <c r="C261" s="2"/>
+      <c r="D261" s="2"/>
+      <c r="E261" s="2"/>
+      <c r="F261" s="2"/>
+      <c r="G261" s="2"/>
+      <c r="H261" s="2"/>
+      <c r="I261" s="2"/>
+      <c r="J261" s="2"/>
+      <c r="K261" s="2"/>
+      <c r="L261" s="2"/>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A262" s="2"/>
+      <c r="B262" s="2"/>
+      <c r="C262" s="2"/>
+      <c r="D262" s="2"/>
+      <c r="E262" s="2"/>
+      <c r="F262" s="2"/>
+      <c r="G262" s="2"/>
+      <c r="H262" s="2"/>
+      <c r="I262" s="2"/>
+      <c r="J262" s="2"/>
+      <c r="K262" s="2"/>
+      <c r="L262" s="2"/>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A263" s="2"/>
+      <c r="B263" s="2"/>
+      <c r="C263" s="2"/>
+      <c r="D263" s="2"/>
+      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
+      <c r="G263" s="2"/>
+      <c r="H263" s="2"/>
+      <c r="I263" s="2"/>
+      <c r="J263" s="2"/>
+      <c r="K263" s="2"/>
+      <c r="L263" s="2"/>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A264" s="2"/>
+      <c r="B264" s="2"/>
+      <c r="C264" s="2"/>
+      <c r="D264" s="2"/>
+      <c r="E264" s="2"/>
+      <c r="F264" s="2"/>
+      <c r="G264" s="2"/>
+      <c r="H264" s="2"/>
+      <c r="I264" s="2"/>
+      <c r="J264" s="2"/>
+      <c r="K264" s="2"/>
+      <c r="L264" s="2"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A265" s="2"/>
+      <c r="B265" s="2"/>
+      <c r="C265" s="2"/>
+      <c r="D265" s="2"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+      <c r="G265" s="2"/>
+      <c r="H265" s="2"/>
+      <c r="I265" s="2"/>
+      <c r="J265" s="2"/>
+      <c r="K265" s="2"/>
+      <c r="L265" s="2"/>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A266" s="2"/>
+      <c r="B266" s="2"/>
+      <c r="C266" s="2"/>
+      <c r="D266" s="2"/>
+      <c r="E266" s="2"/>
+      <c r="F266" s="2"/>
+      <c r="G266" s="2"/>
+      <c r="H266" s="2"/>
+      <c r="I266" s="2"/>
+      <c r="J266" s="2"/>
+      <c r="K266" s="2"/>
+      <c r="L266" s="2"/>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A267" s="2"/>
+      <c r="B267" s="2"/>
+      <c r="C267" s="2"/>
+      <c r="D267" s="2"/>
+      <c r="E267" s="2"/>
+      <c r="F267" s="2"/>
+      <c r="G267" s="2"/>
+      <c r="H267" s="2"/>
+      <c r="I267" s="2"/>
+      <c r="J267" s="2"/>
+      <c r="K267" s="2"/>
+      <c r="L267" s="2"/>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A268" s="2"/>
+      <c r="B268" s="2"/>
+      <c r="C268" s="2"/>
+      <c r="D268" s="2"/>
+      <c r="E268" s="2"/>
+      <c r="F268" s="2"/>
+      <c r="G268" s="2"/>
+      <c r="H268" s="2"/>
+      <c r="I268" s="2"/>
+      <c r="J268" s="2"/>
+      <c r="K268" s="2"/>
+      <c r="L268" s="2"/>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A269" s="2"/>
+      <c r="B269" s="2"/>
+      <c r="C269" s="2"/>
+      <c r="D269" s="2"/>
+      <c r="E269" s="2"/>
+      <c r="F269" s="2"/>
+      <c r="G269" s="2"/>
+      <c r="H269" s="2"/>
+      <c r="I269" s="2"/>
+      <c r="J269" s="2"/>
+      <c r="K269" s="2"/>
+      <c r="L269" s="2"/>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A270" s="2"/>
+      <c r="B270" s="2"/>
+      <c r="C270" s="2"/>
+      <c r="D270" s="2"/>
+      <c r="E270" s="2"/>
+      <c r="F270" s="2"/>
+      <c r="G270" s="2"/>
+      <c r="H270" s="2"/>
+      <c r="I270" s="2"/>
+      <c r="J270" s="2"/>
+      <c r="K270" s="2"/>
+      <c r="L270" s="2"/>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A271" s="2"/>
+      <c r="B271" s="2"/>
+      <c r="C271" s="2"/>
+      <c r="D271" s="2"/>
+      <c r="E271" s="2"/>
+      <c r="F271" s="2"/>
+      <c r="G271" s="2"/>
+      <c r="H271" s="2"/>
+      <c r="I271" s="2"/>
+      <c r="J271" s="2"/>
+      <c r="K271" s="2"/>
+      <c r="L271" s="2"/>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A272" s="2"/>
+      <c r="B272" s="2"/>
+      <c r="C272" s="2"/>
+      <c r="D272" s="2"/>
+      <c r="E272" s="2"/>
+      <c r="F272" s="2"/>
+      <c r="G272" s="2"/>
+      <c r="H272" s="2"/>
+      <c r="I272" s="2"/>
+      <c r="J272" s="2"/>
+      <c r="K272" s="2"/>
+      <c r="L272" s="2"/>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A273" s="2"/>
+      <c r="B273" s="2"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="2"/>
+      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
+      <c r="G273" s="2"/>
+      <c r="H273" s="2"/>
+      <c r="I273" s="2"/>
+      <c r="J273" s="2"/>
+      <c r="K273" s="2"/>
+      <c r="L273" s="2"/>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A274" s="2"/>
+      <c r="B274" s="2"/>
+      <c r="C274" s="2"/>
+      <c r="D274" s="2"/>
+      <c r="E274" s="2"/>
+      <c r="F274" s="2"/>
+      <c r="G274" s="2"/>
+      <c r="H274" s="2"/>
+      <c r="I274" s="2"/>
+      <c r="J274" s="2"/>
+      <c r="K274" s="2"/>
+      <c r="L274" s="2"/>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A275" s="2"/>
+      <c r="B275" s="2"/>
+      <c r="C275" s="2"/>
+      <c r="D275" s="2"/>
+      <c r="E275" s="2"/>
+      <c r="F275" s="2"/>
+      <c r="G275" s="2"/>
+      <c r="H275" s="2"/>
+      <c r="I275" s="2"/>
+      <c r="J275" s="2"/>
+      <c r="K275" s="2"/>
+      <c r="L275" s="2"/>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A276" s="2"/>
+      <c r="B276" s="2"/>
+      <c r="C276" s="2"/>
+      <c r="D276" s="2"/>
+      <c r="E276" s="2"/>
+      <c r="F276" s="2"/>
+      <c r="G276" s="2"/>
+      <c r="H276" s="2"/>
+      <c r="I276" s="2"/>
+      <c r="J276" s="2"/>
+      <c r="K276" s="2"/>
+      <c r="L276" s="2"/>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A277" s="2"/>
+      <c r="B277" s="2"/>
+      <c r="C277" s="2"/>
+      <c r="D277" s="2"/>
+      <c r="E277" s="2"/>
+      <c r="F277" s="2"/>
+      <c r="G277" s="2"/>
+      <c r="H277" s="2"/>
+      <c r="I277" s="2"/>
+      <c r="J277" s="2"/>
+      <c r="K277" s="2"/>
+      <c r="L277" s="2"/>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A278" s="2"/>
+      <c r="B278" s="2"/>
+      <c r="C278" s="2"/>
+      <c r="D278" s="2"/>
+      <c r="E278" s="2"/>
+      <c r="F278" s="2"/>
+      <c r="G278" s="2"/>
+      <c r="H278" s="2"/>
+      <c r="I278" s="2"/>
+      <c r="J278" s="2"/>
+      <c r="K278" s="2"/>
+      <c r="L278" s="2"/>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A279" s="2"/>
+      <c r="B279" s="2"/>
+      <c r="C279" s="2"/>
+      <c r="D279" s="2"/>
+      <c r="E279" s="2"/>
+      <c r="F279" s="2"/>
+      <c r="G279" s="2"/>
+      <c r="H279" s="2"/>
+      <c r="I279" s="2"/>
+      <c r="J279" s="2"/>
+      <c r="K279" s="2"/>
+      <c r="L279" s="2"/>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A280" s="2"/>
+      <c r="B280" s="2"/>
+      <c r="C280" s="2"/>
+      <c r="D280" s="2"/>
+      <c r="E280" s="2"/>
+      <c r="F280" s="2"/>
+      <c r="G280" s="2"/>
+      <c r="H280" s="2"/>
+      <c r="I280" s="2"/>
+      <c r="J280" s="2"/>
+      <c r="K280" s="2"/>
+      <c r="L280" s="2"/>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A281" s="2"/>
+      <c r="B281" s="2"/>
+      <c r="C281" s="2"/>
+      <c r="D281" s="2"/>
+      <c r="E281" s="2"/>
+      <c r="F281" s="2"/>
+      <c r="G281" s="2"/>
+      <c r="H281" s="2"/>
+      <c r="I281" s="2"/>
+      <c r="J281" s="2"/>
+      <c r="K281" s="2"/>
+      <c r="L281" s="2"/>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A282" s="2"/>
+      <c r="B282" s="2"/>
+      <c r="C282" s="2"/>
+      <c r="D282" s="2"/>
+      <c r="E282" s="2"/>
+      <c r="F282" s="2"/>
+      <c r="G282" s="2"/>
+      <c r="H282" s="2"/>
+      <c r="I282" s="2"/>
+      <c r="J282" s="2"/>
+      <c r="K282" s="2"/>
+      <c r="L282" s="2"/>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A283" s="2"/>
+      <c r="B283" s="2"/>
+      <c r="C283" s="2"/>
+      <c r="D283" s="2"/>
+      <c r="E283" s="2"/>
+      <c r="F283" s="2"/>
+      <c r="G283" s="2"/>
+      <c r="H283" s="2"/>
+      <c r="I283" s="2"/>
+      <c r="J283" s="2"/>
+      <c r="K283" s="2"/>
+      <c r="L283" s="2"/>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A284" s="2"/>
+      <c r="B284" s="2"/>
+      <c r="C284" s="2"/>
+      <c r="D284" s="2"/>
+      <c r="E284" s="2"/>
+      <c r="F284" s="2"/>
+      <c r="G284" s="2"/>
+      <c r="H284" s="2"/>
+      <c r="I284" s="2"/>
+      <c r="J284" s="2"/>
+      <c r="K284" s="2"/>
+      <c r="L284" s="2"/>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A285" s="2"/>
+      <c r="B285" s="2"/>
+      <c r="C285" s="2"/>
+      <c r="D285" s="2"/>
+      <c r="E285" s="2"/>
+      <c r="F285" s="2"/>
+      <c r="G285" s="2"/>
+      <c r="H285" s="2"/>
+      <c r="I285" s="2"/>
+      <c r="J285" s="2"/>
+      <c r="K285" s="2"/>
+      <c r="L285" s="2"/>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A286" s="2"/>
+      <c r="B286" s="2"/>
+      <c r="C286" s="2"/>
+      <c r="D286" s="2"/>
+      <c r="E286" s="2"/>
+      <c r="F286" s="2"/>
+      <c r="G286" s="2"/>
+      <c r="H286" s="2"/>
+      <c r="I286" s="2"/>
+      <c r="J286" s="2"/>
+      <c r="K286" s="2"/>
+      <c r="L286" s="2"/>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A287" s="2"/>
+      <c r="B287" s="2"/>
+      <c r="C287" s="2"/>
+      <c r="D287" s="2"/>
+      <c r="E287" s="2"/>
+      <c r="F287" s="2"/>
+      <c r="G287" s="2"/>
+      <c r="H287" s="2"/>
+      <c r="I287" s="2"/>
+      <c r="J287" s="2"/>
+      <c r="K287" s="2"/>
+      <c r="L287" s="2"/>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A288" s="2"/>
+      <c r="B288" s="2"/>
+      <c r="C288" s="2"/>
+      <c r="D288" s="2"/>
+      <c r="E288" s="2"/>
+      <c r="F288" s="2"/>
+      <c r="G288" s="2"/>
+      <c r="H288" s="2"/>
+      <c r="I288" s="2"/>
+      <c r="J288" s="2"/>
+      <c r="K288" s="2"/>
+      <c r="L288" s="2"/>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A289" s="2"/>
+      <c r="B289" s="2"/>
+      <c r="C289" s="2"/>
+      <c r="D289" s="2"/>
+      <c r="E289" s="2"/>
+      <c r="F289" s="2"/>
+      <c r="G289" s="2"/>
+      <c r="H289" s="2"/>
+      <c r="I289" s="2"/>
+      <c r="J289" s="2"/>
+      <c r="K289" s="2"/>
+      <c r="L289" s="2"/>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A290" s="2"/>
+      <c r="B290" s="2"/>
+      <c r="C290" s="2"/>
+      <c r="D290" s="2"/>
+      <c r="E290" s="2"/>
+      <c r="F290" s="2"/>
+      <c r="G290" s="2"/>
+      <c r="H290" s="2"/>
+      <c r="I290" s="2"/>
+      <c r="J290" s="2"/>
+      <c r="K290" s="2"/>
+      <c r="L290" s="2"/>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A291" s="2"/>
+      <c r="B291" s="2"/>
+      <c r="C291" s="2"/>
+      <c r="D291" s="2"/>
+      <c r="E291" s="2"/>
+      <c r="F291" s="2"/>
+      <c r="G291" s="2"/>
+      <c r="H291" s="2"/>
+      <c r="I291" s="2"/>
+      <c r="J291" s="2"/>
+      <c r="K291" s="2"/>
+      <c r="L291" s="2"/>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A292" s="2"/>
+      <c r="B292" s="2"/>
+      <c r="C292" s="2"/>
+      <c r="D292" s="2"/>
+      <c r="E292" s="2"/>
+      <c r="F292" s="2"/>
+      <c r="G292" s="2"/>
+      <c r="H292" s="2"/>
+      <c r="I292" s="2"/>
+      <c r="J292" s="2"/>
+      <c r="K292" s="2"/>
+      <c r="L292" s="2"/>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A293" s="2"/>
+      <c r="B293" s="2"/>
+      <c r="C293" s="2"/>
+      <c r="D293" s="2"/>
+      <c r="E293" s="2"/>
+      <c r="F293" s="2"/>
+      <c r="G293" s="2"/>
+      <c r="H293" s="2"/>
+      <c r="I293" s="2"/>
+      <c r="J293" s="2"/>
+      <c r="K293" s="2"/>
+      <c r="L293" s="2"/>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A294" s="2"/>
+      <c r="B294" s="2"/>
+      <c r="C294" s="2"/>
+      <c r="D294" s="2"/>
+      <c r="E294" s="2"/>
+      <c r="F294" s="2"/>
+      <c r="G294" s="2"/>
+      <c r="H294" s="2"/>
+      <c r="I294" s="2"/>
+      <c r="J294" s="2"/>
+      <c r="K294" s="2"/>
+      <c r="L294" s="2"/>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A295" s="2"/>
+      <c r="B295" s="2"/>
+      <c r="C295" s="2"/>
+      <c r="D295" s="2"/>
+      <c r="E295" s="2"/>
+      <c r="F295" s="2"/>
+      <c r="G295" s="2"/>
+      <c r="H295" s="2"/>
+      <c r="I295" s="2"/>
+      <c r="J295" s="2"/>
+      <c r="K295" s="2"/>
+      <c r="L295" s="2"/>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A296" s="2"/>
+      <c r="B296" s="2"/>
+      <c r="C296" s="2"/>
+      <c r="D296" s="2"/>
+      <c r="E296" s="2"/>
+      <c r="F296" s="2"/>
+      <c r="G296" s="2"/>
+      <c r="H296" s="2"/>
+      <c r="I296" s="2"/>
+      <c r="J296" s="2"/>
+      <c r="K296" s="2"/>
+      <c r="L296" s="2"/>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A297" s="2"/>
+      <c r="B297" s="2"/>
+      <c r="C297" s="2"/>
+      <c r="D297" s="2"/>
+      <c r="E297" s="2"/>
+      <c r="F297" s="2"/>
+      <c r="G297" s="2"/>
+      <c r="H297" s="2"/>
+      <c r="I297" s="2"/>
+      <c r="J297" s="2"/>
+      <c r="K297" s="2"/>
+      <c r="L297" s="2"/>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A298" s="2"/>
+      <c r="B298" s="2"/>
+      <c r="C298" s="2"/>
+      <c r="D298" s="2"/>
+      <c r="E298" s="2"/>
+      <c r="F298" s="2"/>
+      <c r="G298" s="2"/>
+      <c r="H298" s="2"/>
+      <c r="I298" s="2"/>
+      <c r="J298" s="2"/>
+      <c r="K298" s="2"/>
+      <c r="L298" s="2"/>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A299" s="2"/>
+      <c r="B299" s="2"/>
+      <c r="C299" s="2"/>
+      <c r="D299" s="2"/>
+      <c r="E299" s="2"/>
+      <c r="F299" s="2"/>
+      <c r="G299" s="2"/>
+      <c r="H299" s="2"/>
+      <c r="I299" s="2"/>
+      <c r="J299" s="2"/>
+      <c r="K299" s="2"/>
+      <c r="L299" s="2"/>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A300" s="2"/>
+      <c r="B300" s="2"/>
+      <c r="C300" s="2"/>
+      <c r="D300" s="2"/>
+      <c r="E300" s="2"/>
+      <c r="F300" s="2"/>
+      <c r="G300" s="2"/>
+      <c r="H300" s="2"/>
+      <c r="I300" s="2"/>
+      <c r="J300" s="2"/>
+      <c r="K300" s="2"/>
+      <c r="L300" s="2"/>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A301" s="2"/>
+      <c r="B301" s="2"/>
+      <c r="C301" s="2"/>
+      <c r="D301" s="2"/>
+      <c r="E301" s="2"/>
+      <c r="F301" s="2"/>
+      <c r="G301" s="2"/>
+      <c r="H301" s="2"/>
+      <c r="I301" s="2"/>
+      <c r="J301" s="2"/>
+      <c r="K301" s="2"/>
+      <c r="L301" s="2"/>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A302" s="2"/>
+      <c r="B302" s="2"/>
+      <c r="C302" s="2"/>
+      <c r="D302" s="2"/>
+      <c r="E302" s="2"/>
+      <c r="F302" s="2"/>
+      <c r="G302" s="2"/>
+      <c r="H302" s="2"/>
+      <c r="I302" s="2"/>
+      <c r="J302" s="2"/>
+      <c r="K302" s="2"/>
+      <c r="L302" s="2"/>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A303" s="2"/>
+      <c r="B303" s="2"/>
+      <c r="C303" s="2"/>
+      <c r="D303" s="2"/>
+      <c r="E303" s="2"/>
+      <c r="F303" s="2"/>
+      <c r="G303" s="2"/>
+      <c r="H303" s="2"/>
+      <c r="I303" s="2"/>
+      <c r="J303" s="2"/>
+      <c r="K303" s="2"/>
+      <c r="L303" s="2"/>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A304" s="2"/>
+      <c r="B304" s="2"/>
+      <c r="C304" s="2"/>
+      <c r="D304" s="2"/>
+      <c r="E304" s="2"/>
+      <c r="F304" s="2"/>
+      <c r="G304" s="2"/>
+      <c r="H304" s="2"/>
+      <c r="I304" s="2"/>
+      <c r="J304" s="2"/>
+      <c r="K304" s="2"/>
+      <c r="L304" s="2"/>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A305" s="2"/>
+      <c r="B305" s="2"/>
+      <c r="C305" s="2"/>
+      <c r="D305" s="2"/>
+      <c r="E305" s="2"/>
+      <c r="F305" s="2"/>
+      <c r="G305" s="2"/>
+      <c r="H305" s="2"/>
+      <c r="I305" s="2"/>
+      <c r="J305" s="2"/>
+      <c r="K305" s="2"/>
+      <c r="L305" s="2"/>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A306" s="2"/>
+      <c r="B306" s="2"/>
+      <c r="C306" s="2"/>
+      <c r="D306" s="2"/>
+      <c r="E306" s="2"/>
+      <c r="F306" s="2"/>
+      <c r="G306" s="2"/>
+      <c r="H306" s="2"/>
+      <c r="I306" s="2"/>
+      <c r="J306" s="2"/>
+      <c r="K306" s="2"/>
+      <c r="L306" s="2"/>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A307" s="2"/>
+      <c r="B307" s="2"/>
+      <c r="C307" s="2"/>
+      <c r="D307" s="2"/>
+      <c r="E307" s="2"/>
+      <c r="F307" s="2"/>
+      <c r="G307" s="2"/>
+      <c r="H307" s="2"/>
+      <c r="I307" s="2"/>
+      <c r="J307" s="2"/>
+      <c r="K307" s="2"/>
+      <c r="L307" s="2"/>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A308" s="2"/>
+      <c r="B308" s="2"/>
+      <c r="C308" s="2"/>
+      <c r="D308" s="2"/>
+      <c r="E308" s="2"/>
+      <c r="F308" s="2"/>
+      <c r="G308" s="2"/>
+      <c r="H308" s="2"/>
+      <c r="I308" s="2"/>
+      <c r="J308" s="2"/>
+      <c r="K308" s="2"/>
+      <c r="L308" s="2"/>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A309" s="2"/>
+      <c r="B309" s="2"/>
+      <c r="C309" s="2"/>
+      <c r="D309" s="2"/>
+      <c r="E309" s="2"/>
+      <c r="F309" s="2"/>
+      <c r="G309" s="2"/>
+      <c r="H309" s="2"/>
+      <c r="I309" s="2"/>
+      <c r="J309" s="2"/>
+      <c r="K309" s="2"/>
+      <c r="L309" s="2"/>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A310" s="2"/>
+      <c r="B310" s="2"/>
+      <c r="C310" s="2"/>
+      <c r="D310" s="2"/>
+      <c r="E310" s="2"/>
+      <c r="F310" s="2"/>
+      <c r="G310" s="2"/>
+      <c r="H310" s="2"/>
+      <c r="I310" s="2"/>
+      <c r="J310" s="2"/>
+      <c r="K310" s="2"/>
+      <c r="L310" s="2"/>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A311" s="2"/>
+      <c r="B311" s="2"/>
+      <c r="C311" s="2"/>
+      <c r="D311" s="2"/>
+      <c r="E311" s="2"/>
+      <c r="F311" s="2"/>
+      <c r="G311" s="2"/>
+      <c r="H311" s="2"/>
+      <c r="I311" s="2"/>
+      <c r="J311" s="2"/>
+      <c r="K311" s="2"/>
+      <c r="L311" s="2"/>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A312" s="2"/>
+      <c r="B312" s="2"/>
+      <c r="C312" s="2"/>
+      <c r="D312" s="2"/>
+      <c r="E312" s="2"/>
+      <c r="F312" s="2"/>
+      <c r="G312" s="2"/>
+      <c r="H312" s="2"/>
+      <c r="I312" s="2"/>
+      <c r="J312" s="2"/>
+      <c r="K312" s="2"/>
+      <c r="L312" s="2"/>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A313" s="2"/>
+      <c r="B313" s="2"/>
+      <c r="C313" s="2"/>
+      <c r="D313" s="2"/>
+      <c r="E313" s="2"/>
+      <c r="F313" s="2"/>
+      <c r="G313" s="2"/>
+      <c r="H313" s="2"/>
+      <c r="I313" s="2"/>
+      <c r="J313" s="2"/>
+      <c r="K313" s="2"/>
+      <c r="L313" s="2"/>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A314" s="2"/>
+      <c r="B314" s="2"/>
+      <c r="C314" s="2"/>
+      <c r="D314" s="2"/>
+      <c r="E314" s="2"/>
+      <c r="F314" s="2"/>
+      <c r="G314" s="2"/>
+      <c r="H314" s="2"/>
+      <c r="I314" s="2"/>
+      <c r="J314" s="2"/>
+      <c r="K314" s="2"/>
+      <c r="L314" s="2"/>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A315" s="2"/>
+      <c r="B315" s="2"/>
+      <c r="C315" s="2"/>
+      <c r="D315" s="2"/>
+      <c r="E315" s="2"/>
+      <c r="F315" s="2"/>
+      <c r="G315" s="2"/>
+      <c r="H315" s="2"/>
+      <c r="I315" s="2"/>
+      <c r="J315" s="2"/>
+      <c r="K315" s="2"/>
+      <c r="L315" s="2"/>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A316" s="2"/>
+      <c r="B316" s="2"/>
+      <c r="C316" s="2"/>
+      <c r="D316" s="2"/>
+      <c r="E316" s="2"/>
+      <c r="F316" s="2"/>
+      <c r="G316" s="2"/>
+      <c r="H316" s="2"/>
+      <c r="I316" s="2"/>
+      <c r="J316" s="2"/>
+      <c r="K316" s="2"/>
+      <c r="L316" s="2"/>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A317" s="2"/>
+      <c r="B317" s="2"/>
+      <c r="C317" s="2"/>
+      <c r="D317" s="2"/>
+      <c r="E317" s="2"/>
+      <c r="F317" s="2"/>
+      <c r="G317" s="2"/>
+      <c r="H317" s="2"/>
+      <c r="I317" s="2"/>
+      <c r="J317" s="2"/>
+      <c r="K317" s="2"/>
+      <c r="L317" s="2"/>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A318" s="2"/>
+      <c r="B318" s="2"/>
+      <c r="C318" s="2"/>
+      <c r="D318" s="2"/>
+      <c r="E318" s="2"/>
+      <c r="F318" s="2"/>
+      <c r="G318" s="2"/>
+      <c r="H318" s="2"/>
+      <c r="I318" s="2"/>
+      <c r="J318" s="2"/>
+      <c r="K318" s="2"/>
+      <c r="L318" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1">
@@ -41938,8 +43463,8 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42681,7 +44206,9 @@
         <v>2270</v>
       </c>
       <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="L30" s="3" t="s">
+        <v>2268</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="110"/>
@@ -42703,7 +44230,9 @@
         <v>2272</v>
       </c>
       <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="L31" s="3" t="s">
+        <v>2268</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="110"/>
@@ -42725,7 +44254,9 @@
         <v>2274</v>
       </c>
       <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="L32" s="3" t="s">
+        <v>2268</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="110"/>
@@ -42747,7 +44278,9 @@
         <v>2275</v>
       </c>
       <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="L33" s="3" t="s">
+        <v>2268</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="110"/>
@@ -42769,7 +44302,9 @@
         <v>2277</v>
       </c>
       <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+      <c r="L34" s="3" t="s">
+        <v>2268</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="110"/>
@@ -42791,7 +44326,9 @@
         <v>2279</v>
       </c>
       <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
+      <c r="L35" s="3" t="s">
+        <v>2268</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="110"/>
@@ -42813,7 +44350,9 @@
         <v>2281</v>
       </c>
       <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
+      <c r="L36" s="3" t="s">
+        <v>2268</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="110"/>
@@ -42835,7 +44374,9 @@
         <v>1027</v>
       </c>
       <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
+      <c r="L37" s="3" t="s">
+        <v>2268</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="110"/>
@@ -42857,7 +44398,9 @@
         <v>2284</v>
       </c>
       <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
+      <c r="L38" s="3" t="s">
+        <v>2268</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="110"/>
@@ -42879,7 +44422,9 @@
         <v>2285</v>
       </c>
       <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="L39" s="3" t="s">
+        <v>2268</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
